--- a/Rush Hour Analysis.xlsx
+++ b/Rush Hour Analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="14">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -63,9 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###0.000"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -118,9 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -418,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,29 +422,29 @@
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -459,17 +455,17 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.003976000000000091</v>
+        <v>1052</v>
+      </c>
+      <c r="F2">
+        <v>0.6516445999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,17 +475,17 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.001836500000000019</v>
+        <v>154</v>
+      </c>
+      <c r="F3">
+        <v>0.1356670000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -499,17 +495,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.00120549999999997</v>
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>0.1236412999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -519,17 +515,17 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0009871999999999659</v>
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>0.1428237000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -539,17 +535,17 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>106</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.05564080000000005</v>
+        <v>263</v>
+      </c>
+      <c r="F6">
+        <v>0.1976467000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -559,17 +555,17 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.004918899999999948</v>
+        <v>1099</v>
+      </c>
+      <c r="F7">
+        <v>0.8961434000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -579,17 +575,17 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.00453160000000008</v>
+        <v>1099</v>
+      </c>
+      <c r="F8">
+        <v>0.7975672999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -599,17 +595,17 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.001586399999999988</v>
+        <v>1579</v>
+      </c>
+      <c r="F9">
+        <v>1.4389085</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -619,17 +615,17 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.005558300000000016</v>
+        <v>1052</v>
+      </c>
+      <c r="F10">
+        <v>0.7609843999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -639,17 +635,17 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1199</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.7737134</v>
+        <v>2790</v>
+      </c>
+      <c r="F11">
+        <v>1.9649978</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -659,17 +655,17 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>101</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.06936300000000006</v>
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>0.06227899999999842</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -679,17 +675,17 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>101</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.07793950000000005</v>
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>0.05833499999999958</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -699,17 +695,17 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>101</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.07378680000000015</v>
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>0.05589179999999949</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -719,17 +715,17 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>3418</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.6813863</v>
+        <v>342</v>
+      </c>
+      <c r="F15">
+        <v>0.2495727999999993</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -739,17 +735,17 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>598</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5199501</v>
+        <v>1370</v>
+      </c>
+      <c r="F16">
+        <v>1.152057000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -759,17 +755,17 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>598</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.4891705999999996</v>
+        <v>1370</v>
+      </c>
+      <c r="F17">
+        <v>1.2831837</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -779,17 +775,17 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>384</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.3913826999999994</v>
+        <v>542</v>
+      </c>
+      <c r="F18">
+        <v>0.4185610999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -799,17 +795,17 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1062</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.142683900000001</v>
+        <v>1990</v>
+      </c>
+      <c r="F19">
+        <v>1.849113500000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -819,17 +815,17 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>5400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4.8750396</v>
+        <v>774</v>
+      </c>
+      <c r="F20">
+        <v>0.5416390999999994</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -839,17 +835,17 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>1590</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.158947000000001</v>
+        <v>243</v>
+      </c>
+      <c r="F21">
+        <v>0.1775874000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -859,17 +855,17 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>1590</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.116479500000001</v>
+        <v>243</v>
+      </c>
+      <c r="F22">
+        <v>0.1602342999999991</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -879,17 +875,17 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>1590</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.149696500000001</v>
+        <v>243</v>
+      </c>
+      <c r="F23">
+        <v>0.1627136999999994</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -899,17 +895,17 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E24">
-        <v>1411</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.678514199999999</v>
+        <v>291</v>
+      </c>
+      <c r="F24">
+        <v>0.1906982999999993</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -919,17 +915,17 @@
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>5625</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4.827115199999998</v>
+        <v>559</v>
+      </c>
+      <c r="F25">
+        <v>0.4237580999999988</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -939,17 +935,17 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>5625</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4.290979199999999</v>
+        <v>559</v>
+      </c>
+      <c r="F26">
+        <v>0.3859449000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -959,17 +955,17 @@
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>3902</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.025312599999999</v>
+        <v>675</v>
+      </c>
+      <c r="F27">
+        <v>0.3692241999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -979,17 +975,17 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>6506</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4.447315300000003</v>
+        <v>778</v>
+      </c>
+      <c r="F28">
+        <v>0.5014634000000022</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -999,14 +995,17 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
       <c r="E29">
-        <v>156</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.1180313999999996</v>
+        <v>351</v>
+      </c>
+      <c r="F29">
+        <v>0.2017330000000008</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1016,14 +1015,17 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>156</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.08189449999999709</v>
+        <v>219</v>
+      </c>
+      <c r="F30">
+        <v>0.1375747999999994</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1033,14 +1035,17 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
         <v>11</v>
       </c>
       <c r="E31">
-        <v>156</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.08621060000000114</v>
+        <v>219</v>
+      </c>
+      <c r="F31">
+        <v>0.1249770999999988</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1050,14 +1055,17 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>156</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.08415280000000536</v>
+        <v>219</v>
+      </c>
+      <c r="F32">
+        <v>0.1624529999999993</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1067,14 +1075,17 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>156</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.08643139999999505</v>
+        <v>184</v>
+      </c>
+      <c r="F33">
+        <v>0.125667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1084,14 +1095,17 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>169</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.09636310000000492</v>
+        <v>187</v>
+      </c>
+      <c r="F34">
+        <v>0.1299218999999994</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1101,14 +1115,17 @@
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>169</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.09976120000000321</v>
+        <v>187</v>
+      </c>
+      <c r="F35">
+        <v>0.1221557000000004</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1118,14 +1135,17 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>232</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.1364716000000001</v>
+        <v>167</v>
+      </c>
+      <c r="F36">
+        <v>0.1223530000000004</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1135,14 +1155,17 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>156</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.1059845999999993</v>
+        <v>321</v>
+      </c>
+      <c r="F37">
+        <v>0.2128839000000013</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1152,14 +1175,17 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
       <c r="E38">
-        <v>353</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.215042700000005</v>
+        <v>2024</v>
+      </c>
+      <c r="F38">
+        <v>1.8532902</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1169,14 +1195,17 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>353</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.1697765999999987</v>
+        <v>187</v>
+      </c>
+      <c r="F39">
+        <v>0.2276141000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,14 +1215,17 @@
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>353</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.1779744000000036</v>
+        <v>187</v>
+      </c>
+      <c r="F40">
+        <v>0.2404520000000012</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1203,14 +1235,17 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>353</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.168899500000002</v>
+        <v>187</v>
+      </c>
+      <c r="F41">
+        <v>0.2321731000000007</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,14 +1255,17 @@
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
       </c>
       <c r="E42">
-        <v>353</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.1670905000000005</v>
+        <v>485</v>
+      </c>
+      <c r="F42">
+        <v>0.5181223999999993</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1237,14 +1275,17 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>353</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.1847086999999945</v>
+        <v>1223</v>
+      </c>
+      <c r="F43">
+        <v>1.244135</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,14 +1295,17 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>353</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.2020130999999949</v>
+        <v>1223</v>
+      </c>
+      <c r="F44">
+        <v>1.083371399999997</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1271,14 +1315,17 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>353</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.1834938000000008</v>
+        <v>106</v>
+      </c>
+      <c r="F45">
+        <v>0.1164562000000018</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1288,14 +1335,17 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>353</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.1951076</v>
+        <v>2573</v>
+      </c>
+      <c r="F46">
+        <v>2.513839399999998</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1305,17 +1355,17 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>778</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.5011764999999997</v>
+        <v>1550</v>
+      </c>
+      <c r="F47">
+        <v>1.0887305</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1325,17 +1375,17 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>497</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.2736095000000063</v>
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>0.06972899999999882</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1345,17 +1395,17 @@
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>497</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0.2258550999999969</v>
+        <v>78</v>
+      </c>
+      <c r="F49">
+        <v>0.06598280000000045</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1365,17 +1415,17 @@
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>497</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0.3551206999999934</v>
+        <v>78</v>
+      </c>
+      <c r="F50">
+        <v>0.06567400000000134</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1385,17 +1435,17 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E51">
-        <v>581</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.2922768000000033</v>
+        <v>460</v>
+      </c>
+      <c r="F51">
+        <v>0.3584005000000019</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1405,17 +1455,17 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>672</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0.3750374999999977</v>
+        <v>1090</v>
+      </c>
+      <c r="F52">
+        <v>0.8597317000000011</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1425,17 +1475,17 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>672</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.3293374</v>
+        <v>1090</v>
+      </c>
+      <c r="F53">
+        <v>1.028957000000002</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1445,17 +1495,17 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>685</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.3202411000000041</v>
+        <v>586</v>
+      </c>
+      <c r="F54">
+        <v>0.4916364999999985</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1465,17 +1515,7910 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>2179</v>
+      </c>
+      <c r="F55">
+        <v>1.5705314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>4300</v>
+      </c>
+      <c r="F56">
+        <v>3.0289827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>1023</v>
+      </c>
+      <c r="F57">
+        <v>0.7082446000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1023</v>
+      </c>
+      <c r="F58">
+        <v>0.7217904000000033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>1023</v>
+      </c>
+      <c r="F59">
+        <v>0.719165799999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>522</v>
+      </c>
+      <c r="F60">
+        <v>0.3970419000000049</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>2564</v>
+      </c>
+      <c r="F61">
+        <v>1.875772099999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>2564</v>
+      </c>
+      <c r="F62">
+        <v>1.839942199999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>3663</v>
+      </c>
+      <c r="F63">
+        <v>2.630963800000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>3865</v>
+      </c>
+      <c r="F64">
+        <v>3.476614300000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>951</v>
+      </c>
+      <c r="F65">
+        <v>0.6052588000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>118</v>
+      </c>
+      <c r="F66">
+        <v>0.09282280000000043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>118</v>
+      </c>
+      <c r="F67">
+        <v>0.0813647999999958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>118</v>
+      </c>
+      <c r="F68">
+        <v>0.08725110000000313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>319</v>
+      </c>
+      <c r="F69">
+        <v>0.2332859999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>1730</v>
+      </c>
+      <c r="F70">
+        <v>1.230552299999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>1730</v>
+      </c>
+      <c r="F71">
+        <v>1.179493999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>371</v>
+      </c>
+      <c r="F72">
+        <v>0.2829799000000008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>1329</v>
+      </c>
+      <c r="F73">
+        <v>0.8415356000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>689</v>
+      </c>
+      <c r="F74">
+        <v>0.4469360000000009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>190</v>
+      </c>
+      <c r="F75">
+        <v>0.172066700000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>190</v>
+      </c>
+      <c r="F76">
+        <v>0.1570949999999982</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>190</v>
+      </c>
+      <c r="F77">
+        <v>0.1613783000000026</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>212</v>
+      </c>
+      <c r="F78">
+        <v>0.1488146999999955</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>635</v>
+      </c>
+      <c r="F79">
+        <v>0.5018478000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>635</v>
+      </c>
+      <c r="F80">
+        <v>0.4599674999999976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>345</v>
+      </c>
+      <c r="F81">
+        <v>0.3034705999999971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>658</v>
+      </c>
+      <c r="F82">
+        <v>0.4965788000000018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>1959</v>
+      </c>
+      <c r="F83">
+        <v>1.249313200000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>531</v>
+      </c>
+      <c r="F84">
+        <v>0.3920698000000016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>61</v>
+      </c>
+      <c r="E85">
+        <v>531</v>
+      </c>
+      <c r="F85">
+        <v>0.3545182999999952</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>61</v>
+      </c>
+      <c r="E86">
+        <v>531</v>
+      </c>
+      <c r="F86">
+        <v>0.3688339999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>63</v>
+      </c>
+      <c r="E87">
+        <v>561</v>
+      </c>
+      <c r="F87">
+        <v>0.3666769000000016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>1517</v>
+      </c>
+      <c r="F88">
+        <v>1.042166999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>1517</v>
+      </c>
+      <c r="F89">
+        <v>1.038742500000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>1421</v>
+      </c>
+      <c r="F90">
+        <v>1.035492500000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>1959</v>
+      </c>
+      <c r="F91">
+        <v>1.3210379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <v>5764</v>
+      </c>
+      <c r="F92">
+        <v>4.259148500000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>59</v>
+      </c>
+      <c r="E93">
+        <v>920</v>
+      </c>
+      <c r="F93">
+        <v>0.7177896000000032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>59</v>
+      </c>
+      <c r="E94">
+        <v>920</v>
+      </c>
+      <c r="F94">
+        <v>0.6969011999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>59</v>
+      </c>
+      <c r="E95">
+        <v>920</v>
+      </c>
+      <c r="F95">
+        <v>0.6544819000000075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>73</v>
+      </c>
+      <c r="E96">
+        <v>1551</v>
+      </c>
+      <c r="F96">
+        <v>1.237161399999991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>6583</v>
+      </c>
+      <c r="F97">
+        <v>5.955228700000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>6583</v>
+      </c>
+      <c r="F98">
+        <v>6.431811699999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>16142</v>
+      </c>
+      <c r="F99">
+        <v>16.5645071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>24</v>
+      </c>
+      <c r="E100">
+        <v>7538</v>
+      </c>
+      <c r="F100">
+        <v>6.508857899999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101">
+        <v>1737</v>
+      </c>
+      <c r="F101">
+        <v>1.324587600000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>67</v>
+      </c>
+      <c r="E102">
+        <v>903</v>
+      </c>
+      <c r="F102">
+        <v>0.6257626999999957</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>67</v>
+      </c>
+      <c r="E103">
+        <v>903</v>
+      </c>
+      <c r="F103">
+        <v>0.6656964000000016</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>67</v>
+      </c>
+      <c r="E104">
+        <v>903</v>
+      </c>
+      <c r="F104">
+        <v>0.7249052000000091</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>66</v>
+      </c>
+      <c r="E105">
+        <v>1006</v>
+      </c>
+      <c r="F105">
+        <v>0.7126149999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>25</v>
+      </c>
+      <c r="E106">
+        <v>1897</v>
+      </c>
+      <c r="F106">
+        <v>1.964553100000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107">
+        <v>1897</v>
+      </c>
+      <c r="F107">
+        <v>1.547970899999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>26</v>
+      </c>
+      <c r="E108">
+        <v>2366</v>
+      </c>
+      <c r="F108">
+        <v>1.935264399999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>26</v>
+      </c>
+      <c r="E109">
+        <v>2335</v>
+      </c>
+      <c r="F109">
+        <v>1.701302499999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+      <c r="E110">
+        <v>2731</v>
+      </c>
+      <c r="F110">
+        <v>2.676705099999992</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>41</v>
+      </c>
+      <c r="E111">
+        <v>1897</v>
+      </c>
+      <c r="F111">
+        <v>1.354029100000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>41</v>
+      </c>
+      <c r="E112">
+        <v>1897</v>
+      </c>
+      <c r="F112">
+        <v>1.365975599999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>41</v>
+      </c>
+      <c r="E113">
+        <v>1897</v>
+      </c>
+      <c r="F113">
+        <v>1.35254239999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>46</v>
+      </c>
+      <c r="E114">
+        <v>1873</v>
+      </c>
+      <c r="F114">
+        <v>1.410583799999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+      <c r="E115">
+        <v>2858</v>
+      </c>
+      <c r="F115">
+        <v>2.120891199999988</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="E116">
+        <v>2858</v>
+      </c>
+      <c r="F116">
+        <v>2.041763400000008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117">
+        <v>3594</v>
+      </c>
+      <c r="F117">
+        <v>2.681686799999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>25</v>
+      </c>
+      <c r="E118">
+        <v>3358</v>
+      </c>
+      <c r="F118">
+        <v>2.774495099999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="E119">
+        <v>2188</v>
+      </c>
+      <c r="F119">
+        <v>1.455953499999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>49</v>
+      </c>
+      <c r="E120">
+        <v>938</v>
+      </c>
+      <c r="F120">
+        <v>0.6875655999999992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>49</v>
+      </c>
+      <c r="E121">
+        <v>938</v>
+      </c>
+      <c r="F121">
+        <v>0.6454443000000083</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>49</v>
+      </c>
+      <c r="E122">
+        <v>938</v>
+      </c>
+      <c r="F122">
+        <v>0.6797037000000046</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>83</v>
+      </c>
+      <c r="E123">
+        <v>1354</v>
+      </c>
+      <c r="F123">
+        <v>0.7699537999999961</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>25</v>
+      </c>
+      <c r="E124">
+        <v>2332</v>
+      </c>
+      <c r="F124">
+        <v>1.461463600000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>2332</v>
+      </c>
+      <c r="F125">
+        <v>1.381260200000014</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>2897</v>
+      </c>
+      <c r="F126">
+        <v>1.770091199999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>25</v>
+      </c>
+      <c r="E127">
+        <v>2246</v>
+      </c>
+      <c r="F127">
+        <v>1.839733300000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>2549</v>
+      </c>
+      <c r="F128">
+        <v>1.541421499999984</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>64</v>
+      </c>
+      <c r="E129">
+        <v>1538</v>
+      </c>
+      <c r="F129">
+        <v>0.8161172000000079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>64</v>
+      </c>
+      <c r="E130">
+        <v>1538</v>
+      </c>
+      <c r="F130">
+        <v>0.7893521000000021</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>64</v>
+      </c>
+      <c r="E131">
+        <v>1538</v>
+      </c>
+      <c r="F131">
+        <v>0.8132461999999805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>71</v>
+      </c>
+      <c r="E132">
+        <v>695</v>
+      </c>
+      <c r="F132">
+        <v>0.405296600000014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>25</v>
+      </c>
+      <c r="E133">
+        <v>2043</v>
+      </c>
+      <c r="F133">
+        <v>1.164651000000021</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>25</v>
+      </c>
+      <c r="E134">
+        <v>2043</v>
+      </c>
+      <c r="F134">
+        <v>1.152026599999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>26</v>
+      </c>
+      <c r="E135">
+        <v>1825</v>
+      </c>
+      <c r="F135">
+        <v>1.074110399999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>25</v>
+      </c>
+      <c r="E136">
+        <v>2524</v>
+      </c>
+      <c r="F136">
+        <v>1.459177099999977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <v>2249</v>
+      </c>
+      <c r="F137">
+        <v>1.424568300000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>60</v>
+      </c>
+      <c r="E138">
+        <v>409</v>
+      </c>
+      <c r="F138">
+        <v>0.296382699999981</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>60</v>
+      </c>
+      <c r="E139">
+        <v>409</v>
+      </c>
+      <c r="F139">
+        <v>0.2614484000000061</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>16</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>60</v>
+      </c>
+      <c r="E140">
+        <v>409</v>
+      </c>
+      <c r="F140">
+        <v>0.2643239999999878</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>51</v>
+      </c>
+      <c r="E141">
+        <v>676</v>
+      </c>
+      <c r="F141">
+        <v>0.4643966999999805</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>1666</v>
+      </c>
+      <c r="F142">
+        <v>1.241551200000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>26</v>
+      </c>
+      <c r="E143">
+        <v>1666</v>
+      </c>
+      <c r="F143">
+        <v>1.230371600000012</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>761</v>
+      </c>
+      <c r="F144">
+        <v>0.6059586000000081</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>26</v>
+      </c>
+      <c r="E145">
+        <v>2365</v>
+      </c>
+      <c r="F145">
+        <v>1.774087800000018</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>26</v>
+      </c>
+      <c r="E146">
+        <v>9892</v>
+      </c>
+      <c r="F146">
+        <v>7.245297300000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>113</v>
+      </c>
+      <c r="E147">
+        <v>4541</v>
+      </c>
+      <c r="F147">
+        <v>3.066967699999992</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>113</v>
+      </c>
+      <c r="E148">
+        <v>4541</v>
+      </c>
+      <c r="F148">
+        <v>3.061977500000012</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>17</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>113</v>
+      </c>
+      <c r="E149">
+        <v>4541</v>
+      </c>
+      <c r="F149">
+        <v>3.212011500000017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>206</v>
+      </c>
+      <c r="E150">
+        <v>2829</v>
+      </c>
+      <c r="F150">
+        <v>2.019937800000008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>26</v>
+      </c>
+      <c r="E151">
+        <v>10490</v>
+      </c>
+      <c r="F151">
+        <v>7.570833099999987</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>26</v>
+      </c>
+      <c r="E152">
+        <v>10490</v>
+      </c>
+      <c r="F152">
+        <v>8.758905499999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>27</v>
+      </c>
+      <c r="E153">
+        <v>7903</v>
+      </c>
+      <c r="F153">
+        <v>5.904569699999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>26</v>
+      </c>
+      <c r="E154">
+        <v>10014</v>
+      </c>
+      <c r="F154">
+        <v>7.220204199999984</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>26</v>
+      </c>
+      <c r="E155">
+        <v>2556</v>
+      </c>
+      <c r="F155">
+        <v>1.429767499999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>56</v>
+      </c>
+      <c r="E156">
+        <v>1889</v>
+      </c>
+      <c r="F156">
+        <v>1.19548180000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>56</v>
+      </c>
+      <c r="E157">
+        <v>1889</v>
+      </c>
+      <c r="F157">
+        <v>1.141057500000016</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>56</v>
+      </c>
+      <c r="E158">
+        <v>1889</v>
+      </c>
+      <c r="F158">
+        <v>1.152815500000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159">
+        <v>57</v>
+      </c>
+      <c r="E159">
+        <v>2129</v>
+      </c>
+      <c r="F159">
+        <v>1.251671899999991</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>26</v>
+      </c>
+      <c r="E160">
+        <v>2995</v>
+      </c>
+      <c r="F160">
+        <v>1.97453329999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161">
+        <v>26</v>
+      </c>
+      <c r="E161">
+        <v>2995</v>
+      </c>
+      <c r="F161">
+        <v>2.384404700000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>27</v>
+      </c>
+      <c r="E162">
+        <v>4245</v>
+      </c>
+      <c r="F162">
+        <v>3.233067299999988</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>26</v>
+      </c>
+      <c r="E163">
+        <v>3330</v>
+      </c>
+      <c r="F163">
+        <v>2.219803100000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>28</v>
+      </c>
+      <c r="E164">
+        <v>70</v>
+      </c>
+      <c r="F164">
+        <v>0.02646519999998986</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>28</v>
+      </c>
+      <c r="E165">
+        <v>70</v>
+      </c>
+      <c r="F165">
+        <v>0.02603750000000105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166">
+        <v>28</v>
+      </c>
+      <c r="E166">
+        <v>70</v>
+      </c>
+      <c r="F166">
+        <v>0.02667770000002179</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>70</v>
+      </c>
+      <c r="F167">
+        <v>0.02545229999998355</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168">
+        <v>28</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="F168">
+        <v>0.02653719999997861</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>28</v>
+      </c>
+      <c r="E169">
+        <v>70</v>
+      </c>
+      <c r="F169">
+        <v>0.03167499999997858</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>28</v>
+      </c>
+      <c r="E170">
+        <v>70</v>
+      </c>
+      <c r="F170">
+        <v>0.03142840000001001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>28</v>
+      </c>
+      <c r="E171">
+        <v>70</v>
+      </c>
+      <c r="F171">
+        <v>0.02681160000000204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>28</v>
+      </c>
+      <c r="E172">
+        <v>70</v>
+      </c>
+      <c r="F172">
+        <v>0.02968720000001213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>28</v>
+      </c>
+      <c r="E173">
+        <v>4916</v>
+      </c>
+      <c r="F173">
+        <v>3.100787499999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>119</v>
+      </c>
+      <c r="E174">
+        <v>1424</v>
+      </c>
+      <c r="F174">
+        <v>1.100974799999989</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>119</v>
+      </c>
+      <c r="E175">
+        <v>1424</v>
+      </c>
+      <c r="F175">
+        <v>1.0550997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>119</v>
+      </c>
+      <c r="E176">
+        <v>1424</v>
+      </c>
+      <c r="F176">
+        <v>1.058714900000012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>120</v>
+      </c>
+      <c r="E177">
+        <v>1259</v>
+      </c>
+      <c r="F177">
+        <v>0.9511214999999993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178">
+        <v>28</v>
+      </c>
+      <c r="E178">
+        <v>4742</v>
+      </c>
+      <c r="F178">
+        <v>3.404546399999987</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>28</v>
+      </c>
+      <c r="E179">
+        <v>4742</v>
+      </c>
+      <c r="F179">
+        <v>3.342917899999975</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>28</v>
+      </c>
+      <c r="E180">
+        <v>4476</v>
+      </c>
+      <c r="F180">
+        <v>3.281616299999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181">
+        <v>28</v>
+      </c>
+      <c r="E181">
+        <v>4892</v>
+      </c>
+      <c r="F181">
+        <v>3.488784100000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>2040</v>
+      </c>
+      <c r="F182">
+        <v>1.652422499999972</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>2040</v>
+      </c>
+      <c r="F183">
+        <v>1.432332499999973</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184">
+        <v>2040</v>
+      </c>
+      <c r="F184">
+        <v>1.43911890000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185">
+        <v>2040</v>
+      </c>
+      <c r="F185">
+        <v>1.315031199999964</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186">
+        <v>2040</v>
+      </c>
+      <c r="F186">
+        <v>1.194883500000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>2040</v>
+      </c>
+      <c r="F187">
+        <v>1.386741599999993</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188">
+        <v>2040</v>
+      </c>
+      <c r="F188">
+        <v>1.379966600000046</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189">
+        <v>2040</v>
+      </c>
+      <c r="F189">
+        <v>1.368829600000026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190">
+        <v>2040</v>
+      </c>
+      <c r="F190">
+        <v>1.453815700000007</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>17</v>
+      </c>
+      <c r="E191">
+        <v>1268</v>
+      </c>
+      <c r="F191">
+        <v>0.8416786999999886</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>22</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>25</v>
+      </c>
+      <c r="E192">
+        <v>317</v>
+      </c>
+      <c r="F192">
+        <v>0.2267018000000007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>25</v>
+      </c>
+      <c r="E193">
+        <v>317</v>
+      </c>
+      <c r="F193">
+        <v>0.2140590000000202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>22</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>25</v>
+      </c>
+      <c r="E194">
+        <v>317</v>
+      </c>
+      <c r="F194">
+        <v>0.2343693000000258</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>22</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195">
+        <v>34</v>
+      </c>
+      <c r="E195">
+        <v>880</v>
+      </c>
+      <c r="F195">
+        <v>0.5891679999999724</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>22</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <v>852</v>
+      </c>
+      <c r="F196">
+        <v>0.5504778000000101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>22</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>17</v>
+      </c>
+      <c r="E197">
+        <v>852</v>
+      </c>
+      <c r="F197">
+        <v>0.5017146999999795</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>22</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>17</v>
+      </c>
+      <c r="E198">
+        <v>939</v>
+      </c>
+      <c r="F198">
+        <v>0.5415934999999763</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>1274</v>
+      </c>
+      <c r="F199">
+        <v>0.7427127999999925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>8302</v>
+      </c>
+      <c r="F200">
+        <v>5.341367300000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>100</v>
+      </c>
+      <c r="E201">
+        <v>1934</v>
+      </c>
+      <c r="F201">
+        <v>1.391413800000009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>23</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202">
+        <v>100</v>
+      </c>
+      <c r="E202">
+        <v>1934</v>
+      </c>
+      <c r="F202">
+        <v>1.408964200000014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>100</v>
+      </c>
+      <c r="E203">
+        <v>1934</v>
+      </c>
+      <c r="F203">
+        <v>1.401042600000039</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204">
+        <v>81</v>
+      </c>
+      <c r="E204">
+        <v>2192</v>
+      </c>
+      <c r="F204">
+        <v>1.656458200000031</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>4463</v>
+      </c>
+      <c r="F205">
+        <v>4.251977599999975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>4463</v>
+      </c>
+      <c r="F206">
+        <v>3.874154400000009</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>3618</v>
+      </c>
+      <c r="F207">
+        <v>2.842618099999981</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>6886</v>
+      </c>
+      <c r="F208">
+        <v>4.969873699999994</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>24</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>8747</v>
+      </c>
+      <c r="F209">
+        <v>6.719033799999977</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>24</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210">
+        <v>41</v>
+      </c>
+      <c r="E210">
+        <v>5618</v>
+      </c>
+      <c r="F210">
+        <v>4.526094299999954</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>24</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211">
+        <v>41</v>
+      </c>
+      <c r="E211">
+        <v>5618</v>
+      </c>
+      <c r="F211">
+        <v>5.093408000000011</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>24</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>41</v>
+      </c>
+      <c r="E212">
+        <v>5618</v>
+      </c>
+      <c r="F212">
+        <v>4.974723799999992</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>24</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213">
+        <v>39</v>
+      </c>
+      <c r="E213">
+        <v>2813</v>
+      </c>
+      <c r="F213">
+        <v>2.199018099999989</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>17</v>
+      </c>
+      <c r="E214">
+        <v>6324</v>
+      </c>
+      <c r="F214">
+        <v>5.190035300000034</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>24</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215">
+        <v>17</v>
+      </c>
+      <c r="E215">
+        <v>6324</v>
+      </c>
+      <c r="F215">
+        <v>5.144350699999961</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>24</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>18</v>
+      </c>
+      <c r="E216">
+        <v>22459</v>
+      </c>
+      <c r="F216">
+        <v>20.84899799999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217">
+        <v>17</v>
+      </c>
+      <c r="E217">
+        <v>8237</v>
+      </c>
+      <c r="F217">
+        <v>6.785652499999969</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>25</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218">
+        <v>23</v>
+      </c>
+      <c r="E218">
+        <v>525</v>
+      </c>
+      <c r="F218">
+        <v>0.2695092000000159</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>25</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219">
+        <v>37</v>
+      </c>
+      <c r="E219">
+        <v>400</v>
+      </c>
+      <c r="F219">
+        <v>0.2088399000000436</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>25</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220">
+        <v>37</v>
+      </c>
+      <c r="E220">
+        <v>400</v>
+      </c>
+      <c r="F220">
+        <v>0.213544899999988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>25</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>37</v>
+      </c>
+      <c r="E221">
+        <v>400</v>
+      </c>
+      <c r="F221">
+        <v>0.2348792999999887</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>25</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222">
+        <v>30</v>
+      </c>
+      <c r="E222">
+        <v>404</v>
+      </c>
+      <c r="F222">
+        <v>0.2104429999999979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>25</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>23</v>
+      </c>
+      <c r="E223">
+        <v>541</v>
+      </c>
+      <c r="F223">
+        <v>0.3116859000000431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>25</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224">
+        <v>23</v>
+      </c>
+      <c r="E224">
+        <v>541</v>
+      </c>
+      <c r="F224">
+        <v>0.3003250999999523</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>25</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>570</v>
+      </c>
+      <c r="F225">
+        <v>0.3261674999999968</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226">
+        <v>24</v>
+      </c>
+      <c r="E226">
+        <v>588</v>
+      </c>
+      <c r="F226">
+        <v>0.3193564000000038</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>26</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>15</v>
+      </c>
+      <c r="F227">
+        <v>0.008119300000032581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>26</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>0.003325899999992998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>26</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>12</v>
+      </c>
+      <c r="F229">
+        <v>0.002806599999985337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>26</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+      <c r="E230">
+        <v>12</v>
+      </c>
+      <c r="F230">
+        <v>0.004177500000025702</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>26</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>13</v>
+      </c>
+      <c r="F231">
+        <v>0.00380149999995183</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>26</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>11</v>
+      </c>
+      <c r="F232">
+        <v>0.002935699999966346</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>26</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+      <c r="E233">
+        <v>11</v>
+      </c>
+      <c r="F233">
+        <v>0.00322849999997743</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>26</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+      <c r="E234">
+        <v>11</v>
+      </c>
+      <c r="F234">
+        <v>0.003987200000040048</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>26</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>14</v>
+      </c>
+      <c r="F235">
+        <v>0.005803099999980077</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>27</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>56</v>
+      </c>
+      <c r="F236">
+        <v>0.02668230000000449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>27</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237">
+        <v>39</v>
+      </c>
+      <c r="F237">
+        <v>0.01973909999998114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>27</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>39</v>
+      </c>
+      <c r="F238">
+        <v>0.021951300000012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>27</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>39</v>
+      </c>
+      <c r="F239">
+        <v>0.02416929999998274</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>27</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240">
+        <v>6</v>
+      </c>
+      <c r="E240">
+        <v>22</v>
+      </c>
+      <c r="F240">
+        <v>0.0128804999999943</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>27</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>39</v>
+      </c>
+      <c r="F241">
+        <v>0.02166130000000521</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>27</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>39</v>
+      </c>
+      <c r="F242">
+        <v>0.02642140000000381</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>27</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>24</v>
+      </c>
+      <c r="F243">
+        <v>0.01302930000002789</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>27</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>43</v>
+      </c>
+      <c r="F244">
+        <v>0.02347020000001976</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>28</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245">
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <v>894</v>
+      </c>
+      <c r="F245">
+        <v>0.5174545999999509</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>28</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246">
+        <v>19</v>
+      </c>
+      <c r="E246">
+        <v>136</v>
+      </c>
+      <c r="F246">
+        <v>0.09608380000003081</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>28</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247">
+        <v>19</v>
+      </c>
+      <c r="E247">
+        <v>136</v>
+      </c>
+      <c r="F247">
+        <v>0.09865830000001097</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>19</v>
+      </c>
+      <c r="E248">
+        <v>136</v>
+      </c>
+      <c r="F248">
+        <v>0.09370300000000498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>28</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249">
+        <v>26</v>
+      </c>
+      <c r="E249">
+        <v>194</v>
+      </c>
+      <c r="F249">
+        <v>0.1374382000000196</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>28</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <v>317</v>
+      </c>
+      <c r="F250">
+        <v>0.210840399999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>28</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <v>317</v>
+      </c>
+      <c r="F251">
+        <v>0.222404900000015</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>28</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252">
+        <v>380</v>
+      </c>
+      <c r="F252">
+        <v>0.2556162999999856</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>28</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>812</v>
+      </c>
+      <c r="F253">
+        <v>0.5223584999999957</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>29</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+      <c r="E254">
+        <v>284</v>
+      </c>
+      <c r="F254">
+        <v>0.1361711999999784</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>29</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>42</v>
+      </c>
+      <c r="F255">
+        <v>0.02039739999997892</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>42</v>
+      </c>
+      <c r="F256">
+        <v>0.02020989999999756</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>29</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>7</v>
+      </c>
+      <c r="E257">
+        <v>42</v>
+      </c>
+      <c r="F257">
+        <v>0.02167430000002923</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>29</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258">
+        <v>11</v>
+      </c>
+      <c r="E258">
+        <v>93</v>
+      </c>
+      <c r="F258">
+        <v>0.05191869999998744</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>29</v>
+      </c>
+      <c r="B259" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259">
+        <v>7</v>
+      </c>
+      <c r="E259">
+        <v>80</v>
+      </c>
+      <c r="F259">
+        <v>0.05193539999999075</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>29</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>80</v>
+      </c>
+      <c r="F260">
+        <v>0.04897560000000567</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>29</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+      <c r="E261">
+        <v>65</v>
+      </c>
+      <c r="F261">
+        <v>0.04305930000003855</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>29</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>204</v>
+      </c>
+      <c r="F262">
+        <v>0.1234144000000015</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>30</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+      <c r="E263">
+        <v>2387</v>
+      </c>
+      <c r="F263">
+        <v>1.354270299999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>30</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264">
+        <v>13</v>
+      </c>
+      <c r="E264">
+        <v>90</v>
+      </c>
+      <c r="F264">
+        <v>0.06625059999998939</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>30</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265">
+        <v>13</v>
+      </c>
+      <c r="E265">
+        <v>90</v>
+      </c>
+      <c r="F265">
+        <v>0.06645540000005212</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>30</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266">
+        <v>13</v>
+      </c>
+      <c r="E266">
+        <v>90</v>
+      </c>
+      <c r="F266">
+        <v>0.06074169999999413</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>30</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267">
+        <v>15</v>
+      </c>
+      <c r="E267">
+        <v>301</v>
+      </c>
+      <c r="F267">
+        <v>0.2037554999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>30</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>365</v>
+      </c>
+      <c r="F268">
+        <v>0.2457812000000104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>30</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269">
+        <v>7</v>
+      </c>
+      <c r="E269">
+        <v>365</v>
+      </c>
+      <c r="F269">
+        <v>0.2514394000000379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>30</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270">
+        <v>8</v>
+      </c>
+      <c r="E270">
+        <v>68</v>
+      </c>
+      <c r="F270">
+        <v>0.05081350000000384</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>30</v>
+      </c>
+      <c r="B271" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271">
+        <v>8</v>
+      </c>
+      <c r="E271">
+        <v>2300</v>
+      </c>
+      <c r="F271">
+        <v>1.497293800000023</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>31</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272">
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>103</v>
+      </c>
+      <c r="F272">
+        <v>0.03980330000001686</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>31</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273">
+        <v>9</v>
+      </c>
+      <c r="E273">
+        <v>45</v>
+      </c>
+      <c r="F273">
+        <v>0.01854950000000599</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>31</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274">
+        <v>9</v>
+      </c>
+      <c r="E274">
+        <v>45</v>
+      </c>
+      <c r="F274">
+        <v>0.02174939999997605</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>31</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275">
+        <v>9</v>
+      </c>
+      <c r="E275">
+        <v>45</v>
+      </c>
+      <c r="F275">
+        <v>0.02734390000000531</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>31</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276">
+        <v>10</v>
+      </c>
+      <c r="E276">
+        <v>57</v>
+      </c>
+      <c r="F276">
+        <v>0.02379799999999932</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>31</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>8</v>
+      </c>
+      <c r="E277">
+        <v>98</v>
+      </c>
+      <c r="F277">
+        <v>0.04593269999998029</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>31</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278">
+        <v>8</v>
+      </c>
+      <c r="E278">
+        <v>98</v>
+      </c>
+      <c r="F278">
+        <v>0.04759280000001809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>31</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+      <c r="E279">
+        <v>81</v>
+      </c>
+      <c r="F279">
+        <v>0.0398569999999836</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>31</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280">
+        <v>8</v>
+      </c>
+      <c r="E280">
+        <v>103</v>
+      </c>
+      <c r="F280">
+        <v>0.05344639999998435</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
         <v>32</v>
       </c>
-      <c r="E55">
-        <v>798</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.3950139999999962</v>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281">
+        <v>11</v>
+      </c>
+      <c r="E281">
+        <v>4009</v>
+      </c>
+      <c r="F281">
+        <v>3.296907599999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>32</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282">
+        <v>24</v>
+      </c>
+      <c r="E282">
+        <v>270</v>
+      </c>
+      <c r="F282">
+        <v>0.2327602999999954</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>32</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283">
+        <v>24</v>
+      </c>
+      <c r="E283">
+        <v>270</v>
+      </c>
+      <c r="F283">
+        <v>0.1999924999999507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284">
+        <v>24</v>
+      </c>
+      <c r="E284">
+        <v>270</v>
+      </c>
+      <c r="F284">
+        <v>0.2106595999999854</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>32</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285">
+        <v>42</v>
+      </c>
+      <c r="E285">
+        <v>1095</v>
+      </c>
+      <c r="F285">
+        <v>1.037493100000006</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>32</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286">
+        <v>11</v>
+      </c>
+      <c r="E286">
+        <v>1268</v>
+      </c>
+      <c r="F286">
+        <v>1.193510199999992</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>32</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>1268</v>
+      </c>
+      <c r="F287">
+        <v>1.042675599999995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>32</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288">
+        <v>13</v>
+      </c>
+      <c r="E288">
+        <v>1408</v>
+      </c>
+      <c r="F288">
+        <v>1.077649699999995</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>32</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289">
+        <v>11</v>
+      </c>
+      <c r="E289">
+        <v>7026</v>
+      </c>
+      <c r="F289">
+        <v>5.542975899999988</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>33</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>146</v>
+      </c>
+      <c r="F290">
+        <v>0.06784249999998337</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>33</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>13</v>
+      </c>
+      <c r="E291">
+        <v>71</v>
+      </c>
+      <c r="F291">
+        <v>0.03483879999998862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>33</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292">
+        <v>13</v>
+      </c>
+      <c r="E292">
+        <v>71</v>
+      </c>
+      <c r="F292">
+        <v>0.03666989999999259</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>33</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>13</v>
+      </c>
+      <c r="E293">
+        <v>71</v>
+      </c>
+      <c r="F293">
+        <v>0.03459290000000692</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>33</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294">
+        <v>11</v>
+      </c>
+      <c r="E294">
+        <v>61</v>
+      </c>
+      <c r="F294">
+        <v>0.0305126999999743</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>33</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>8</v>
+      </c>
+      <c r="E295">
+        <v>129</v>
+      </c>
+      <c r="F295">
+        <v>0.06033100000001923</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>33</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>129</v>
+      </c>
+      <c r="F296">
+        <v>0.06000849999998081</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>33</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>114</v>
+      </c>
+      <c r="F297">
+        <v>0.06069039999999859</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>33</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298">
+        <v>8</v>
+      </c>
+      <c r="E298">
+        <v>146</v>
+      </c>
+      <c r="F298">
+        <v>0.07403650000003381</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>34</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299">
+        <v>9</v>
+      </c>
+      <c r="E299">
+        <v>603</v>
+      </c>
+      <c r="F299">
+        <v>0.2937479999999937</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>34</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>10</v>
+      </c>
+      <c r="E300">
+        <v>36</v>
+      </c>
+      <c r="F300">
+        <v>0.02084969999998521</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>34</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301">
+        <v>10</v>
+      </c>
+      <c r="E301">
+        <v>36</v>
+      </c>
+      <c r="F301">
+        <v>0.02073560000002317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
+        <v>34</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>10</v>
+      </c>
+      <c r="E302">
+        <v>36</v>
+      </c>
+      <c r="F302">
+        <v>0.02198839999999791</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303">
+        <v>34</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303">
+        <v>30</v>
+      </c>
+      <c r="E303">
+        <v>238</v>
+      </c>
+      <c r="F303">
+        <v>0.1316413000000125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304">
+        <v>34</v>
+      </c>
+      <c r="B304" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304">
+        <v>9</v>
+      </c>
+      <c r="E304">
+        <v>509</v>
+      </c>
+      <c r="F304">
+        <v>0.2877244000000019</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305">
+        <v>34</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305">
+        <v>9</v>
+      </c>
+      <c r="E305">
+        <v>509</v>
+      </c>
+      <c r="F305">
+        <v>0.2883363999999915</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
+        <v>34</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>10</v>
+      </c>
+      <c r="E306">
+        <v>183</v>
+      </c>
+      <c r="F306">
+        <v>0.1110767000000124</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307">
+        <v>34</v>
+      </c>
+      <c r="B307" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307">
+        <v>9</v>
+      </c>
+      <c r="E307">
+        <v>611</v>
+      </c>
+      <c r="F307">
+        <v>0.3219100000000026</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
+        <v>35</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>343</v>
+      </c>
+      <c r="F308">
+        <v>0.1598189000000048</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309">
+        <v>35</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309">
+        <v>15</v>
+      </c>
+      <c r="E309">
+        <v>138</v>
+      </c>
+      <c r="F309">
+        <v>0.07314310000003843</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310">
+        <v>35</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310">
+        <v>15</v>
+      </c>
+      <c r="E310">
+        <v>138</v>
+      </c>
+      <c r="F310">
+        <v>0.07227069999999003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311">
+        <v>35</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311">
+        <v>15</v>
+      </c>
+      <c r="E311">
+        <v>138</v>
+      </c>
+      <c r="F311">
+        <v>0.07297799999997778</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>35</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312">
+        <v>15</v>
+      </c>
+      <c r="E312">
+        <v>117</v>
+      </c>
+      <c r="F312">
+        <v>0.06395630000002939</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313">
+        <v>35</v>
+      </c>
+      <c r="B313" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313">
+        <v>10</v>
+      </c>
+      <c r="E313">
+        <v>340</v>
+      </c>
+      <c r="F313">
+        <v>0.1912729000000013</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>35</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>340</v>
+      </c>
+      <c r="F314">
+        <v>0.1689089000000195</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315">
+        <v>35</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>229</v>
+      </c>
+      <c r="F315">
+        <v>0.1387283000000252</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316">
+        <v>35</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>352</v>
+      </c>
+      <c r="F316">
+        <v>0.1795483999999874</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
+        <v>36</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317">
+        <v>7</v>
+      </c>
+      <c r="E317">
+        <v>355</v>
+      </c>
+      <c r="F317">
+        <v>0.1858931000000439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318">
+        <v>36</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318">
+        <v>25</v>
+      </c>
+      <c r="E318">
+        <v>161</v>
+      </c>
+      <c r="F318">
+        <v>0.0794793000000027</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319">
+        <v>36</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
+      <c r="D319">
+        <v>25</v>
+      </c>
+      <c r="E319">
+        <v>161</v>
+      </c>
+      <c r="F319">
+        <v>0.07148910000000797</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320">
+        <v>36</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320">
+        <v>25</v>
+      </c>
+      <c r="E320">
+        <v>161</v>
+      </c>
+      <c r="F320">
+        <v>0.07703709999998409</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321">
+        <v>36</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321">
+        <v>21</v>
+      </c>
+      <c r="E321">
+        <v>134</v>
+      </c>
+      <c r="F321">
+        <v>0.08820919999999433</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322">
+        <v>36</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322">
+        <v>7</v>
+      </c>
+      <c r="E322">
+        <v>115</v>
+      </c>
+      <c r="F322">
+        <v>0.08198690000000397</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>36</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323">
+        <v>7</v>
+      </c>
+      <c r="E323">
+        <v>115</v>
+      </c>
+      <c r="F323">
+        <v>0.07841550000000552</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>36</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324">
+        <v>7</v>
+      </c>
+      <c r="E324">
+        <v>100</v>
+      </c>
+      <c r="F324">
+        <v>0.06183750000002419</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>36</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325">
+        <v>7</v>
+      </c>
+      <c r="E325">
+        <v>298</v>
+      </c>
+      <c r="F325">
+        <v>0.2070285000000354</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>37</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326">
+        <v>8</v>
+      </c>
+      <c r="E326">
+        <v>5413</v>
+      </c>
+      <c r="F326">
+        <v>3.675340000000006</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>37</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327">
+        <v>9</v>
+      </c>
+      <c r="E327">
+        <v>47</v>
+      </c>
+      <c r="F327">
+        <v>0.04441209999998819</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>37</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328">
+        <v>9</v>
+      </c>
+      <c r="E328">
+        <v>47</v>
+      </c>
+      <c r="F328">
+        <v>0.03760490000001937</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>37</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329">
+        <v>9</v>
+      </c>
+      <c r="E329">
+        <v>47</v>
+      </c>
+      <c r="F329">
+        <v>0.03945700000002716</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>37</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330">
+        <v>19</v>
+      </c>
+      <c r="E330">
+        <v>393</v>
+      </c>
+      <c r="F330">
+        <v>0.2773500000000126</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>37</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331">
+        <v>8</v>
+      </c>
+      <c r="E331">
+        <v>681</v>
+      </c>
+      <c r="F331">
+        <v>0.607409500000017</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332">
+        <v>37</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332">
+        <v>8</v>
+      </c>
+      <c r="E332">
+        <v>681</v>
+      </c>
+      <c r="F332">
+        <v>0.6211510999999632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333">
+        <v>37</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333">
+        <v>8</v>
+      </c>
+      <c r="E333">
+        <v>102</v>
+      </c>
+      <c r="F333">
+        <v>0.09374249999996209</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334">
+        <v>37</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>3724</v>
+      </c>
+      <c r="F334">
+        <v>3.407404499999984</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335">
+        <v>38</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>107</v>
+      </c>
+      <c r="F335">
+        <v>0.04498710000001438</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>38</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336">
+        <v>11</v>
+      </c>
+      <c r="E336">
+        <v>60</v>
+      </c>
+      <c r="F336">
+        <v>0.02439769999995178</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>38</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>60</v>
+      </c>
+      <c r="F337">
+        <v>0.02684920000001512</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>38</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>12</v>
+      </c>
+      <c r="D338">
+        <v>11</v>
+      </c>
+      <c r="E338">
+        <v>60</v>
+      </c>
+      <c r="F338">
+        <v>0.02970010000001366</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>38</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339">
+        <v>13</v>
+      </c>
+      <c r="E339">
+        <v>64</v>
+      </c>
+      <c r="F339">
+        <v>0.0302651999999739</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>38</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <v>88</v>
+      </c>
+      <c r="F340">
+        <v>0.04211820000000444</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>38</v>
+      </c>
+      <c r="B341" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341">
+        <v>88</v>
+      </c>
+      <c r="F341">
+        <v>0.03809979999999769</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>38</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>10</v>
+      </c>
+      <c r="E342">
+        <v>81</v>
+      </c>
+      <c r="F342">
+        <v>0.04174480000000358</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343">
+        <v>38</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343">
+        <v>10</v>
+      </c>
+      <c r="E343">
+        <v>107</v>
+      </c>
+      <c r="F343">
+        <v>0.04980349999999589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
+        <v>39</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344">
+        <v>9</v>
+      </c>
+      <c r="E344">
+        <v>406</v>
+      </c>
+      <c r="F344">
+        <v>0.2079214999999976</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345">
+        <v>39</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345">
+        <v>18</v>
+      </c>
+      <c r="E345">
+        <v>88</v>
+      </c>
+      <c r="F345">
+        <v>0.05628469999999197</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346">
+        <v>39</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
+      <c r="D346">
+        <v>18</v>
+      </c>
+      <c r="E346">
+        <v>88</v>
+      </c>
+      <c r="F346">
+        <v>0.0541541000000052</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347">
+        <v>39</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347">
+        <v>18</v>
+      </c>
+      <c r="E347">
+        <v>88</v>
+      </c>
+      <c r="F347">
+        <v>0.05245080000003099</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348">
+        <v>39</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348">
+        <v>22</v>
+      </c>
+      <c r="E348">
+        <v>191</v>
+      </c>
+      <c r="F348">
+        <v>0.1044074999999793</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349">
+        <v>39</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349">
+        <v>9</v>
+      </c>
+      <c r="E349">
+        <v>374</v>
+      </c>
+      <c r="F349">
+        <v>0.2026973000000112</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350">
+        <v>39</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350">
+        <v>9</v>
+      </c>
+      <c r="E350">
+        <v>374</v>
+      </c>
+      <c r="F350">
+        <v>0.1947136</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351">
+        <v>39</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351">
+        <v>10</v>
+      </c>
+      <c r="E351">
+        <v>294</v>
+      </c>
+      <c r="F351">
+        <v>0.1582341999999812</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352">
+        <v>39</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352">
+        <v>9</v>
+      </c>
+      <c r="E352">
+        <v>416</v>
+      </c>
+      <c r="F352">
+        <v>0.2190605000000119</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353">
+        <v>40</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353">
+        <v>9</v>
+      </c>
+      <c r="E353">
+        <v>118</v>
+      </c>
+      <c r="F353">
+        <v>0.05940259999999853</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354">
+        <v>40</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354">
+        <v>9</v>
+      </c>
+      <c r="E354">
+        <v>35</v>
+      </c>
+      <c r="F354">
+        <v>0.01830419999998867</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355">
+        <v>40</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355">
+        <v>9</v>
+      </c>
+      <c r="E355">
+        <v>35</v>
+      </c>
+      <c r="F355">
+        <v>0.01874879999996892</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>40</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356">
+        <v>9</v>
+      </c>
+      <c r="E356">
+        <v>35</v>
+      </c>
+      <c r="F356">
+        <v>0.01511649999997644</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>40</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357">
+        <v>11</v>
+      </c>
+      <c r="E357">
+        <v>52</v>
+      </c>
+      <c r="F357">
+        <v>0.0230968000000189</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358">
+        <v>40</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358">
+        <v>9</v>
+      </c>
+      <c r="E358">
+        <v>55</v>
+      </c>
+      <c r="F358">
+        <v>0.028912900000023</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359">
+        <v>40</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359">
+        <v>9</v>
+      </c>
+      <c r="E359">
+        <v>55</v>
+      </c>
+      <c r="F359">
+        <v>0.03134440000002314</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360">
+        <v>40</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360">
+        <v>9</v>
+      </c>
+      <c r="E360">
+        <v>45</v>
+      </c>
+      <c r="F360">
+        <v>0.02201810000002524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361">
+        <v>40</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361">
+        <v>9</v>
+      </c>
+      <c r="E361">
+        <v>137</v>
+      </c>
+      <c r="F361">
+        <v>0.06464700000003631</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362">
+        <v>41</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362">
+        <v>11</v>
+      </c>
+      <c r="E362">
+        <v>201</v>
+      </c>
+      <c r="F362">
+        <v>0.06978609999998753</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363">
+        <v>41</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363">
+        <v>13</v>
+      </c>
+      <c r="E363">
+        <v>73</v>
+      </c>
+      <c r="F363">
+        <v>0.03174670000004198</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364">
+        <v>41</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364">
+        <v>13</v>
+      </c>
+      <c r="E364">
+        <v>73</v>
+      </c>
+      <c r="F364">
+        <v>0.03029020000002447</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365">
+        <v>41</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365">
+        <v>13</v>
+      </c>
+      <c r="E365">
+        <v>73</v>
+      </c>
+      <c r="F365">
+        <v>0.03343819999997777</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366">
+        <v>41</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366">
+        <v>15</v>
+      </c>
+      <c r="E366">
+        <v>88</v>
+      </c>
+      <c r="F366">
+        <v>0.03660330000002432</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367">
+        <v>41</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367">
+        <v>11</v>
+      </c>
+      <c r="E367">
+        <v>175</v>
+      </c>
+      <c r="F367">
+        <v>0.102419599999962</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368">
+        <v>41</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368">
+        <v>11</v>
+      </c>
+      <c r="E368">
+        <v>175</v>
+      </c>
+      <c r="F368">
+        <v>0.07599149999998644</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369">
+        <v>41</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369">
+        <v>12</v>
+      </c>
+      <c r="E369">
+        <v>129</v>
+      </c>
+      <c r="F369">
+        <v>0.05746729999998479</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370">
+        <v>41</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370">
+        <v>11</v>
+      </c>
+      <c r="E370">
+        <v>207</v>
+      </c>
+      <c r="F370">
+        <v>0.08663830000000416</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371">
+        <v>42</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371">
+        <v>11</v>
+      </c>
+      <c r="E371">
+        <v>482</v>
+      </c>
+      <c r="F371">
+        <v>0.2389498000000003</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372">
+        <v>42</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372">
+        <v>21</v>
+      </c>
+      <c r="E372">
+        <v>201</v>
+      </c>
+      <c r="F372">
+        <v>0.1066420000000221</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373">
+        <v>42</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373">
+        <v>21</v>
+      </c>
+      <c r="E373">
+        <v>201</v>
+      </c>
+      <c r="F373">
+        <v>0.1151891000000091</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374">
+        <v>42</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374">
+        <v>21</v>
+      </c>
+      <c r="E374">
+        <v>201</v>
+      </c>
+      <c r="F374">
+        <v>0.15548739999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375">
+        <v>42</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D375">
+        <v>23</v>
+      </c>
+      <c r="E375">
+        <v>177</v>
+      </c>
+      <c r="F375">
+        <v>0.2929217000000222</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376">
+        <v>42</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376">
+        <v>11</v>
+      </c>
+      <c r="E376">
+        <v>487</v>
+      </c>
+      <c r="F376">
+        <v>0.3935673000000293</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377">
+        <v>42</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377">
+        <v>11</v>
+      </c>
+      <c r="E377">
+        <v>487</v>
+      </c>
+      <c r="F377">
+        <v>0.3170751000000109</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378">
+        <v>42</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378">
+        <v>11</v>
+      </c>
+      <c r="E378">
+        <v>395</v>
+      </c>
+      <c r="F378">
+        <v>0.279233099999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379">
+        <v>42</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379">
+        <v>11</v>
+      </c>
+      <c r="E379">
+        <v>455</v>
+      </c>
+      <c r="F379">
+        <v>0.2989785999999981</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380">
+        <v>43</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380">
+        <v>11</v>
+      </c>
+      <c r="E380">
+        <v>130</v>
+      </c>
+      <c r="F380">
+        <v>0.06337100000001783</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381">
+        <v>43</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381">
+        <v>13</v>
+      </c>
+      <c r="E381">
+        <v>67</v>
+      </c>
+      <c r="F381">
+        <v>0.03592679999997017</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382">
+        <v>43</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382">
+        <v>13</v>
+      </c>
+      <c r="E382">
+        <v>67</v>
+      </c>
+      <c r="F382">
+        <v>0.03678310000003648</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383">
+        <v>43</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383">
+        <v>13</v>
+      </c>
+      <c r="E383">
+        <v>67</v>
+      </c>
+      <c r="F383">
+        <v>0.03716220000001158</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384">
+        <v>43</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384">
+        <v>14</v>
+      </c>
+      <c r="E384">
+        <v>88</v>
+      </c>
+      <c r="F384">
+        <v>0.04959380000002511</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385">
+        <v>43</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385">
+        <v>11</v>
+      </c>
+      <c r="E385">
+        <v>118</v>
+      </c>
+      <c r="F385">
+        <v>0.06905530000000226</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386">
+        <v>43</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386">
+        <v>11</v>
+      </c>
+      <c r="E386">
+        <v>118</v>
+      </c>
+      <c r="F386">
+        <v>0.06516239999996287</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387">
+        <v>43</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387">
+        <v>11</v>
+      </c>
+      <c r="E387">
+        <v>112</v>
+      </c>
+      <c r="F387">
+        <v>0.07650369999998929</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388">
+        <v>43</v>
+      </c>
+      <c r="B388" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388">
+        <v>11</v>
+      </c>
+      <c r="E388">
+        <v>130</v>
+      </c>
+      <c r="F388">
+        <v>0.06742330000002994</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389">
+        <v>44</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389">
+        <v>12</v>
+      </c>
+      <c r="E389">
+        <v>6961</v>
+      </c>
+      <c r="F389">
+        <v>5.16799229999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390">
+        <v>44</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390">
+        <v>19</v>
+      </c>
+      <c r="E390">
+        <v>317</v>
+      </c>
+      <c r="F390">
+        <v>0.2147486000000072</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391">
+        <v>44</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391">
+        <v>19</v>
+      </c>
+      <c r="E391">
+        <v>317</v>
+      </c>
+      <c r="F391">
+        <v>0.2099092999999925</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392">
+        <v>44</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392">
+        <v>19</v>
+      </c>
+      <c r="E392">
+        <v>317</v>
+      </c>
+      <c r="F392">
+        <v>0.2005181999999763</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393">
+        <v>44</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393">
+        <v>58</v>
+      </c>
+      <c r="E393">
+        <v>1634</v>
+      </c>
+      <c r="F393">
+        <v>1.236119500000029</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394">
+        <v>44</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394">
+        <v>12</v>
+      </c>
+      <c r="E394">
+        <v>6954</v>
+      </c>
+      <c r="F394">
+        <v>5.520291099999952</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395">
+        <v>44</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395">
+        <v>12</v>
+      </c>
+      <c r="E395">
+        <v>6954</v>
+      </c>
+      <c r="F395">
+        <v>5.440350800000033</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396">
+        <v>44</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396">
+        <v>14</v>
+      </c>
+      <c r="E396">
+        <v>1641</v>
+      </c>
+      <c r="F396">
+        <v>1.472045799999989</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397">
+        <v>44</v>
+      </c>
+      <c r="B397" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397">
+        <v>12</v>
+      </c>
+      <c r="E397">
+        <v>19508</v>
+      </c>
+      <c r="F397">
+        <v>15.98015500000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398">
+        <v>45</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398">
+        <v>12</v>
+      </c>
+      <c r="E398">
+        <v>253</v>
+      </c>
+      <c r="F398">
+        <v>0.1330871999999772</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399">
+        <v>45</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>10</v>
+      </c>
+      <c r="D399">
+        <v>18</v>
+      </c>
+      <c r="E399">
+        <v>78</v>
+      </c>
+      <c r="F399">
+        <v>0.03744230000000925</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400">
+        <v>45</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400">
+        <v>18</v>
+      </c>
+      <c r="E400">
+        <v>78</v>
+      </c>
+      <c r="F400">
+        <v>0.03478659999996125</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401">
+        <v>45</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401">
+        <v>18</v>
+      </c>
+      <c r="E401">
+        <v>78</v>
+      </c>
+      <c r="F401">
+        <v>0.03551870000001145</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402">
+        <v>45</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402">
+        <v>20</v>
+      </c>
+      <c r="E402">
+        <v>118</v>
+      </c>
+      <c r="F402">
+        <v>0.05128930000000764</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403">
+        <v>45</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403">
+        <v>12</v>
+      </c>
+      <c r="E403">
+        <v>251</v>
+      </c>
+      <c r="F403">
+        <v>0.1051302000000192</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404">
+        <v>45</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404">
+        <v>12</v>
+      </c>
+      <c r="E404">
+        <v>251</v>
+      </c>
+      <c r="F404">
+        <v>0.1045030999999881</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405">
+        <v>45</v>
+      </c>
+      <c r="B405" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405">
+        <v>12</v>
+      </c>
+      <c r="E405">
+        <v>248</v>
+      </c>
+      <c r="F405">
+        <v>0.109294000000034</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406">
+        <v>45</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406">
+        <v>12</v>
+      </c>
+      <c r="E406">
+        <v>253</v>
+      </c>
+      <c r="F406">
+        <v>0.1109448999999927</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407">
+        <v>46</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>9</v>
+      </c>
+      <c r="D407">
+        <v>13</v>
+      </c>
+      <c r="E407">
+        <v>225</v>
+      </c>
+      <c r="F407">
+        <v>0.08842830000003232</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408">
+        <v>46</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408">
+        <v>17</v>
+      </c>
+      <c r="E408">
+        <v>121</v>
+      </c>
+      <c r="F408">
+        <v>0.05180579999995416</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409">
+        <v>46</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409">
+        <v>17</v>
+      </c>
+      <c r="E409">
+        <v>121</v>
+      </c>
+      <c r="F409">
+        <v>0.05675209999998287</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410">
+        <v>46</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410">
+        <v>17</v>
+      </c>
+      <c r="E410">
+        <v>121</v>
+      </c>
+      <c r="F410">
+        <v>0.05262210000000778</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411">
+        <v>46</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411">
+        <v>18</v>
+      </c>
+      <c r="E411">
+        <v>96</v>
+      </c>
+      <c r="F411">
+        <v>0.04794330000004265</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412">
+        <v>46</v>
+      </c>
+      <c r="B412" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412">
+        <v>13</v>
+      </c>
+      <c r="E412">
+        <v>215</v>
+      </c>
+      <c r="F412">
+        <v>0.09738189999995939</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413">
+        <v>46</v>
+      </c>
+      <c r="B413" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413">
+        <v>13</v>
+      </c>
+      <c r="E413">
+        <v>215</v>
+      </c>
+      <c r="F413">
+        <v>0.09938210000001391</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414">
+        <v>46</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414">
+        <v>13</v>
+      </c>
+      <c r="E414">
+        <v>150</v>
+      </c>
+      <c r="F414">
+        <v>0.07290010000002667</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415">
+        <v>46</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D415">
+        <v>13</v>
+      </c>
+      <c r="E415">
+        <v>260</v>
+      </c>
+      <c r="F415">
+        <v>0.1133640999999557</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416">
+        <v>47</v>
+      </c>
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416">
+        <v>14</v>
+      </c>
+      <c r="E416">
+        <v>1449</v>
+      </c>
+      <c r="F416">
+        <v>0.8644226999999773</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417">
+        <v>47</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417">
+        <v>30</v>
+      </c>
+      <c r="E417">
+        <v>372</v>
+      </c>
+      <c r="F417">
+        <v>0.2124073000000521</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418">
+        <v>47</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>11</v>
+      </c>
+      <c r="D418">
+        <v>30</v>
+      </c>
+      <c r="E418">
+        <v>372</v>
+      </c>
+      <c r="F418">
+        <v>0.216814099999965</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419">
+        <v>47</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419">
+        <v>30</v>
+      </c>
+      <c r="E419">
+        <v>372</v>
+      </c>
+      <c r="F419">
+        <v>0.2501723999999967</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420">
+        <v>47</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420">
+        <v>47</v>
+      </c>
+      <c r="E420">
+        <v>488</v>
+      </c>
+      <c r="F420">
+        <v>0.3291293999999994</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421">
+        <v>47</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" t="s">
+        <v>10</v>
+      </c>
+      <c r="D421">
+        <v>14</v>
+      </c>
+      <c r="E421">
+        <v>959</v>
+      </c>
+      <c r="F421">
+        <v>0.6400787999999693</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422">
+        <v>47</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422">
+        <v>14</v>
+      </c>
+      <c r="E422">
+        <v>959</v>
+      </c>
+      <c r="F422">
+        <v>0.6151500000000283</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423">
+        <v>47</v>
+      </c>
+      <c r="B423" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423">
+        <v>17</v>
+      </c>
+      <c r="E423">
+        <v>648</v>
+      </c>
+      <c r="F423">
+        <v>0.4135455999999635</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424">
+        <v>47</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424">
+        <v>15</v>
+      </c>
+      <c r="E424">
+        <v>1410</v>
+      </c>
+      <c r="F424">
+        <v>0.9903833999999847</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425">
+        <v>48</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425">
+        <v>14</v>
+      </c>
+      <c r="E425">
+        <v>870</v>
+      </c>
+      <c r="F425">
+        <v>0.4221537999999896</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426">
+        <v>48</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426">
+        <v>22</v>
+      </c>
+      <c r="E426">
+        <v>215</v>
+      </c>
+      <c r="F426">
+        <v>0.110105400000009</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427">
+        <v>48</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <v>22</v>
+      </c>
+      <c r="E427">
+        <v>215</v>
+      </c>
+      <c r="F427">
+        <v>0.107974200000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428">
+        <v>48</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428">
+        <v>22</v>
+      </c>
+      <c r="E428">
+        <v>215</v>
+      </c>
+      <c r="F428">
+        <v>0.1095186000000012</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429">
+        <v>48</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D429">
+        <v>34</v>
+      </c>
+      <c r="E429">
+        <v>314</v>
+      </c>
+      <c r="F429">
+        <v>0.1662241999999878</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430">
+        <v>48</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" t="s">
+        <v>10</v>
+      </c>
+      <c r="D430">
+        <v>14</v>
+      </c>
+      <c r="E430">
+        <v>1322</v>
+      </c>
+      <c r="F430">
+        <v>0.7620915999999625</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431">
+        <v>48</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" t="s">
+        <v>11</v>
+      </c>
+      <c r="D431">
+        <v>14</v>
+      </c>
+      <c r="E431">
+        <v>1322</v>
+      </c>
+      <c r="F431">
+        <v>0.7121189999999729</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432">
+        <v>48</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432">
+        <v>14</v>
+      </c>
+      <c r="E432">
+        <v>756</v>
+      </c>
+      <c r="F432">
+        <v>0.4191736000000219</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433">
+        <v>48</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" t="s">
+        <v>13</v>
+      </c>
+      <c r="D433">
+        <v>14</v>
+      </c>
+      <c r="E433">
+        <v>890</v>
+      </c>
+      <c r="F433">
+        <v>0.4910020000000372</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434">
+        <v>49</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434">
+        <v>12</v>
+      </c>
+      <c r="E434">
+        <v>281</v>
+      </c>
+      <c r="F434">
+        <v>0.1609483999999952</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435">
+        <v>49</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>10</v>
+      </c>
+      <c r="D435">
+        <v>16</v>
+      </c>
+      <c r="E435">
+        <v>89</v>
+      </c>
+      <c r="F435">
+        <v>0.05581239999997933</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436">
+        <v>49</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>11</v>
+      </c>
+      <c r="D436">
+        <v>16</v>
+      </c>
+      <c r="E436">
+        <v>89</v>
+      </c>
+      <c r="F436">
+        <v>0.05295669999998154</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437">
+        <v>49</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437">
+        <v>16</v>
+      </c>
+      <c r="E437">
+        <v>89</v>
+      </c>
+      <c r="F437">
+        <v>0.05152499999996962</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438">
+        <v>49</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D438">
+        <v>17</v>
+      </c>
+      <c r="E438">
+        <v>90</v>
+      </c>
+      <c r="F438">
+        <v>0.04930209999997714</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439">
+        <v>49</v>
+      </c>
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439">
+        <v>12</v>
+      </c>
+      <c r="E439">
+        <v>167</v>
+      </c>
+      <c r="F439">
+        <v>0.09645380000000614</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440">
+        <v>49</v>
+      </c>
+      <c r="B440" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" t="s">
+        <v>11</v>
+      </c>
+      <c r="D440">
+        <v>12</v>
+      </c>
+      <c r="E440">
+        <v>167</v>
+      </c>
+      <c r="F440">
+        <v>0.1481620999999791</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441">
+        <v>49</v>
+      </c>
+      <c r="B441" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441">
+        <v>12</v>
+      </c>
+      <c r="E441">
+        <v>89</v>
+      </c>
+      <c r="F441">
+        <v>0.06962089999996124</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442">
+        <v>49</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442">
+        <v>12</v>
+      </c>
+      <c r="E442">
+        <v>223</v>
+      </c>
+      <c r="F442">
+        <v>0.1665975999999887</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443">
+        <v>50</v>
+      </c>
+      <c r="B443" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443">
+        <v>16</v>
+      </c>
+      <c r="E443">
+        <v>524</v>
+      </c>
+      <c r="F443">
+        <v>0.3001347999999666</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444">
+        <v>50</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>10</v>
+      </c>
+      <c r="D444">
+        <v>19</v>
+      </c>
+      <c r="E444">
+        <v>104</v>
+      </c>
+      <c r="F444">
+        <v>0.06036470000003646</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445">
+        <v>50</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445">
+        <v>19</v>
+      </c>
+      <c r="E445">
+        <v>104</v>
+      </c>
+      <c r="F445">
+        <v>0.04532330000000684</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446">
+        <v>50</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446">
+        <v>19</v>
+      </c>
+      <c r="E446">
+        <v>104</v>
+      </c>
+      <c r="F446">
+        <v>0.04773579999999811</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447">
+        <v>50</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447">
+        <v>30</v>
+      </c>
+      <c r="E447">
+        <v>188</v>
+      </c>
+      <c r="F447">
+        <v>0.08702399999998534</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448">
+        <v>50</v>
+      </c>
+      <c r="B448" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448">
+        <v>16</v>
+      </c>
+      <c r="E448">
+        <v>587</v>
+      </c>
+      <c r="F448">
+        <v>0.3102245000000039</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449">
+        <v>50</v>
+      </c>
+      <c r="B449" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" t="s">
+        <v>11</v>
+      </c>
+      <c r="D449">
+        <v>16</v>
+      </c>
+      <c r="E449">
+        <v>587</v>
+      </c>
+      <c r="F449">
+        <v>0.2706637000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450">
+        <v>50</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450">
+        <v>16</v>
+      </c>
+      <c r="E450">
+        <v>350</v>
+      </c>
+      <c r="F450">
+        <v>0.1681194000000232</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451">
+        <v>50</v>
+      </c>
+      <c r="B451" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451">
+        <v>16</v>
+      </c>
+      <c r="E451">
+        <v>524</v>
+      </c>
+      <c r="F451">
+        <v>0.2371152000000052</v>
       </c>
     </row>
   </sheetData>
@@ -1492,31 +9435,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>15.25</v>
+        <v>13.97959183673469</v>
       </c>
       <c r="B2">
-        <v>1316</v>
+        <v>1971.78</v>
       </c>
       <c r="C2">
-        <v>1.081163266666667</v>
+        <v>1.370497521999997</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1527,13 +9470,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>37.25</v>
+        <v>29.87755102040816</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>611.02</v>
       </c>
       <c r="C3">
-        <v>0.2925711833333339</v>
+        <v>0.4314792879999992</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1544,13 +9487,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>37.25</v>
+        <v>29.87755102040816</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>611.02</v>
       </c>
       <c r="C4">
-        <v>0.2809441000000004</v>
+        <v>0.436884816000002</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1561,13 +9504,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>37.25</v>
+        <v>29.87755102040816</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>611.02</v>
       </c>
       <c r="C5">
-        <v>0.3054405833333336</v>
+        <v>0.4403218199999995</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1578,13 +9521,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>58.25</v>
+        <v>37.51020408163265</v>
       </c>
       <c r="B6">
-        <v>1004.166666666667</v>
+        <v>634.3200000000001</v>
       </c>
       <c r="C6">
-        <v>0.8268899999999996</v>
+        <v>0.4490369760000001</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1595,13 +9538,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>15.25</v>
+        <v>13.97959183673469</v>
       </c>
       <c r="B7">
-        <v>1237.666666666667</v>
+        <v>1551.48</v>
       </c>
       <c r="C7">
-        <v>1.001348916666666</v>
+        <v>1.186173503999998</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1612,13 +9555,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>15.25</v>
+        <v>13.97959183673469</v>
       </c>
       <c r="B8">
-        <v>1237.666666666667</v>
+        <v>1551.48</v>
       </c>
       <c r="C8">
-        <v>0.9026321833333327</v>
+        <v>1.193899495999999</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1629,13 +9572,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>15.75</v>
+        <v>14.59183673469388</v>
       </c>
       <c r="B9">
-        <v>926.5</v>
+        <v>1821.26</v>
       </c>
       <c r="C9">
-        <v>0.6764147000000006</v>
+        <v>1.510518494000001</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1646,13 +9589,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>15.25</v>
+        <v>14.06122448979592</v>
       </c>
       <c r="B10">
-        <v>1480.833333333333</v>
+        <v>2291.08</v>
       </c>
       <c r="C10">
-        <v>1.048610616666666</v>
+        <v>1.753338592000001</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>

--- a/Rush Hour Analysis.xlsx
+++ b/Rush Hour Analysis.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/l_voisa_live_concordia_ca/Documents/Session 6/COMP 472 AI/Mini Projects/MP-2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_DF0FAA8AD6183E174CF7044707B0C2C084D8BFAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC0B138-BEB1-431B-B3E2-82245F498F7E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="17603" windowHeight="9443" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Averages" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -62,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +132,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +218,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +270,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,22 +463,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="25.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" customWidth="1"/>
+    <col min="5" max="5" width="23.73046875" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,10 +515,10 @@
         <v>1052</v>
       </c>
       <c r="F2">
-        <v>0.6516445999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.43374309999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -485,10 +535,10 @@
         <v>154</v>
       </c>
       <c r="F3">
-        <v>0.1356670000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8.5297999999999874E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -505,10 +555,10 @@
         <v>154</v>
       </c>
       <c r="F4">
-        <v>0.1236412999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.1061315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -525,10 +575,10 @@
         <v>154</v>
       </c>
       <c r="F5">
-        <v>0.1428237000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.1030681999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -539,16 +589,16 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>0.1976467000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3.6196399999999913E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -565,10 +615,10 @@
         <v>1099</v>
       </c>
       <c r="F7">
-        <v>0.8961434000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.56552130000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -585,10 +635,10 @@
         <v>1099</v>
       </c>
       <c r="F8">
-        <v>0.7975672999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.69718249999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -605,10 +655,10 @@
         <v>1579</v>
       </c>
       <c r="F9">
-        <v>1.4389085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.86115439999999976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -622,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>1052</v>
+        <v>722</v>
       </c>
       <c r="F10">
-        <v>0.7609843999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.40519859999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -645,10 +695,10 @@
         <v>2790</v>
       </c>
       <c r="F11">
-        <v>1.9649978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.5804802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -665,10 +715,10 @@
         <v>63</v>
       </c>
       <c r="F12">
-        <v>0.06227899999999842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>5.5924799999999657E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -685,10 +735,10 @@
         <v>63</v>
       </c>
       <c r="F13">
-        <v>0.05833499999999958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3.6978099999999792E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -705,10 +755,10 @@
         <v>63</v>
       </c>
       <c r="F14">
-        <v>0.05589179999999949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>3.6272999999999563E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -719,16 +769,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>0.2495727999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>4.3482000000000021E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -745,10 +795,10 @@
         <v>1370</v>
       </c>
       <c r="F16">
-        <v>1.152057000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.74852200000000035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -765,10 +815,10 @@
         <v>1370</v>
       </c>
       <c r="F17">
-        <v>1.2831837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.75017529999999955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -785,10 +835,10 @@
         <v>542</v>
       </c>
       <c r="F18">
-        <v>0.4185610999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.32076599999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -802,13 +852,13 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>1990</v>
+        <v>524</v>
       </c>
       <c r="F19">
-        <v>1.849113500000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.31358649999999949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -825,10 +875,10 @@
         <v>774</v>
       </c>
       <c r="F20">
-        <v>0.5416390999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.26760550000000022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -845,10 +895,10 @@
         <v>243</v>
       </c>
       <c r="F21">
-        <v>0.1775874000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.1039372999999983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -865,10 +915,10 @@
         <v>243</v>
       </c>
       <c r="F22">
-        <v>0.1602342999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>7.9175099999998722E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -885,10 +935,10 @@
         <v>243</v>
       </c>
       <c r="F23">
-        <v>0.1627136999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>7.6324200000000175E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -899,16 +949,16 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="F24">
-        <v>0.1906982999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.1063141999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -925,10 +975,10 @@
         <v>559</v>
       </c>
       <c r="F25">
-        <v>0.4237580999999988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.2135851000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -945,10 +995,10 @@
         <v>559</v>
       </c>
       <c r="F26">
-        <v>0.3859449000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.2204903999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -965,10 +1015,10 @@
         <v>675</v>
       </c>
       <c r="F27">
-        <v>0.3692241999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.25006789999999951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -982,13 +1032,13 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>778</v>
+        <v>540</v>
       </c>
       <c r="F28">
-        <v>0.5014634000000022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.19938740000000091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1005,10 +1055,10 @@
         <v>351</v>
       </c>
       <c r="F29">
-        <v>0.2017330000000008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.1506916999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1025,10 +1075,10 @@
         <v>219</v>
       </c>
       <c r="F30">
-        <v>0.1375747999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.10655170000000069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1045,10 +1095,10 @@
         <v>219</v>
       </c>
       <c r="F31">
-        <v>0.1249770999999988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>7.7244399999999658E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1065,10 +1115,10 @@
         <v>219</v>
       </c>
       <c r="F32">
-        <v>0.1624529999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>8.0688699999999614E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1079,16 +1129,16 @@
         <v>13</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="F33">
-        <v>0.125667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>3.3495900000000127E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1105,10 +1155,10 @@
         <v>187</v>
       </c>
       <c r="F34">
-        <v>0.1299218999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>8.6436599999998975E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1125,10 +1175,10 @@
         <v>187</v>
       </c>
       <c r="F35">
-        <v>0.1221557000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>7.7372699999999739E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1145,10 +1195,10 @@
         <v>167</v>
       </c>
       <c r="F36">
-        <v>0.1223530000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>8.4580499999999503E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1162,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="F37">
-        <v>0.2128839000000013</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>9.5639200000000812E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1185,10 +1235,10 @@
         <v>2024</v>
       </c>
       <c r="F38">
-        <v>1.8532902</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.98992460000000015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1205,10 +1255,10 @@
         <v>187</v>
       </c>
       <c r="F39">
-        <v>0.2276141000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.1229607000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1225,10 +1275,10 @@
         <v>187</v>
       </c>
       <c r="F40">
-        <v>0.2404520000000012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.11125200000000041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1245,10 +1295,10 @@
         <v>187</v>
       </c>
       <c r="F41">
-        <v>0.2321731000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.13386309999999921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1259,16 +1309,16 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="F42">
-        <v>0.5181223999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>3.3462999999999347E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1285,10 +1335,10 @@
         <v>1223</v>
       </c>
       <c r="F43">
-        <v>1.244135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.73335989999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1305,10 +1355,10 @@
         <v>1223</v>
       </c>
       <c r="F44">
-        <v>1.083371399999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.71759889999999871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1325,10 +1375,10 @@
         <v>106</v>
       </c>
       <c r="F45">
-        <v>0.1164562000000018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>8.2193099999999575E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1342,13 +1392,13 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>2573</v>
+        <v>510</v>
       </c>
       <c r="F46">
-        <v>2.513839399999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.31719259999999849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1365,10 +1415,10 @@
         <v>1550</v>
       </c>
       <c r="F47">
-        <v>1.0887305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.72619210000000045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1385,10 +1435,10 @@
         <v>78</v>
       </c>
       <c r="F48">
-        <v>0.06972899999999882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>4.7873400000000288E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1405,10 +1455,10 @@
         <v>78</v>
       </c>
       <c r="F49">
-        <v>0.06598280000000045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>5.4665299999999917E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1425,10 +1475,10 @@
         <v>78</v>
       </c>
       <c r="F50">
-        <v>0.06567400000000134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>4.6333999999999882E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1439,16 +1489,16 @@
         <v>13</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="F51">
-        <v>0.3584005000000019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>4.572360000000053E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1465,10 +1515,10 @@
         <v>1090</v>
       </c>
       <c r="F52">
-        <v>0.8597317000000011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.59759000000000029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1485,10 +1535,10 @@
         <v>1090</v>
       </c>
       <c r="F53">
-        <v>1.028957000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.62796740000000106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1505,10 +1555,10 @@
         <v>586</v>
       </c>
       <c r="F54">
-        <v>0.4916364999999985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.35142659999999992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1522,13 +1572,13 @@
         <v>9</v>
       </c>
       <c r="E55">
-        <v>2179</v>
+        <v>679</v>
       </c>
       <c r="F55">
-        <v>1.5705314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.45611800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1545,10 +1595,10 @@
         <v>4300</v>
       </c>
       <c r="F56">
-        <v>3.0289827</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2.025151000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1565,10 +1615,10 @@
         <v>1023</v>
       </c>
       <c r="F57">
-        <v>0.7082446000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.45968989999999721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1585,10 +1635,10 @@
         <v>1023</v>
       </c>
       <c r="F58">
-        <v>0.7217904000000033</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.45247349999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>7</v>
       </c>
@@ -1605,10 +1655,10 @@
         <v>1023</v>
       </c>
       <c r="F59">
-        <v>0.719165799999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.45101199999999858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>7</v>
       </c>
@@ -1619,16 +1669,16 @@
         <v>13</v>
       </c>
       <c r="D60">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>522</v>
+        <v>613</v>
       </c>
       <c r="F60">
-        <v>0.3970419000000049</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.32382089999999758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>7</v>
       </c>
@@ -1645,10 +1695,10 @@
         <v>2564</v>
       </c>
       <c r="F61">
-        <v>1.875772099999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1.292650399999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1665,10 +1715,10 @@
         <v>2564</v>
       </c>
       <c r="F62">
-        <v>1.839942199999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1.264142100000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>7</v>
       </c>
@@ -1685,10 +1735,10 @@
         <v>3663</v>
       </c>
       <c r="F63">
-        <v>2.630963800000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>1.704948900000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1702,13 +1752,13 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>3865</v>
+        <v>2612</v>
       </c>
       <c r="F64">
-        <v>3.476614300000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>1.4578929000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1725,10 +1775,10 @@
         <v>951</v>
       </c>
       <c r="F65">
-        <v>0.6052588000000014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.35168890000000269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1745,10 +1795,10 @@
         <v>118</v>
       </c>
       <c r="F66">
-        <v>0.09282280000000043</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>6.176839999999828E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1765,10 +1815,10 @@
         <v>118</v>
       </c>
       <c r="F67">
-        <v>0.0813647999999958</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>6.1979000000000888E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>8</v>
       </c>
@@ -1785,10 +1835,10 @@
         <v>118</v>
       </c>
       <c r="F68">
-        <v>0.08725110000000313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>7.0474699999998336E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>8</v>
       </c>
@@ -1799,16 +1849,16 @@
         <v>13</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="F69">
-        <v>0.2332859999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>4.532999999999987E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>8</v>
       </c>
@@ -1825,10 +1875,10 @@
         <v>1730</v>
       </c>
       <c r="F70">
-        <v>1.230552299999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.78459140000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>8</v>
       </c>
@@ -1845,10 +1895,10 @@
         <v>1730</v>
       </c>
       <c r="F71">
-        <v>1.179493999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.73741850000000042</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1865,10 +1915,10 @@
         <v>371</v>
       </c>
       <c r="F72">
-        <v>0.2829799000000008</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1979935000000026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>8</v>
       </c>
@@ -1882,13 +1932,13 @@
         <v>12</v>
       </c>
       <c r="E73">
-        <v>1329</v>
+        <v>864</v>
       </c>
       <c r="F73">
-        <v>0.8415356000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.446656100000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>9</v>
       </c>
@@ -1905,10 +1955,10 @@
         <v>689</v>
       </c>
       <c r="F74">
-        <v>0.4469360000000009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.29331609999999841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>9</v>
       </c>
@@ -1925,10 +1975,10 @@
         <v>190</v>
       </c>
       <c r="F75">
-        <v>0.172066700000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>9.7598800000000097E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1945,10 +1995,10 @@
         <v>190</v>
       </c>
       <c r="F76">
-        <v>0.1570949999999982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.11015060000000081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>9</v>
       </c>
@@ -1965,10 +2015,10 @@
         <v>190</v>
       </c>
       <c r="F77">
-        <v>0.1613783000000026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>9.4548100000000801E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1979,16 +2029,16 @@
         <v>13</v>
       </c>
       <c r="D78">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="F78">
-        <v>0.1488146999999955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>5.4213900000000592E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>9</v>
       </c>
@@ -2005,10 +2055,10 @@
         <v>635</v>
       </c>
       <c r="F79">
-        <v>0.5018478000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.28526210000000057</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>9</v>
       </c>
@@ -2025,10 +2075,10 @@
         <v>635</v>
       </c>
       <c r="F80">
-        <v>0.4599674999999976</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.29960159999999902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>9</v>
       </c>
@@ -2045,10 +2095,10 @@
         <v>345</v>
       </c>
       <c r="F81">
-        <v>0.3034705999999971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.17185519999999949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>9</v>
       </c>
@@ -2062,13 +2112,13 @@
         <v>12</v>
       </c>
       <c r="E82">
-        <v>658</v>
+        <v>436</v>
       </c>
       <c r="F82">
-        <v>0.4965788000000018</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.19940910000000039</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2085,10 +2135,10 @@
         <v>1959</v>
       </c>
       <c r="F83">
-        <v>1.249313200000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.90278520000000029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>10</v>
       </c>
@@ -2105,10 +2155,10 @@
         <v>531</v>
       </c>
       <c r="F84">
-        <v>0.3920698000000016</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.27541389999999671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2125,10 +2175,10 @@
         <v>531</v>
       </c>
       <c r="F85">
-        <v>0.3545182999999952</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.32720820000000123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>10</v>
       </c>
@@ -2145,10 +2195,10 @@
         <v>531</v>
       </c>
       <c r="F86">
-        <v>0.3688339999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.25474230000000381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2159,16 +2209,16 @@
         <v>13</v>
       </c>
       <c r="D87">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E87">
-        <v>561</v>
+        <v>257</v>
       </c>
       <c r="F87">
-        <v>0.3666769000000016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.12568290000000101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>10</v>
       </c>
@@ -2185,10 +2235,10 @@
         <v>1517</v>
       </c>
       <c r="F88">
-        <v>1.042166999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.69635720000000134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>10</v>
       </c>
@@ -2205,10 +2255,10 @@
         <v>1517</v>
       </c>
       <c r="F89">
-        <v>1.038742500000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.7370943999999966</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>10</v>
       </c>
@@ -2225,10 +2275,10 @@
         <v>1421</v>
       </c>
       <c r="F90">
-        <v>1.035492500000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.73231919999999917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>10</v>
       </c>
@@ -2242,13 +2292,13 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>1959</v>
+        <v>1496</v>
       </c>
       <c r="F91">
-        <v>1.3210379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.71269579999999877</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>11</v>
       </c>
@@ -2265,10 +2315,10 @@
         <v>5764</v>
       </c>
       <c r="F92">
-        <v>4.259148500000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>3.081654800000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>11</v>
       </c>
@@ -2285,10 +2335,10 @@
         <v>920</v>
       </c>
       <c r="F93">
-        <v>0.7177896000000032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.63757329999999968</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>11</v>
       </c>
@@ -2305,10 +2355,10 @@
         <v>920</v>
       </c>
       <c r="F94">
-        <v>0.6969011999999992</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.52713779999999844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>11</v>
       </c>
@@ -2325,10 +2375,10 @@
         <v>920</v>
       </c>
       <c r="F95">
-        <v>0.6544819000000075</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.49051579999999723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>11</v>
       </c>
@@ -2339,16 +2389,16 @@
         <v>13</v>
       </c>
       <c r="D96">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E96">
-        <v>1551</v>
+        <v>569</v>
       </c>
       <c r="F96">
-        <v>1.237161399999991</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.31795130000000432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>11</v>
       </c>
@@ -2365,10 +2415,10 @@
         <v>6583</v>
       </c>
       <c r="F97">
-        <v>5.955228700000006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>4.0218625999999986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>11</v>
       </c>
@@ -2385,10 +2435,10 @@
         <v>6583</v>
       </c>
       <c r="F98">
-        <v>6.431811699999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>4.1822839000000016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>11</v>
       </c>
@@ -2405,10 +2455,10 @@
         <v>16142</v>
       </c>
       <c r="F99">
-        <v>16.5645071</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>10.648664999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>11</v>
       </c>
@@ -2419,16 +2469,16 @@
         <v>13</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>7538</v>
+        <v>7067</v>
       </c>
       <c r="F100">
-        <v>6.508857899999995</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>4.8410647999999981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>12</v>
       </c>
@@ -2445,10 +2495,10 @@
         <v>1737</v>
       </c>
       <c r="F101">
-        <v>1.324587600000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1.1111386999999979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>12</v>
       </c>
@@ -2465,10 +2515,10 @@
         <v>903</v>
       </c>
       <c r="F102">
-        <v>0.6257626999999957</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.40187860000000342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2485,10 +2535,10 @@
         <v>903</v>
       </c>
       <c r="F103">
-        <v>0.6656964000000016</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.40404469999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>12</v>
       </c>
@@ -2505,10 +2555,10 @@
         <v>903</v>
       </c>
       <c r="F104">
-        <v>0.7249052000000091</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>0.51715550000000121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>12</v>
       </c>
@@ -2519,16 +2569,16 @@
         <v>13</v>
       </c>
       <c r="D105">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E105">
-        <v>1006</v>
+        <v>571</v>
       </c>
       <c r="F105">
-        <v>0.7126149999999996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.26377670000000819</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>12</v>
       </c>
@@ -2545,10 +2595,10 @@
         <v>1897</v>
       </c>
       <c r="F106">
-        <v>1.964553100000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.86072080000000994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>12</v>
       </c>
@@ -2565,10 +2615,10 @@
         <v>1897</v>
       </c>
       <c r="F107">
-        <v>1.547970899999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.91488819999999293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>12</v>
       </c>
@@ -2585,10 +2635,10 @@
         <v>2366</v>
       </c>
       <c r="F108">
-        <v>1.935264399999994</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>1.0763699000000031</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>12</v>
       </c>
@@ -2599,16 +2649,16 @@
         <v>13</v>
       </c>
       <c r="D109">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>2335</v>
+        <v>1845</v>
       </c>
       <c r="F109">
-        <v>1.701302499999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>0.9178260999999992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>13</v>
       </c>
@@ -2625,10 +2675,10 @@
         <v>2731</v>
       </c>
       <c r="F110">
-        <v>2.676705099999992</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.420889100000011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>13</v>
       </c>
@@ -2645,10 +2695,10 @@
         <v>1897</v>
       </c>
       <c r="F111">
-        <v>1.354029100000005</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>1.1099754000000099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>13</v>
       </c>
@@ -2665,10 +2715,10 @@
         <v>1897</v>
       </c>
       <c r="F112">
-        <v>1.365975599999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1.174445599999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>13</v>
       </c>
@@ -2685,10 +2735,10 @@
         <v>1897</v>
       </c>
       <c r="F113">
-        <v>1.35254239999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>1.0362353000000011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>13</v>
       </c>
@@ -2699,16 +2749,16 @@
         <v>13</v>
       </c>
       <c r="D114">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E114">
-        <v>1873</v>
+        <v>1755</v>
       </c>
       <c r="F114">
-        <v>1.410583799999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>1.1363611999999961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>13</v>
       </c>
@@ -2725,10 +2775,10 @@
         <v>2858</v>
       </c>
       <c r="F115">
-        <v>2.120891199999988</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>1.681246400000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>13</v>
       </c>
@@ -2745,10 +2795,10 @@
         <v>2858</v>
       </c>
       <c r="F116">
-        <v>2.041763400000008</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>1.5511692000000039</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>13</v>
       </c>
@@ -2765,10 +2815,10 @@
         <v>3594</v>
       </c>
       <c r="F117">
-        <v>2.681686799999994</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>2.2852112000000062</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>13</v>
       </c>
@@ -2782,13 +2832,13 @@
         <v>25</v>
       </c>
       <c r="E118">
-        <v>3358</v>
+        <v>3073</v>
       </c>
       <c r="F118">
-        <v>2.774495099999996</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1.946980800000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>14</v>
       </c>
@@ -2805,10 +2855,10 @@
         <v>2188</v>
       </c>
       <c r="F119">
-        <v>1.455953499999993</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.91414170000000183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>14</v>
       </c>
@@ -2825,10 +2875,10 @@
         <v>938</v>
       </c>
       <c r="F120">
-        <v>0.6875655999999992</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>0.45268219999999809</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>14</v>
       </c>
@@ -2845,10 +2895,10 @@
         <v>938</v>
       </c>
       <c r="F121">
-        <v>0.6454443000000083</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>0.4465124999999972</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>14</v>
       </c>
@@ -2865,10 +2915,10 @@
         <v>938</v>
       </c>
       <c r="F122">
-        <v>0.6797037000000046</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>0.49303919999999829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>14</v>
       </c>
@@ -2879,16 +2929,16 @@
         <v>13</v>
       </c>
       <c r="D123">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E123">
-        <v>1354</v>
+        <v>1040</v>
       </c>
       <c r="F123">
-        <v>0.7699537999999961</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>0.4858058000000085</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>14</v>
       </c>
@@ -2905,10 +2955,10 @@
         <v>2332</v>
       </c>
       <c r="F124">
-        <v>1.461463600000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>1.0873681000000059</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>14</v>
       </c>
@@ -2925,10 +2975,10 @@
         <v>2332</v>
       </c>
       <c r="F125">
-        <v>1.381260200000014</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>1.0698459999999981</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>14</v>
       </c>
@@ -2945,10 +2995,10 @@
         <v>2897</v>
       </c>
       <c r="F126">
-        <v>1.770091199999996</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>1.3994178999999889</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>14</v>
       </c>
@@ -2962,13 +3012,13 @@
         <v>25</v>
       </c>
       <c r="E127">
-        <v>2246</v>
+        <v>2252</v>
       </c>
       <c r="F127">
-        <v>1.839733300000006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>1.165849900000012</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>15</v>
       </c>
@@ -2985,10 +3035,10 @@
         <v>2549</v>
       </c>
       <c r="F128">
-        <v>1.541421499999984</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>1.0271977999999959</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>15</v>
       </c>
@@ -3005,10 +3055,10 @@
         <v>1538</v>
       </c>
       <c r="F129">
-        <v>0.8161172000000079</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>0.68034469999999203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>15</v>
       </c>
@@ -3025,10 +3075,10 @@
         <v>1538</v>
       </c>
       <c r="F130">
-        <v>0.7893521000000021</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>0.62762290000000576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>15</v>
       </c>
@@ -3045,10 +3095,10 @@
         <v>1538</v>
       </c>
       <c r="F131">
-        <v>0.8132461999999805</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>0.62385730000001161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>15</v>
       </c>
@@ -3062,13 +3112,13 @@
         <v>71</v>
       </c>
       <c r="E132">
-        <v>695</v>
+        <v>1472</v>
       </c>
       <c r="F132">
-        <v>0.405296600000014</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>0.63183650000000569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>15</v>
       </c>
@@ -3085,10 +3135,10 @@
         <v>2043</v>
       </c>
       <c r="F133">
-        <v>1.164651000000021</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>0.89506180000000768</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>15</v>
       </c>
@@ -3105,10 +3155,10 @@
         <v>2043</v>
       </c>
       <c r="F134">
-        <v>1.152026599999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>0.92817120000000841</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>15</v>
       </c>
@@ -3125,10 +3175,10 @@
         <v>1825</v>
       </c>
       <c r="F135">
-        <v>1.074110399999995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>0.82547189999999659</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>15</v>
       </c>
@@ -3142,13 +3192,13 @@
         <v>25</v>
       </c>
       <c r="E136">
-        <v>2524</v>
+        <v>1690</v>
       </c>
       <c r="F136">
-        <v>1.459177099999977</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0.80172540000000936</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>16</v>
       </c>
@@ -3165,10 +3215,10 @@
         <v>2249</v>
       </c>
       <c r="F137">
-        <v>1.424568300000004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>1.117109599999992</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>16</v>
       </c>
@@ -3185,10 +3235,10 @@
         <v>409</v>
       </c>
       <c r="F138">
-        <v>0.296382699999981</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>0.22033119999998971</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>16</v>
       </c>
@@ -3205,10 +3255,10 @@
         <v>409</v>
       </c>
       <c r="F139">
-        <v>0.2614484000000061</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.22190190000000601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>16</v>
       </c>
@@ -3225,10 +3275,10 @@
         <v>409</v>
       </c>
       <c r="F140">
-        <v>0.2643239999999878</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>0.23357459999999719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>16</v>
       </c>
@@ -3239,16 +3289,16 @@
         <v>13</v>
       </c>
       <c r="D141">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E141">
-        <v>676</v>
+        <v>200</v>
       </c>
       <c r="F141">
-        <v>0.4643966999999805</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>0.1055750999999958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>16</v>
       </c>
@@ -3265,10 +3315,10 @@
         <v>1666</v>
       </c>
       <c r="F142">
-        <v>1.241551200000004</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>1.0024625000000069</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>16</v>
       </c>
@@ -3285,10 +3335,10 @@
         <v>1666</v>
       </c>
       <c r="F143">
-        <v>1.230371600000012</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>0.9858574999999945</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>16</v>
       </c>
@@ -3305,10 +3355,10 @@
         <v>761</v>
       </c>
       <c r="F144">
-        <v>0.6059586000000081</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>0.46631399999999701</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>16</v>
       </c>
@@ -3322,13 +3372,13 @@
         <v>26</v>
       </c>
       <c r="E145">
-        <v>2365</v>
+        <v>1719</v>
       </c>
       <c r="F145">
-        <v>1.774087800000018</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>1.0758383000000009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>17</v>
       </c>
@@ -3345,10 +3395,10 @@
         <v>9892</v>
       </c>
       <c r="F146">
-        <v>7.245297300000004</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>5.1534237000000047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>17</v>
       </c>
@@ -3365,10 +3415,10 @@
         <v>4541</v>
       </c>
       <c r="F147">
-        <v>3.066967699999992</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>2.6905138999999991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>17</v>
       </c>
@@ -3385,10 +3435,10 @@
         <v>4541</v>
       </c>
       <c r="F148">
-        <v>3.061977500000012</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>2.4962941999999941</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>17</v>
       </c>
@@ -3405,10 +3455,10 @@
         <v>4541</v>
       </c>
       <c r="F149">
-        <v>3.212011500000017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>2.5859276999999992</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>17</v>
       </c>
@@ -3419,16 +3469,16 @@
         <v>13</v>
       </c>
       <c r="D150">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E150">
-        <v>2829</v>
+        <v>4309</v>
       </c>
       <c r="F150">
-        <v>2.019937800000008</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>2.5431488999999909</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>17</v>
       </c>
@@ -3445,10 +3495,10 @@
         <v>10490</v>
       </c>
       <c r="F151">
-        <v>7.570833099999987</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>6.4282663999999841</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>17</v>
       </c>
@@ -3465,10 +3515,10 @@
         <v>10490</v>
       </c>
       <c r="F152">
-        <v>8.758905499999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>6.3585822999999948</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>17</v>
       </c>
@@ -3485,10 +3535,10 @@
         <v>7903</v>
       </c>
       <c r="F153">
-        <v>5.904569699999996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>5.001206499999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>17</v>
       </c>
@@ -3502,13 +3552,13 @@
         <v>26</v>
       </c>
       <c r="E154">
-        <v>10014</v>
+        <v>7934</v>
       </c>
       <c r="F154">
-        <v>7.220204199999984</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>5.2000440000000197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>18</v>
       </c>
@@ -3525,10 +3575,10 @@
         <v>2556</v>
       </c>
       <c r="F155">
-        <v>1.429767499999997</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>1.273455499999983</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>18</v>
       </c>
@@ -3545,10 +3595,10 @@
         <v>1889</v>
       </c>
       <c r="F156">
-        <v>1.19548180000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>0.94017089999999826</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>18</v>
       </c>
@@ -3565,10 +3615,10 @@
         <v>1889</v>
       </c>
       <c r="F157">
-        <v>1.141057500000016</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>0.95093459999998231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>18</v>
       </c>
@@ -3585,10 +3635,10 @@
         <v>1889</v>
       </c>
       <c r="F158">
-        <v>1.152815500000003</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>0.96443930000000933</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>18</v>
       </c>
@@ -3599,16 +3649,16 @@
         <v>13</v>
       </c>
       <c r="D159">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E159">
-        <v>2129</v>
+        <v>1938</v>
       </c>
       <c r="F159">
-        <v>1.251671899999991</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>1.0454513999999899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>18</v>
       </c>
@@ -3625,10 +3675,10 @@
         <v>2995</v>
       </c>
       <c r="F160">
-        <v>1.97453329999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>1.633592000000021</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>18</v>
       </c>
@@ -3645,10 +3695,10 @@
         <v>2995</v>
       </c>
       <c r="F161">
-        <v>2.384404700000005</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>1.815087000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>18</v>
       </c>
@@ -3665,10 +3715,10 @@
         <v>4245</v>
       </c>
       <c r="F162">
-        <v>3.233067299999988</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>2.2475488000000041</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>18</v>
       </c>
@@ -3682,13 +3732,13 @@
         <v>26</v>
       </c>
       <c r="E163">
-        <v>3330</v>
+        <v>3286</v>
       </c>
       <c r="F163">
-        <v>2.219803100000007</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>1.836630999999983</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>19</v>
       </c>
@@ -3705,10 +3755,10 @@
         <v>70</v>
       </c>
       <c r="F164">
-        <v>0.02646519999998986</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>4.0557500000005582E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>19</v>
       </c>
@@ -3725,10 +3775,10 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>0.02603750000000105</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>2.315939999999728E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>19</v>
       </c>
@@ -3745,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>0.02667770000002179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>2.4800799999979969E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>19</v>
       </c>
@@ -3765,10 +3815,10 @@
         <v>70</v>
       </c>
       <c r="F167">
-        <v>0.02545229999998355</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>1.8756400000000891E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>19</v>
       </c>
@@ -3779,16 +3829,16 @@
         <v>13</v>
       </c>
       <c r="D168">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F168">
-        <v>0.02653719999997861</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>2.1269799999998899E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>19</v>
       </c>
@@ -3805,10 +3855,10 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>0.03167499999997858</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>2.441260000000511E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>19</v>
       </c>
@@ -3825,10 +3875,10 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>0.03142840000001001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>2.6567799999980931E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>19</v>
       </c>
@@ -3845,10 +3895,10 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>0.02681160000000204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>2.4552999999997379E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>19</v>
       </c>
@@ -3865,10 +3915,10 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>0.02968720000001213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>2.4839300000024881E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>20</v>
       </c>
@@ -3885,10 +3935,10 @@
         <v>4916</v>
       </c>
       <c r="F173">
-        <v>3.100787499999996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>2.665881000000013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>20</v>
       </c>
@@ -3905,10 +3955,10 @@
         <v>1424</v>
       </c>
       <c r="F174">
-        <v>1.100974799999989</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>0.96867670000000317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>20</v>
       </c>
@@ -3925,10 +3975,10 @@
         <v>1424</v>
       </c>
       <c r="F175">
-        <v>1.0550997</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>0.88509270000000129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>20</v>
       </c>
@@ -3945,10 +3995,10 @@
         <v>1424</v>
       </c>
       <c r="F176">
-        <v>1.058714900000012</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>0.88218770000000291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>20</v>
       </c>
@@ -3959,16 +4009,16 @@
         <v>13</v>
       </c>
       <c r="D177">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E177">
-        <v>1259</v>
+        <v>1855</v>
       </c>
       <c r="F177">
-        <v>0.9511214999999993</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>1.176826000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>20</v>
       </c>
@@ -3985,10 +4035,10 @@
         <v>4742</v>
       </c>
       <c r="F178">
-        <v>3.404546399999987</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>2.9983478999999988</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>20</v>
       </c>
@@ -4005,10 +4055,10 @@
         <v>4742</v>
       </c>
       <c r="F179">
-        <v>3.342917899999975</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>2.8621098000000131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>20</v>
       </c>
@@ -4025,10 +4075,10 @@
         <v>4476</v>
       </c>
       <c r="F180">
-        <v>3.281616299999996</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>2.7484062999999992</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>20</v>
       </c>
@@ -4042,13 +4092,13 @@
         <v>28</v>
       </c>
       <c r="E181">
-        <v>4892</v>
+        <v>4870</v>
       </c>
       <c r="F181">
-        <v>3.488784100000004</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>4.613472900000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>21</v>
       </c>
@@ -4058,14 +4108,17 @@
       <c r="C182" t="s">
         <v>9</v>
       </c>
+      <c r="D182">
+        <v>25</v>
+      </c>
       <c r="E182">
-        <v>2040</v>
+        <v>825</v>
       </c>
       <c r="F182">
-        <v>1.652422499999972</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>0.44928749999999701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>21</v>
       </c>
@@ -4075,14 +4128,17 @@
       <c r="C183" t="s">
         <v>10</v>
       </c>
+      <c r="D183">
+        <v>47</v>
+      </c>
       <c r="E183">
-        <v>2040</v>
+        <v>475</v>
       </c>
       <c r="F183">
-        <v>1.432332499999973</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>0.19779529999999571</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>21</v>
       </c>
@@ -4092,14 +4148,17 @@
       <c r="C184" t="s">
         <v>11</v>
       </c>
+      <c r="D184">
+        <v>47</v>
+      </c>
       <c r="E184">
-        <v>2040</v>
+        <v>475</v>
       </c>
       <c r="F184">
-        <v>1.43911890000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>0.25161540000001992</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>21</v>
       </c>
@@ -4109,14 +4168,17 @@
       <c r="C185" t="s">
         <v>12</v>
       </c>
+      <c r="D185">
+        <v>47</v>
+      </c>
       <c r="E185">
-        <v>2040</v>
+        <v>475</v>
       </c>
       <c r="F185">
-        <v>1.315031199999964</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.22262810000000849</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>21</v>
       </c>
@@ -4126,14 +4188,17 @@
       <c r="C186" t="s">
         <v>13</v>
       </c>
+      <c r="D186">
+        <v>37</v>
+      </c>
       <c r="E186">
-        <v>2040</v>
+        <v>501</v>
       </c>
       <c r="F186">
-        <v>1.194883500000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>0.2356417000000022</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>21</v>
       </c>
@@ -4143,14 +4208,17 @@
       <c r="C187" t="s">
         <v>10</v>
       </c>
+      <c r="D187">
+        <v>25</v>
+      </c>
       <c r="E187">
-        <v>2040</v>
+        <v>836</v>
       </c>
       <c r="F187">
-        <v>1.386741599999993</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>0.43849140000000381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>21</v>
       </c>
@@ -4160,14 +4228,17 @@
       <c r="C188" t="s">
         <v>11</v>
       </c>
+      <c r="D188">
+        <v>25</v>
+      </c>
       <c r="E188">
-        <v>2040</v>
+        <v>836</v>
       </c>
       <c r="F188">
-        <v>1.379966600000046</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>0.44343890000001812</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>21</v>
       </c>
@@ -4177,14 +4248,17 @@
       <c r="C189" t="s">
         <v>12</v>
       </c>
+      <c r="D189">
+        <v>29</v>
+      </c>
       <c r="E189">
-        <v>2040</v>
+        <v>840</v>
       </c>
       <c r="F189">
-        <v>1.368829600000026</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>0.45587650000001639</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>21</v>
       </c>
@@ -4194,14 +4268,17 @@
       <c r="C190" t="s">
         <v>13</v>
       </c>
+      <c r="D190">
+        <v>25</v>
+      </c>
       <c r="E190">
-        <v>2040</v>
+        <v>826</v>
       </c>
       <c r="F190">
-        <v>1.453815700000007</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.3999388999999951</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>22</v>
       </c>
@@ -4218,10 +4295,10 @@
         <v>1268</v>
       </c>
       <c r="F191">
-        <v>0.8416786999999886</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>0.51897119999998154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>22</v>
       </c>
@@ -4238,10 +4315,10 @@
         <v>317</v>
       </c>
       <c r="F192">
-        <v>0.2267018000000007</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>0.16547529999999711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>22</v>
       </c>
@@ -4258,10 +4335,10 @@
         <v>317</v>
       </c>
       <c r="F193">
-        <v>0.2140590000000202</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>0.1596790000000112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>22</v>
       </c>
@@ -4278,10 +4355,10 @@
         <v>317</v>
       </c>
       <c r="F194">
-        <v>0.2343693000000258</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>0.15283349999998561</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>22</v>
       </c>
@@ -4292,16 +4369,16 @@
         <v>13</v>
       </c>
       <c r="D195">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E195">
-        <v>880</v>
+        <v>330</v>
       </c>
       <c r="F195">
-        <v>0.5891679999999724</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0.1922691000000043</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>22</v>
       </c>
@@ -4318,10 +4395,10 @@
         <v>852</v>
       </c>
       <c r="F196">
-        <v>0.5504778000000101</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>0.41081370000000561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>22</v>
       </c>
@@ -4338,10 +4415,10 @@
         <v>852</v>
       </c>
       <c r="F197">
-        <v>0.5017146999999795</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>0.42703129999998168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>22</v>
       </c>
@@ -4358,10 +4435,10 @@
         <v>939</v>
       </c>
       <c r="F198">
-        <v>0.5415934999999763</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>0.4571860000000072</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>22</v>
       </c>
@@ -4375,13 +4452,13 @@
         <v>17</v>
       </c>
       <c r="E199">
-        <v>1274</v>
+        <v>783</v>
       </c>
       <c r="F199">
-        <v>0.7427127999999925</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.44023200000000878</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>23</v>
       </c>
@@ -4398,10 +4475,10 @@
         <v>8302</v>
       </c>
       <c r="F200">
-        <v>5.341367300000002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>4.6765606999999818</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>23</v>
       </c>
@@ -4418,10 +4495,10 @@
         <v>1934</v>
       </c>
       <c r="F201">
-        <v>1.391413800000009</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>1.3074000999999951</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>23</v>
       </c>
@@ -4438,10 +4515,10 @@
         <v>1934</v>
       </c>
       <c r="F202">
-        <v>1.408964200000014</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>1.1467665999999781</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>23</v>
       </c>
@@ -4458,10 +4535,10 @@
         <v>1934</v>
       </c>
       <c r="F203">
-        <v>1.401042600000039</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>1.2333007000000009</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>23</v>
       </c>
@@ -4472,16 +4549,16 @@
         <v>13</v>
       </c>
       <c r="D204">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E204">
-        <v>2192</v>
+        <v>1771</v>
       </c>
       <c r="F204">
-        <v>1.656458200000031</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>1.0653590999999949</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>23</v>
       </c>
@@ -4498,10 +4575,10 @@
         <v>4463</v>
       </c>
       <c r="F205">
-        <v>4.251977599999975</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>2.853462799999988</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>23</v>
       </c>
@@ -4518,10 +4595,10 @@
         <v>4463</v>
       </c>
       <c r="F206">
-        <v>3.874154400000009</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>2.8353494999999782</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>23</v>
       </c>
@@ -4538,10 +4615,10 @@
         <v>3618</v>
       </c>
       <c r="F207">
-        <v>2.842618099999981</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>2.2386792000000071</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>23</v>
       </c>
@@ -4555,13 +4632,13 @@
         <v>16</v>
       </c>
       <c r="E208">
-        <v>6886</v>
+        <v>4276</v>
       </c>
       <c r="F208">
-        <v>4.969873699999994</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>2.9578391000000011</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>24</v>
       </c>
@@ -4578,10 +4655,10 @@
         <v>8747</v>
       </c>
       <c r="F209">
-        <v>6.719033799999977</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>5.5959215999999969</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>24</v>
       </c>
@@ -4598,10 +4675,10 @@
         <v>5618</v>
       </c>
       <c r="F210">
-        <v>4.526094299999954</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>3.887804200000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>24</v>
       </c>
@@ -4618,10 +4695,10 @@
         <v>5618</v>
       </c>
       <c r="F211">
-        <v>5.093408000000011</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>4.1050943999999836</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>24</v>
       </c>
@@ -4638,10 +4715,10 @@
         <v>5618</v>
       </c>
       <c r="F212">
-        <v>4.974723799999992</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>4.1374529999999936</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>24</v>
       </c>
@@ -4652,16 +4729,16 @@
         <v>13</v>
       </c>
       <c r="D213">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E213">
-        <v>2813</v>
+        <v>5702</v>
       </c>
       <c r="F213">
-        <v>2.199018099999989</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>4.2074872999999968</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>24</v>
       </c>
@@ -4678,10 +4755,10 @@
         <v>6324</v>
       </c>
       <c r="F214">
-        <v>5.190035300000034</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>4.5623165000000094</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>24</v>
       </c>
@@ -4698,10 +4775,10 @@
         <v>6324</v>
       </c>
       <c r="F215">
-        <v>5.144350699999961</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>4.3822456000000054</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>24</v>
       </c>
@@ -4718,10 +4795,10 @@
         <v>22459</v>
       </c>
       <c r="F216">
-        <v>20.84899799999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>29.901823699999991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>24</v>
       </c>
@@ -4735,13 +4812,13 @@
         <v>17</v>
       </c>
       <c r="E217">
-        <v>8237</v>
+        <v>4530</v>
       </c>
       <c r="F217">
-        <v>6.785652499999969</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>5.9216494000000353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>25</v>
       </c>
@@ -4758,10 +4835,10 @@
         <v>525</v>
       </c>
       <c r="F218">
-        <v>0.2695092000000159</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>0.4106366000000321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>25</v>
       </c>
@@ -4778,10 +4855,10 @@
         <v>400</v>
       </c>
       <c r="F219">
-        <v>0.2088399000000436</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>0.31464019999998533</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>25</v>
       </c>
@@ -4798,10 +4875,10 @@
         <v>400</v>
       </c>
       <c r="F220">
-        <v>0.213544899999988</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>0.31308530000001161</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>25</v>
       </c>
@@ -4818,10 +4895,10 @@
         <v>400</v>
       </c>
       <c r="F221">
-        <v>0.2348792999999887</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>0.30064609999999448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>25</v>
       </c>
@@ -4832,16 +4909,16 @@
         <v>13</v>
       </c>
       <c r="D222">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F222">
-        <v>0.2104429999999979</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>0.30619190000004443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>25</v>
       </c>
@@ -4858,10 +4935,10 @@
         <v>541</v>
       </c>
       <c r="F223">
-        <v>0.3116859000000431</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>0.45443120000004461</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>25</v>
       </c>
@@ -4878,10 +4955,10 @@
         <v>541</v>
       </c>
       <c r="F224">
-        <v>0.3003250999999523</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>0.45989869999999661</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>25</v>
       </c>
@@ -4898,10 +4975,10 @@
         <v>570</v>
       </c>
       <c r="F225">
-        <v>0.3261674999999968</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>0.48763239999999541</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>25</v>
       </c>
@@ -4912,16 +4989,16 @@
         <v>13</v>
       </c>
       <c r="D226">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F226">
-        <v>0.3193564000000038</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>0.51951209999998582</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>26</v>
       </c>
@@ -4938,10 +5015,10 @@
         <v>15</v>
       </c>
       <c r="F227">
-        <v>0.008119300000032581</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>9.3522999999890999E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>26</v>
       </c>
@@ -4958,10 +5035,10 @@
         <v>12</v>
       </c>
       <c r="F228">
-        <v>0.003325899999992998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>5.778700000007575E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>26</v>
       </c>
@@ -4978,10 +5055,10 @@
         <v>12</v>
       </c>
       <c r="F229">
-        <v>0.002806599999985337</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>4.3747999999936837E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>26</v>
       </c>
@@ -4998,10 +5075,10 @@
         <v>12</v>
       </c>
       <c r="F230">
-        <v>0.004177500000025702</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>4.6504999999683596E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>26</v>
       </c>
@@ -5012,16 +5089,16 @@
         <v>13</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F231">
-        <v>0.00380149999995183</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>4.6059999999670254E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>26</v>
       </c>
@@ -5038,10 +5115,10 @@
         <v>11</v>
       </c>
       <c r="F232">
-        <v>0.002935699999966346</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>5.870000000015807E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>26</v>
       </c>
@@ -5058,10 +5135,10 @@
         <v>11</v>
       </c>
       <c r="F233">
-        <v>0.00322849999997743</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>5.3973000000269167E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>26</v>
       </c>
@@ -5078,10 +5155,10 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>0.003987200000040048</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>5.0078000000439724E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>26</v>
       </c>
@@ -5095,13 +5172,13 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F235">
-        <v>0.005803099999980077</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>4.9566000000140784E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>27</v>
       </c>
@@ -5118,10 +5195,10 @@
         <v>56</v>
       </c>
       <c r="F236">
-        <v>0.02668230000000449</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>5.3413799999987077E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>27</v>
       </c>
@@ -5138,10 +5215,10 @@
         <v>39</v>
       </c>
       <c r="F237">
-        <v>0.01973909999998114</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>3.254119999996874E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>27</v>
       </c>
@@ -5158,10 +5235,10 @@
         <v>39</v>
       </c>
       <c r="F238">
-        <v>0.021951300000012</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>2.9421500000012198E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>27</v>
       </c>
@@ -5178,10 +5255,10 @@
         <v>39</v>
       </c>
       <c r="F239">
-        <v>0.02416929999998274</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>2.9618900000002672E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>27</v>
       </c>
@@ -5192,16 +5269,16 @@
         <v>13</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F240">
-        <v>0.0128804999999943</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>2.9637299999990319E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>27</v>
       </c>
@@ -5218,10 +5295,10 @@
         <v>39</v>
       </c>
       <c r="F241">
-        <v>0.02166130000000521</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>3.1685700000025463E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>27</v>
       </c>
@@ -5238,10 +5315,10 @@
         <v>39</v>
       </c>
       <c r="F242">
-        <v>0.02642140000000381</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>3.1044299999962281E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>27</v>
       </c>
@@ -5258,10 +5335,10 @@
         <v>24</v>
       </c>
       <c r="F243">
-        <v>0.01302930000002789</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>1.8911600000024009E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>27</v>
       </c>
@@ -5275,13 +5352,13 @@
         <v>5</v>
       </c>
       <c r="E244">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F244">
-        <v>0.02347020000001976</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>2.3375299999997878E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>28</v>
       </c>
@@ -5298,10 +5375,10 @@
         <v>894</v>
       </c>
       <c r="F245">
-        <v>0.5174545999999509</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>0.81417690000000675</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>28</v>
       </c>
@@ -5318,10 +5395,10 @@
         <v>136</v>
       </c>
       <c r="F246">
-        <v>0.09608380000003081</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>0.13363450000002791</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>28</v>
       </c>
@@ -5338,10 +5415,10 @@
         <v>136</v>
       </c>
       <c r="F247">
-        <v>0.09865830000001097</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>0.13423060000002349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>28</v>
       </c>
@@ -5358,10 +5435,10 @@
         <v>136</v>
       </c>
       <c r="F248">
-        <v>0.09370300000000498</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>0.1390701999999919</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>28</v>
       </c>
@@ -5372,16 +5449,16 @@
         <v>13</v>
       </c>
       <c r="D249">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="F249">
-        <v>0.1374382000000196</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>0.1140339999999469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>28</v>
       </c>
@@ -5398,10 +5475,10 @@
         <v>317</v>
       </c>
       <c r="F250">
-        <v>0.210840399999995</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>0.31918779999995189</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>28</v>
       </c>
@@ -5418,10 +5495,10 @@
         <v>317</v>
       </c>
       <c r="F251">
-        <v>0.222404900000015</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>0.32641110000002982</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>28</v>
       </c>
@@ -5438,10 +5515,10 @@
         <v>380</v>
       </c>
       <c r="F252">
-        <v>0.2556162999999856</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>0.41352150000000171</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>28</v>
       </c>
@@ -5455,13 +5532,13 @@
         <v>6</v>
       </c>
       <c r="E253">
-        <v>812</v>
+        <v>140</v>
       </c>
       <c r="F253">
-        <v>0.5223584999999957</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>0.16291879999999989</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>29</v>
       </c>
@@ -5478,10 +5555,10 @@
         <v>284</v>
       </c>
       <c r="F254">
-        <v>0.1361711999999784</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>0.18786449999998919</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>29</v>
       </c>
@@ -5498,10 +5575,10 @@
         <v>42</v>
       </c>
       <c r="F255">
-        <v>0.02039739999997892</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>3.2341599999995203E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>29</v>
       </c>
@@ -5518,10 +5595,10 @@
         <v>42</v>
       </c>
       <c r="F256">
-        <v>0.02020989999999756</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>3.2085500000050622E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>29</v>
       </c>
@@ -5538,10 +5615,10 @@
         <v>42</v>
       </c>
       <c r="F257">
-        <v>0.02167430000002923</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>3.02827999999522E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>29</v>
       </c>
@@ -5552,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="D258">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F258">
-        <v>0.05191869999998744</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>4.015020000002778E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>29</v>
       </c>
@@ -5578,10 +5655,10 @@
         <v>80</v>
       </c>
       <c r="F259">
-        <v>0.05193539999999075</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>7.5692800000012994E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>29</v>
       </c>
@@ -5598,10 +5675,10 @@
         <v>80</v>
       </c>
       <c r="F260">
-        <v>0.04897560000000567</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>7.1088499999973465E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>29</v>
       </c>
@@ -5618,10 +5695,10 @@
         <v>65</v>
       </c>
       <c r="F261">
-        <v>0.04305930000003855</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>5.7445200000017849E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>29</v>
       </c>
@@ -5635,13 +5712,13 @@
         <v>7</v>
       </c>
       <c r="E262">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="F262">
-        <v>0.1234144000000015</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>5.1035799999965548E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>30</v>
       </c>
@@ -5658,10 +5735,10 @@
         <v>2387</v>
       </c>
       <c r="F263">
-        <v>1.354270299999996</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+        <v>2.2386495000000082</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>30</v>
       </c>
@@ -5678,10 +5755,10 @@
         <v>90</v>
       </c>
       <c r="F264">
-        <v>0.06625059999998939</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>0.1100263000000155</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>30</v>
       </c>
@@ -5698,10 +5775,10 @@
         <v>90</v>
       </c>
       <c r="F265">
-        <v>0.06645540000005212</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>0.1228887000000327</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>30</v>
       </c>
@@ -5718,10 +5795,10 @@
         <v>90</v>
       </c>
       <c r="F266">
-        <v>0.06074169999999413</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>0.10468529999997141</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>30</v>
       </c>
@@ -5732,16 +5809,16 @@
         <v>13</v>
       </c>
       <c r="D267">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E267">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="F267">
-        <v>0.2037554999999998</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>8.0392700000004425E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>30</v>
       </c>
@@ -5758,10 +5835,10 @@
         <v>365</v>
       </c>
       <c r="F268">
-        <v>0.2457812000000104</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>0.41991649999999942</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>30</v>
       </c>
@@ -5778,10 +5855,10 @@
         <v>365</v>
       </c>
       <c r="F269">
-        <v>0.2514394000000379</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>0.39198559999999821</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>30</v>
       </c>
@@ -5798,10 +5875,10 @@
         <v>68</v>
       </c>
       <c r="F270">
-        <v>0.05081350000000384</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+        <v>7.1087900000009085E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>30</v>
       </c>
@@ -5812,16 +5889,16 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>2300</v>
+        <v>98</v>
       </c>
       <c r="F271">
-        <v>1.497293800000023</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>0.1180732000000262</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>31</v>
       </c>
@@ -5838,10 +5915,10 @@
         <v>103</v>
       </c>
       <c r="F272">
-        <v>0.03980330000001686</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>6.3176699999985431E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>31</v>
       </c>
@@ -5858,10 +5935,10 @@
         <v>45</v>
       </c>
       <c r="F273">
-        <v>0.01854950000000599</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+        <v>2.6395400000012611E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>31</v>
       </c>
@@ -5878,10 +5955,10 @@
         <v>45</v>
       </c>
       <c r="F274">
-        <v>0.02174939999997605</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+        <v>2.8461699999979832E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>31</v>
       </c>
@@ -5898,10 +5975,10 @@
         <v>45</v>
       </c>
       <c r="F275">
-        <v>0.02734390000000531</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+        <v>2.9778500000020362E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>31</v>
       </c>
@@ -5912,16 +5989,16 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E276">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F276">
-        <v>0.02379799999999932</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+        <v>3.4881100000006882E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>31</v>
       </c>
@@ -5938,10 +6015,10 @@
         <v>98</v>
       </c>
       <c r="F277">
-        <v>0.04593269999998029</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+        <v>6.3451900000018213E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>31</v>
       </c>
@@ -5958,10 +6035,10 @@
         <v>98</v>
       </c>
       <c r="F278">
-        <v>0.04759280000001809</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+        <v>5.7710699999972803E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>31</v>
       </c>
@@ -5978,10 +6055,10 @@
         <v>81</v>
       </c>
       <c r="F279">
-        <v>0.0398569999999836</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>5.0536500000021078E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>31</v>
       </c>
@@ -5995,13 +6072,13 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F280">
-        <v>0.05344639999998435</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>5.2142500000002201E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>32</v>
       </c>
@@ -6018,10 +6095,10 @@
         <v>4009</v>
       </c>
       <c r="F281">
-        <v>3.296907599999997</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>3.9253873999999769</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>32</v>
       </c>
@@ -6038,10 +6115,10 @@
         <v>270</v>
       </c>
       <c r="F282">
-        <v>0.2327602999999954</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>0.30380689999998373</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>32</v>
       </c>
@@ -6058,10 +6135,10 @@
         <v>270</v>
       </c>
       <c r="F283">
-        <v>0.1999924999999507</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>0.29827820000002703</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>32</v>
       </c>
@@ -6078,10 +6155,10 @@
         <v>270</v>
       </c>
       <c r="F284">
-        <v>0.2106595999999854</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>0.31928140000002259</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>32</v>
       </c>
@@ -6092,16 +6169,16 @@
         <v>13</v>
       </c>
       <c r="D285">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E285">
-        <v>1095</v>
+        <v>102</v>
       </c>
       <c r="F285">
-        <v>1.037493100000006</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>0.14444720000000191</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>32</v>
       </c>
@@ -6118,10 +6195,10 @@
         <v>1268</v>
       </c>
       <c r="F286">
-        <v>1.193510199999992</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+        <v>1.986866799999973</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>32</v>
       </c>
@@ -6138,10 +6215,10 @@
         <v>1268</v>
       </c>
       <c r="F287">
-        <v>1.042675599999995</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>1.777033300000028</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>32</v>
       </c>
@@ -6158,10 +6235,10 @@
         <v>1408</v>
       </c>
       <c r="F288">
-        <v>1.077649699999995</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+        <v>1.9976291000000399</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>32</v>
       </c>
@@ -6175,13 +6252,13 @@
         <v>11</v>
       </c>
       <c r="E289">
-        <v>7026</v>
+        <v>543</v>
       </c>
       <c r="F289">
-        <v>5.542975899999988</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+        <v>0.84331450000001951</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>33</v>
       </c>
@@ -6198,10 +6275,10 @@
         <v>146</v>
       </c>
       <c r="F290">
-        <v>0.06784249999998337</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+        <v>9.5803099999955066E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>33</v>
       </c>
@@ -6218,10 +6295,10 @@
         <v>71</v>
       </c>
       <c r="F291">
-        <v>0.03483879999998862</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>6.8330400000036207E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>33</v>
       </c>
@@ -6238,10 +6315,10 @@
         <v>71</v>
       </c>
       <c r="F292">
-        <v>0.03666989999999259</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>5.315930000000435E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>33</v>
       </c>
@@ -6258,10 +6335,10 @@
         <v>71</v>
       </c>
       <c r="F293">
-        <v>0.03459290000000692</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>5.7123900000021877E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>33</v>
       </c>
@@ -6275,13 +6352,13 @@
         <v>11</v>
       </c>
       <c r="E294">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F294">
-        <v>0.0305126999999743</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>5.5081099999995331E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>33</v>
       </c>
@@ -6298,10 +6375,10 @@
         <v>129</v>
       </c>
       <c r="F295">
-        <v>0.06033100000001923</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>0.1032812000000263</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>33</v>
       </c>
@@ -6318,10 +6395,10 @@
         <v>129</v>
       </c>
       <c r="F296">
-        <v>0.06000849999998081</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>9.8173499999973046E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>33</v>
       </c>
@@ -6338,10 +6415,10 @@
         <v>114</v>
       </c>
       <c r="F297">
-        <v>0.06069039999999859</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+        <v>8.7710800000024847E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>33</v>
       </c>
@@ -6355,13 +6432,13 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F298">
-        <v>0.07403650000003381</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>0.1050682000000052</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>34</v>
       </c>
@@ -6378,10 +6455,10 @@
         <v>603</v>
       </c>
       <c r="F299">
-        <v>0.2937479999999937</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>0.48998810000000498</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>34</v>
       </c>
@@ -6398,10 +6475,10 @@
         <v>36</v>
       </c>
       <c r="F300">
-        <v>0.02084969999998521</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+        <v>3.3920700000010129E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>34</v>
       </c>
@@ -6418,10 +6495,10 @@
         <v>36</v>
       </c>
       <c r="F301">
-        <v>0.02073560000002317</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+        <v>3.2341200000018937E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>34</v>
       </c>
@@ -6438,10 +6515,10 @@
         <v>36</v>
       </c>
       <c r="F302">
-        <v>0.02198839999999791</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+        <v>5.6453700000020042E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>34</v>
       </c>
@@ -6452,16 +6529,16 @@
         <v>13</v>
       </c>
       <c r="D303">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E303">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="F303">
-        <v>0.1316413000000125</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>0.1139560000000301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>34</v>
       </c>
@@ -6478,10 +6555,10 @@
         <v>509</v>
       </c>
       <c r="F304">
-        <v>0.2877244000000019</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>0.48794939999999087</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>34</v>
       </c>
@@ -6498,10 +6575,10 @@
         <v>509</v>
       </c>
       <c r="F305">
-        <v>0.2883363999999915</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>0.43630589999997937</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>34</v>
       </c>
@@ -6518,10 +6595,10 @@
         <v>183</v>
       </c>
       <c r="F306">
-        <v>0.1110767000000124</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>0.17926640000001731</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>34</v>
       </c>
@@ -6535,13 +6612,13 @@
         <v>9</v>
       </c>
       <c r="E307">
-        <v>611</v>
+        <v>215</v>
       </c>
       <c r="F307">
-        <v>0.3219100000000026</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>0.27127400000000529</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>35</v>
       </c>
@@ -6558,10 +6635,10 @@
         <v>343</v>
       </c>
       <c r="F308">
-        <v>0.1598189000000048</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>0.30270769999998492</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>35</v>
       </c>
@@ -6578,10 +6655,10 @@
         <v>138</v>
       </c>
       <c r="F309">
-        <v>0.07314310000003843</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>0.14482459999999259</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>35</v>
       </c>
@@ -6598,10 +6675,10 @@
         <v>138</v>
       </c>
       <c r="F310">
-        <v>0.07227069999999003</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>0.14377079999997019</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>35</v>
       </c>
@@ -6618,10 +6695,10 @@
         <v>138</v>
       </c>
       <c r="F311">
-        <v>0.07297799999997778</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>0.1397494999999935</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>35</v>
       </c>
@@ -6632,16 +6709,16 @@
         <v>13</v>
       </c>
       <c r="D312">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E312">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="F312">
-        <v>0.06395630000002939</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>6.8041199999981927E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>35</v>
       </c>
@@ -6658,10 +6735,10 @@
         <v>340</v>
       </c>
       <c r="F313">
-        <v>0.1912729000000013</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+        <v>0.30608879999999772</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>35</v>
       </c>
@@ -6678,10 +6755,10 @@
         <v>340</v>
       </c>
       <c r="F314">
-        <v>0.1689089000000195</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>0.2925043000000187</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>35</v>
       </c>
@@ -6698,10 +6775,10 @@
         <v>229</v>
       </c>
       <c r="F315">
-        <v>0.1387283000000252</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+        <v>0.21750259999998889</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>35</v>
       </c>
@@ -6712,16 +6789,16 @@
         <v>13</v>
       </c>
       <c r="D316">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E316">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="F316">
-        <v>0.1795483999999874</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>0.40392880000001702</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>36</v>
       </c>
@@ -6738,10 +6815,10 @@
         <v>355</v>
       </c>
       <c r="F317">
-        <v>0.1858931000000439</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>0.33739600000001252</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>36</v>
       </c>
@@ -6758,10 +6835,10 @@
         <v>161</v>
       </c>
       <c r="F318">
-        <v>0.0794793000000027</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+        <v>0.13697739999997791</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>36</v>
       </c>
@@ -6778,10 +6855,10 @@
         <v>161</v>
       </c>
       <c r="F319">
-        <v>0.07148910000000797</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>0.1166653000000224</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>36</v>
       </c>
@@ -6798,10 +6875,10 @@
         <v>161</v>
       </c>
       <c r="F320">
-        <v>0.07703709999998409</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>0.11448180000002139</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>36</v>
       </c>
@@ -6812,16 +6889,16 @@
         <v>13</v>
       </c>
       <c r="D321">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E321">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F321">
-        <v>0.08820919999999433</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>0.10535389999995461</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>36</v>
       </c>
@@ -6838,10 +6915,10 @@
         <v>115</v>
       </c>
       <c r="F322">
-        <v>0.08198690000000397</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+        <v>0.1209483000000091</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>36</v>
       </c>
@@ -6858,10 +6935,10 @@
         <v>115</v>
       </c>
       <c r="F323">
-        <v>0.07841550000000552</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+        <v>0.1113985000000071</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>36</v>
       </c>
@@ -6878,10 +6955,10 @@
         <v>100</v>
       </c>
       <c r="F324">
-        <v>0.06183750000002419</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>0.1101109999999608</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>36</v>
       </c>
@@ -6895,13 +6972,13 @@
         <v>7</v>
       </c>
       <c r="E325">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="F325">
-        <v>0.2070285000000354</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+        <v>0.10402310000000629</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>37</v>
       </c>
@@ -6918,10 +6995,10 @@
         <v>5413</v>
       </c>
       <c r="F326">
-        <v>3.675340000000006</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>6.7604622000000063</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>37</v>
       </c>
@@ -6938,10 +7015,10 @@
         <v>47</v>
       </c>
       <c r="F327">
-        <v>0.04441209999998819</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>7.529069999998228E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>37</v>
       </c>
@@ -6958,10 +7035,10 @@
         <v>47</v>
       </c>
       <c r="F328">
-        <v>0.03760490000001937</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+        <v>5.9589000000016767E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>37</v>
       </c>
@@ -6978,10 +7055,10 @@
         <v>47</v>
       </c>
       <c r="F329">
-        <v>0.03945700000002716</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>6.180499999999256E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>37</v>
       </c>
@@ -6992,16 +7069,16 @@
         <v>13</v>
       </c>
       <c r="D330">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E330">
-        <v>393</v>
+        <v>35</v>
       </c>
       <c r="F330">
-        <v>0.2773500000000126</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>4.5652399999994493E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>37</v>
       </c>
@@ -7018,10 +7095,10 @@
         <v>681</v>
       </c>
       <c r="F331">
-        <v>0.607409500000017</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>0.96607470000003559</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>37</v>
       </c>
@@ -7038,10 +7115,10 @@
         <v>681</v>
       </c>
       <c r="F332">
-        <v>0.6211510999999632</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>0.96220610000000306</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>37</v>
       </c>
@@ -7058,10 +7135,10 @@
         <v>102</v>
       </c>
       <c r="F333">
-        <v>0.09374249999996209</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>0.13013109999997141</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>37</v>
       </c>
@@ -7075,13 +7152,13 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>3724</v>
+        <v>228</v>
       </c>
       <c r="F334">
-        <v>3.407404499999984</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>0.32531929999998971</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>38</v>
       </c>
@@ -7098,10 +7175,10 @@
         <v>107</v>
       </c>
       <c r="F335">
-        <v>0.04498710000001438</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+        <v>7.5468699999987621E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>38</v>
       </c>
@@ -7118,10 +7195,10 @@
         <v>60</v>
       </c>
       <c r="F336">
-        <v>0.02439769999995178</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>4.5918599999993148E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>38</v>
       </c>
@@ -7138,10 +7215,10 @@
         <v>60</v>
       </c>
       <c r="F337">
-        <v>0.02684920000001512</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>4.3713800000034553E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>38</v>
       </c>
@@ -7158,10 +7235,10 @@
         <v>60</v>
       </c>
       <c r="F338">
-        <v>0.02970010000001366</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>4.1318900000021593E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>38</v>
       </c>
@@ -7175,13 +7252,13 @@
         <v>13</v>
       </c>
       <c r="E339">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F339">
-        <v>0.0302651999999739</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>7.3991000000035001E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>38</v>
       </c>
@@ -7198,10 +7275,10 @@
         <v>88</v>
       </c>
       <c r="F340">
-        <v>0.04211820000000444</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>6.987090000001217E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>38</v>
       </c>
@@ -7218,10 +7295,10 @@
         <v>88</v>
       </c>
       <c r="F341">
-        <v>0.03809979999999769</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>6.5849400000047353E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>38</v>
       </c>
@@ -7238,10 +7315,10 @@
         <v>81</v>
       </c>
       <c r="F342">
-        <v>0.04174480000000358</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+        <v>6.3463200000001052E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>38</v>
       </c>
@@ -7255,13 +7332,13 @@
         <v>10</v>
       </c>
       <c r="E343">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F343">
-        <v>0.04980349999999589</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>6.6029600000035771E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>39</v>
       </c>
@@ -7278,10 +7355,10 @@
         <v>406</v>
       </c>
       <c r="F344">
-        <v>0.2079214999999976</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>0.34914739999999261</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>39</v>
       </c>
@@ -7298,10 +7375,10 @@
         <v>88</v>
       </c>
       <c r="F345">
-        <v>0.05628469999999197</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>9.6278099999949518E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>39</v>
       </c>
@@ -7318,10 +7395,10 @@
         <v>88</v>
       </c>
       <c r="F346">
-        <v>0.0541541000000052</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>9.2762100000015835E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>39</v>
       </c>
@@ -7338,10 +7415,10 @@
         <v>88</v>
       </c>
       <c r="F347">
-        <v>0.05245080000003099</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>9.6857400000033067E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>39</v>
       </c>
@@ -7352,16 +7429,16 @@
         <v>13</v>
       </c>
       <c r="D348">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E348">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="F348">
-        <v>0.1044074999999793</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+        <v>0.10902279999999109</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>39</v>
       </c>
@@ -7378,10 +7455,10 @@
         <v>374</v>
       </c>
       <c r="F349">
-        <v>0.2026973000000112</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+        <v>0.36085680000002179</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>39</v>
       </c>
@@ -7398,10 +7475,10 @@
         <v>374</v>
       </c>
       <c r="F350">
-        <v>0.1947136</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>0.33370639999998281</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>39</v>
       </c>
@@ -7418,10 +7495,10 @@
         <v>294</v>
       </c>
       <c r="F351">
-        <v>0.1582341999999812</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+        <v>0.29319820000000618</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>39</v>
       </c>
@@ -7435,13 +7512,13 @@
         <v>9</v>
       </c>
       <c r="E352">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="F352">
-        <v>0.2190605000000119</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+        <v>0.3568175999999994</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>40</v>
       </c>
@@ -7458,10 +7535,10 @@
         <v>118</v>
       </c>
       <c r="F353">
-        <v>0.05940259999999853</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
+        <v>8.1464100000005146E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>40</v>
       </c>
@@ -7478,10 +7555,10 @@
         <v>35</v>
       </c>
       <c r="F354">
-        <v>0.01830419999998867</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
+        <v>2.6209199999982499E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>40</v>
       </c>
@@ -7498,10 +7575,10 @@
         <v>35</v>
       </c>
       <c r="F355">
-        <v>0.01874879999996892</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
+        <v>2.5239700000042831E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>40</v>
       </c>
@@ -7518,10 +7595,10 @@
         <v>35</v>
       </c>
       <c r="F356">
-        <v>0.01511649999997644</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+        <v>2.7214599999979331E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>40</v>
       </c>
@@ -7532,16 +7609,16 @@
         <v>13</v>
       </c>
       <c r="D357">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E357">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F357">
-        <v>0.0230968000000189</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
+        <v>1.7339600000013888E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>40</v>
       </c>
@@ -7558,10 +7635,10 @@
         <v>55</v>
       </c>
       <c r="F358">
-        <v>0.028912900000023</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
+        <v>4.8192900000003647E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>40</v>
       </c>
@@ -7578,10 +7655,10 @@
         <v>55</v>
       </c>
       <c r="F359">
-        <v>0.03134440000002314</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+        <v>4.8321900000019007E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>40</v>
       </c>
@@ -7598,10 +7675,10 @@
         <v>45</v>
       </c>
       <c r="F360">
-        <v>0.02201810000002524</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
+        <v>3.9547499999969198E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>40</v>
       </c>
@@ -7615,13 +7692,13 @@
         <v>9</v>
       </c>
       <c r="E361">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="F361">
-        <v>0.06464700000003631</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+        <v>3.5869199999979173E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>41</v>
       </c>
@@ -7638,10 +7715,10 @@
         <v>201</v>
       </c>
       <c r="F362">
-        <v>0.06978609999998753</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+        <v>0.1225448999999799</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>41</v>
       </c>
@@ -7658,10 +7735,10 @@
         <v>73</v>
       </c>
       <c r="F363">
-        <v>0.03174670000004198</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+        <v>4.838510000001861E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>41</v>
       </c>
@@ -7678,10 +7755,10 @@
         <v>73</v>
       </c>
       <c r="F364">
-        <v>0.03029020000002447</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+        <v>5.2791700000000219E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>41</v>
       </c>
@@ -7698,10 +7775,10 @@
         <v>73</v>
       </c>
       <c r="F365">
-        <v>0.03343819999997777</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+        <v>5.5959099999995487E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>41</v>
       </c>
@@ -7712,16 +7789,16 @@
         <v>13</v>
       </c>
       <c r="D366">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E366">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F366">
-        <v>0.03660330000002432</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+        <v>5.3646700000001601E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>41</v>
       </c>
@@ -7738,10 +7815,10 @@
         <v>175</v>
       </c>
       <c r="F367">
-        <v>0.102419599999962</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+        <v>0.1290381999999681</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>41</v>
       </c>
@@ -7758,10 +7835,10 @@
         <v>175</v>
       </c>
       <c r="F368">
-        <v>0.07599149999998644</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+        <v>0.14657840000000991</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>41</v>
       </c>
@@ -7778,10 +7855,10 @@
         <v>129</v>
       </c>
       <c r="F369">
-        <v>0.05746729999998479</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+        <v>9.4907500000033451E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>41</v>
       </c>
@@ -7795,13 +7872,13 @@
         <v>11</v>
       </c>
       <c r="E370">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="F370">
-        <v>0.08663830000000416</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+        <v>0.11534339999997199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>42</v>
       </c>
@@ -7818,10 +7895,10 @@
         <v>482</v>
       </c>
       <c r="F371">
-        <v>0.2389498000000003</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+        <v>0.39964570000000782</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>42</v>
       </c>
@@ -7838,10 +7915,10 @@
         <v>201</v>
       </c>
       <c r="F372">
-        <v>0.1066420000000221</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+        <v>0.20600419999999531</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>42</v>
       </c>
@@ -7858,10 +7935,10 @@
         <v>201</v>
       </c>
       <c r="F373">
-        <v>0.1151891000000091</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+        <v>0.1902167000000077</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>42</v>
       </c>
@@ -7878,10 +7955,10 @@
         <v>201</v>
       </c>
       <c r="F374">
-        <v>0.15548739999997</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+        <v>0.18648730000001021</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>42</v>
       </c>
@@ -7892,16 +7969,16 @@
         <v>13</v>
       </c>
       <c r="D375">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E375">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="F375">
-        <v>0.2929217000000222</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+        <v>0.26841559999996889</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>42</v>
       </c>
@@ -7918,10 +7995,10 @@
         <v>487</v>
       </c>
       <c r="F376">
-        <v>0.3935673000000293</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+        <v>0.52441439999995509</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>42</v>
       </c>
@@ -7938,10 +8015,10 @@
         <v>487</v>
       </c>
       <c r="F377">
-        <v>0.3170751000000109</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+        <v>0.50362330000001521</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>42</v>
       </c>
@@ -7958,10 +8035,10 @@
         <v>395</v>
       </c>
       <c r="F378">
-        <v>0.279233099999999</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+        <v>0.4545332000000144</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>42</v>
       </c>
@@ -7975,13 +8052,13 @@
         <v>11</v>
       </c>
       <c r="E379">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="F379">
-        <v>0.2989785999999981</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
+        <v>0.51509909999998627</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>43</v>
       </c>
@@ -7998,10 +8075,10 @@
         <v>130</v>
       </c>
       <c r="F380">
-        <v>0.06337100000001783</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+        <v>9.3270300000028783E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>43</v>
       </c>
@@ -8018,10 +8095,10 @@
         <v>67</v>
       </c>
       <c r="F381">
-        <v>0.03592679999997017</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+        <v>5.0906099999963317E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>43</v>
       </c>
@@ -8038,10 +8115,10 @@
         <v>67</v>
       </c>
       <c r="F382">
-        <v>0.03678310000003648</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
+        <v>5.150599999996075E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>43</v>
       </c>
@@ -8058,10 +8135,10 @@
         <v>67</v>
       </c>
       <c r="F383">
-        <v>0.03716220000001158</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
+        <v>5.1283100000034658E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>43</v>
       </c>
@@ -8072,16 +8149,16 @@
         <v>13</v>
       </c>
       <c r="D384">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E384">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F384">
-        <v>0.04959380000002511</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+        <v>4.6416000000022002E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>43</v>
       </c>
@@ -8098,10 +8175,10 @@
         <v>118</v>
       </c>
       <c r="F385">
-        <v>0.06905530000000226</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
+        <v>8.5540100000002894E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>43</v>
       </c>
@@ -8118,10 +8195,10 @@
         <v>118</v>
       </c>
       <c r="F386">
-        <v>0.06516239999996287</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
+        <v>8.6598299999991468E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>43</v>
       </c>
@@ -8138,10 +8215,10 @@
         <v>112</v>
       </c>
       <c r="F387">
-        <v>0.07650369999998929</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
+        <v>8.4364199999981793E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>43</v>
       </c>
@@ -8155,13 +8232,13 @@
         <v>11</v>
       </c>
       <c r="E388">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F388">
-        <v>0.06742330000002994</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
+        <v>8.4487699999954202E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>44</v>
       </c>
@@ -8178,10 +8255,10 @@
         <v>6961</v>
       </c>
       <c r="F389">
-        <v>5.16799229999998</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
+        <v>8.6584145999999578</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>44</v>
       </c>
@@ -8198,10 +8275,10 @@
         <v>317</v>
       </c>
       <c r="F390">
-        <v>0.2147486000000072</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
+        <v>0.36937499999999091</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>44</v>
       </c>
@@ -8218,10 +8295,10 @@
         <v>317</v>
       </c>
       <c r="F391">
-        <v>0.2099092999999925</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
+        <v>0.37735019999996672</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>44</v>
       </c>
@@ -8238,10 +8315,10 @@
         <v>317</v>
       </c>
       <c r="F392">
-        <v>0.2005181999999763</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
+        <v>0.31236159999997432</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>44</v>
       </c>
@@ -8252,16 +8329,16 @@
         <v>13</v>
       </c>
       <c r="D393">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E393">
-        <v>1634</v>
+        <v>53</v>
       </c>
       <c r="F393">
-        <v>1.236119500000029</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
+        <v>9.0373999999997068E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>44</v>
       </c>
@@ -8278,10 +8355,10 @@
         <v>6954</v>
       </c>
       <c r="F394">
-        <v>5.520291099999952</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
+        <v>10.918311100000039</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>44</v>
       </c>
@@ -8298,10 +8375,10 @@
         <v>6954</v>
       </c>
       <c r="F395">
-        <v>5.440350800000033</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
+        <v>11.20463570000004</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>44</v>
       </c>
@@ -8318,10 +8395,10 @@
         <v>1641</v>
       </c>
       <c r="F396">
-        <v>1.472045799999989</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
+        <v>3.256787599999996</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>44</v>
       </c>
@@ -8335,13 +8412,13 @@
         <v>12</v>
       </c>
       <c r="E397">
-        <v>19508</v>
+        <v>2135</v>
       </c>
       <c r="F397">
-        <v>15.98015500000002</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
+        <v>4.4503219000000058</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>45</v>
       </c>
@@ -8358,10 +8435,10 @@
         <v>253</v>
       </c>
       <c r="F398">
-        <v>0.1330871999999772</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
+        <v>0.17281430000002729</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>45</v>
       </c>
@@ -8378,10 +8455,10 @@
         <v>78</v>
       </c>
       <c r="F399">
-        <v>0.03744230000000925</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
+        <v>6.1503200000004199E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>45</v>
       </c>
@@ -8398,10 +8475,10 @@
         <v>78</v>
       </c>
       <c r="F400">
-        <v>0.03478659999996125</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
+        <v>6.3453400000014426E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>45</v>
       </c>
@@ -8418,10 +8495,10 @@
         <v>78</v>
       </c>
       <c r="F401">
-        <v>0.03551870000001145</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
+        <v>5.633269999998447E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>45</v>
       </c>
@@ -8432,16 +8509,16 @@
         <v>13</v>
       </c>
       <c r="D402">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E402">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F402">
-        <v>0.05128930000000764</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
+        <v>7.4883499999998548E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>45</v>
       </c>
@@ -8458,10 +8535,10 @@
         <v>251</v>
       </c>
       <c r="F403">
-        <v>0.1051302000000192</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
+        <v>0.208585400000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>45</v>
       </c>
@@ -8478,10 +8555,10 @@
         <v>251</v>
       </c>
       <c r="F404">
-        <v>0.1045030999999881</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
+        <v>0.20720470000003391</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>45</v>
       </c>
@@ -8498,10 +8575,10 @@
         <v>248</v>
       </c>
       <c r="F405">
-        <v>0.109294000000034</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
+        <v>0.20077379999997899</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>45</v>
       </c>
@@ -8515,13 +8592,13 @@
         <v>12</v>
       </c>
       <c r="E406">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F406">
-        <v>0.1109448999999927</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
+        <v>0.17524389999999809</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>46</v>
       </c>
@@ -8538,10 +8615,10 @@
         <v>225</v>
       </c>
       <c r="F407">
-        <v>0.08842830000003232</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6">
+        <v>0.14580089999998341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>46</v>
       </c>
@@ -8558,10 +8635,10 @@
         <v>121</v>
       </c>
       <c r="F408">
-        <v>0.05180579999995416</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6">
+        <v>7.1793800000023111E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>46</v>
       </c>
@@ -8578,10 +8655,10 @@
         <v>121</v>
       </c>
       <c r="F409">
-        <v>0.05675209999998287</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6">
+        <v>7.4207800000010593E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>46</v>
       </c>
@@ -8598,10 +8675,10 @@
         <v>121</v>
       </c>
       <c r="F410">
-        <v>0.05262210000000778</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6">
+        <v>6.9687799999996969E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>46</v>
       </c>
@@ -8612,16 +8689,16 @@
         <v>13</v>
       </c>
       <c r="D411">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E411">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F411">
-        <v>0.04794330000004265</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6">
+        <v>5.5612900000028283E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>46</v>
       </c>
@@ -8638,10 +8715,10 @@
         <v>215</v>
       </c>
       <c r="F412">
-        <v>0.09738189999995939</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6">
+        <v>0.15583909999998011</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>46</v>
       </c>
@@ -8658,10 +8735,10 @@
         <v>215</v>
       </c>
       <c r="F413">
-        <v>0.09938210000001391</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
+        <v>0.15747420000002421</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>46</v>
       </c>
@@ -8678,10 +8755,10 @@
         <v>150</v>
       </c>
       <c r="F414">
-        <v>0.07290010000002667</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
+        <v>0.1028152999999747</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>46</v>
       </c>
@@ -8695,13 +8772,13 @@
         <v>13</v>
       </c>
       <c r="E415">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="F415">
-        <v>0.1133640999999557</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6">
+        <v>0.1619771999999671</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>47</v>
       </c>
@@ -8718,10 +8795,10 @@
         <v>1449</v>
       </c>
       <c r="F416">
-        <v>0.8644226999999773</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6">
+        <v>1.6838286999999921</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>47</v>
       </c>
@@ -8738,10 +8815,10 @@
         <v>372</v>
       </c>
       <c r="F417">
-        <v>0.2124073000000521</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6">
+        <v>0.47526009999995722</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>47</v>
       </c>
@@ -8758,10 +8835,10 @@
         <v>372</v>
       </c>
       <c r="F418">
-        <v>0.216814099999965</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6">
+        <v>0.45282329999997728</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>47</v>
       </c>
@@ -8778,10 +8855,10 @@
         <v>372</v>
       </c>
       <c r="F419">
-        <v>0.2501723999999967</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
+        <v>0.42723280000001301</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>47</v>
       </c>
@@ -8792,16 +8869,16 @@
         <v>13</v>
       </c>
       <c r="D420">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E420">
-        <v>488</v>
+        <v>198</v>
       </c>
       <c r="F420">
-        <v>0.3291293999999994</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6">
+        <v>0.27328299999999223</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>47</v>
       </c>
@@ -8818,10 +8895,10 @@
         <v>959</v>
       </c>
       <c r="F421">
-        <v>0.6400787999999693</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
+        <v>1.3397838000000211</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>47</v>
       </c>
@@ -8838,10 +8915,10 @@
         <v>959</v>
       </c>
       <c r="F422">
-        <v>0.6151500000000283</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
+        <v>0.96882009999995944</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>47</v>
       </c>
@@ -8858,10 +8935,10 @@
         <v>648</v>
       </c>
       <c r="F423">
-        <v>0.4135455999999635</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
+        <v>0.77863949999999704</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>47</v>
       </c>
@@ -8872,16 +8949,16 @@
         <v>13</v>
       </c>
       <c r="D424">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E424">
-        <v>1410</v>
+        <v>783</v>
       </c>
       <c r="F424">
-        <v>0.9903833999999847</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
+        <v>1.0191731000000459</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>48</v>
       </c>
@@ -8898,10 +8975,10 @@
         <v>870</v>
       </c>
       <c r="F425">
-        <v>0.4221537999999896</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
+        <v>0.72657460000004903</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>48</v>
       </c>
@@ -8918,10 +8995,10 @@
         <v>215</v>
       </c>
       <c r="F426">
-        <v>0.110105400000009</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
+        <v>0.20346390000003109</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>48</v>
       </c>
@@ -8938,10 +9015,10 @@
         <v>215</v>
       </c>
       <c r="F427">
-        <v>0.107974200000001</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6">
+        <v>0.19272059999997279</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>48</v>
       </c>
@@ -8958,10 +9035,10 @@
         <v>215</v>
       </c>
       <c r="F428">
-        <v>0.1095186000000012</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6">
+        <v>0.2038560999999959</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>48</v>
       </c>
@@ -8972,16 +9049,16 @@
         <v>13</v>
       </c>
       <c r="D429">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E429">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="F429">
-        <v>0.1662241999999878</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6">
+        <v>0.24722910000002679</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>48</v>
       </c>
@@ -8998,10 +9075,10 @@
         <v>1322</v>
       </c>
       <c r="F430">
-        <v>0.7620915999999625</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6">
+        <v>1.221176799999967</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>48</v>
       </c>
@@ -9018,10 +9095,10 @@
         <v>1322</v>
       </c>
       <c r="F431">
-        <v>0.7121189999999729</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6">
+        <v>1.3761159000000021</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>48</v>
       </c>
@@ -9038,10 +9115,10 @@
         <v>756</v>
       </c>
       <c r="F432">
-        <v>0.4191736000000219</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6">
+        <v>1.0321159999999741</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>48</v>
       </c>
@@ -9055,13 +9132,13 @@
         <v>14</v>
       </c>
       <c r="E433">
-        <v>890</v>
+        <v>1258</v>
       </c>
       <c r="F433">
-        <v>0.4910020000000372</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
+        <v>1.6707049999999981</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>49</v>
       </c>
@@ -9078,10 +9155,10 @@
         <v>281</v>
       </c>
       <c r="F434">
-        <v>0.1609483999999952</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6">
+        <v>0.30732749999998532</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>49</v>
       </c>
@@ -9098,10 +9175,10 @@
         <v>89</v>
       </c>
       <c r="F435">
-        <v>0.05581239999997933</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6">
+        <v>9.3242900000007012E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>49</v>
       </c>
@@ -9118,10 +9195,10 @@
         <v>89</v>
       </c>
       <c r="F436">
-        <v>0.05295669999998154</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6">
+        <v>9.7588000000030206E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>49</v>
       </c>
@@ -9138,10 +9215,10 @@
         <v>89</v>
       </c>
       <c r="F437">
-        <v>0.05152499999996962</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
+        <v>0.12681140000000821</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>49</v>
       </c>
@@ -9152,16 +9229,16 @@
         <v>13</v>
       </c>
       <c r="D438">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E438">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F438">
-        <v>0.04930209999997714</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
+        <v>9.4620899999995345E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>49</v>
       </c>
@@ -9178,10 +9255,10 @@
         <v>167</v>
       </c>
       <c r="F439">
-        <v>0.09645380000000614</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6">
+        <v>0.1832426999999939</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>49</v>
       </c>
@@ -9198,10 +9275,10 @@
         <v>167</v>
       </c>
       <c r="F440">
-        <v>0.1481620999999791</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
+        <v>0.1804374000000166</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>49</v>
       </c>
@@ -9218,10 +9295,10 @@
         <v>89</v>
       </c>
       <c r="F441">
-        <v>0.06962089999996124</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
+        <v>9.5475599999986116E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>49</v>
       </c>
@@ -9235,13 +9312,13 @@
         <v>12</v>
       </c>
       <c r="E442">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="F442">
-        <v>0.1665975999999887</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
+        <v>0.14111120000001159</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>50</v>
       </c>
@@ -9258,10 +9335,10 @@
         <v>524</v>
       </c>
       <c r="F443">
-        <v>0.3001347999999666</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
+        <v>0.40721020000000863</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>50</v>
       </c>
@@ -9278,10 +9355,10 @@
         <v>104</v>
       </c>
       <c r="F444">
-        <v>0.06036470000003646</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
+        <v>8.0411900000001424E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>50</v>
       </c>
@@ -9298,10 +9375,10 @@
         <v>104</v>
       </c>
       <c r="F445">
-        <v>0.04532330000000684</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
+        <v>7.8967599999998583E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>50</v>
       </c>
@@ -9318,10 +9395,10 @@
         <v>104</v>
       </c>
       <c r="F446">
-        <v>0.04773579999999811</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
+        <v>8.3174299999996038E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>50</v>
       </c>
@@ -9332,16 +9409,16 @@
         <v>13</v>
       </c>
       <c r="D447">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E447">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="F447">
-        <v>0.08702399999998534</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
+        <v>7.6155599999992774E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>50</v>
       </c>
@@ -9358,10 +9435,10 @@
         <v>587</v>
       </c>
       <c r="F448">
-        <v>0.3102245000000039</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
+        <v>0.53987580000000435</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>50</v>
       </c>
@@ -9378,10 +9455,10 @@
         <v>587</v>
       </c>
       <c r="F449">
-        <v>0.2706637000000001</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6">
+        <v>0.51828210000002173</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>50</v>
       </c>
@@ -9398,10 +9475,10 @@
         <v>350</v>
       </c>
       <c r="F450">
-        <v>0.1681194000000232</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
+        <v>0.35912450000000717</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>50</v>
       </c>
@@ -9415,10 +9492,10 @@
         <v>16</v>
       </c>
       <c r="E451">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F451">
-        <v>0.2371152000000052</v>
+        <v>0.55246849999997494</v>
       </c>
     </row>
   </sheetData>
@@ -9427,14 +9504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9451,15 +9535,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>13.97959183673469</v>
+        <v>14.2</v>
       </c>
       <c r="B2">
-        <v>1971.78</v>
+        <v>1947.48</v>
       </c>
       <c r="C2">
-        <v>1.370497521999997</v>
+        <v>1.3136059099999979</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -9468,15 +9552,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>29.87755102040816</v>
+        <v>30.22</v>
       </c>
       <c r="B3">
-        <v>611.02</v>
+        <v>579.72</v>
       </c>
       <c r="C3">
-        <v>0.4314792879999992</v>
+        <v>0.36696117599999778</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -9485,15 +9569,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>29.87755102040816</v>
+        <v>30.22</v>
       </c>
       <c r="B4">
-        <v>611.02</v>
+        <v>579.72</v>
       </c>
       <c r="C4">
-        <v>0.436884816000002</v>
+        <v>0.36001787200000313</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -9502,15 +9586,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>29.87755102040816</v>
+        <v>30.22</v>
       </c>
       <c r="B5">
-        <v>611.02</v>
+        <v>579.72</v>
       </c>
       <c r="C5">
-        <v>0.4403218199999995</v>
+        <v>0.36130874200000052</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -9519,15 +9603,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>37.51020408163265</v>
+        <v>25.34</v>
       </c>
       <c r="B6">
-        <v>634.3200000000001</v>
+        <v>527.29999999999995</v>
       </c>
       <c r="C6">
-        <v>0.4490369760000001</v>
+        <v>0.33799796800000032</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -9536,15 +9620,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>13.97959183673469</v>
+        <v>14.2</v>
       </c>
       <c r="B7">
-        <v>1551.48</v>
+        <v>1527.4</v>
       </c>
       <c r="C7">
-        <v>1.186173503999998</v>
+        <v>1.1205694920000031</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -9553,15 +9637,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>13.97959183673469</v>
+        <v>14.2</v>
       </c>
       <c r="B8">
-        <v>1551.48</v>
+        <v>1527.4</v>
       </c>
       <c r="C8">
-        <v>1.193899495999999</v>
+        <v>1.1146095520000019</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -9570,15 +9654,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>14.59183673469388</v>
+        <v>14.88</v>
       </c>
       <c r="B9">
-        <v>1821.26</v>
+        <v>1797.26</v>
       </c>
       <c r="C9">
-        <v>1.510518494000001</v>
+        <v>1.504325504000001</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -9587,15 +9671,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>14.06122448979592</v>
+        <v>14.24</v>
       </c>
       <c r="B10">
-        <v>2291.08</v>
+        <v>1234.8399999999999</v>
       </c>
       <c r="C10">
-        <v>1.753338592000001</v>
+        <v>0.98154595400000122</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -9606,5 +9690,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rush Hour Analysis.xlsx
+++ b/Rush Hour Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/l_voisa_live_concordia_ca/Documents/Session 6/COMP 472 AI/Mini Projects/MP-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_DF0FAA8AD6183E174CF7044707B0C2C084D8BFAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC0B138-BEB1-431B-B3E2-82245F498F7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F333099DD6183E174CB78AD4F3D4CE8085D86F41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="17603" windowHeight="9443" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18825" yWindow="-14100" windowWidth="17610" windowHeight="9450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
         <v>1052</v>
       </c>
       <c r="F2">
-        <v>0.43374309999999988</v>
+        <v>0.69063850000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -535,7 +535,7 @@
         <v>154</v>
       </c>
       <c r="F3">
-        <v>8.5297999999999874E-2</v>
+        <v>0.1462599</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -555,7 +555,7 @@
         <v>154</v>
       </c>
       <c r="F4">
-        <v>0.1061315</v>
+        <v>0.12775990000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -575,7 +575,7 @@
         <v>154</v>
       </c>
       <c r="F5">
-        <v>0.1030681999999998</v>
+        <v>0.1595635</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -595,7 +595,7 @@
         <v>56</v>
       </c>
       <c r="F6">
-        <v>3.6196399999999913E-2</v>
+        <v>6.9439500000000098E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -615,7 +615,7 @@
         <v>1099</v>
       </c>
       <c r="F7">
-        <v>0.56552130000000012</v>
+        <v>1.3343594999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -635,7 +635,7 @@
         <v>1099</v>
       </c>
       <c r="F8">
-        <v>0.69718249999999982</v>
+        <v>0.97009610000000013</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -655,7 +655,7 @@
         <v>1579</v>
       </c>
       <c r="F9">
-        <v>0.86115439999999976</v>
+        <v>1.6190456000000011</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -672,10 +672,10 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>722</v>
+        <v>854</v>
       </c>
       <c r="F10">
-        <v>0.40519859999999991</v>
+        <v>0.77449499999999993</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -695,7 +695,7 @@
         <v>2790</v>
       </c>
       <c r="F11">
-        <v>1.5804802</v>
+        <v>2.3168172999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -715,7 +715,7 @@
         <v>63</v>
       </c>
       <c r="F12">
-        <v>5.5924799999999657E-2</v>
+        <v>8.1053400000000053E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -735,7 +735,7 @@
         <v>63</v>
       </c>
       <c r="F13">
-        <v>3.6978099999999792E-2</v>
+        <v>7.9583699999998814E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -755,7 +755,7 @@
         <v>63</v>
       </c>
       <c r="F14">
-        <v>3.6272999999999563E-2</v>
+        <v>7.1860499999999661E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -769,13 +769,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F15">
-        <v>4.3482000000000021E-2</v>
+        <v>9.1337100000000504E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -795,7 +795,7 @@
         <v>1370</v>
       </c>
       <c r="F16">
-        <v>0.74852200000000035</v>
+        <v>1.3550226000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -815,7 +815,7 @@
         <v>1370</v>
       </c>
       <c r="F17">
-        <v>0.75017529999999955</v>
+        <v>1.7820490000000011</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -835,7 +835,7 @@
         <v>542</v>
       </c>
       <c r="F18">
-        <v>0.32076599999999988</v>
+        <v>0.52851689999999962</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -852,10 +852,10 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="F19">
-        <v>0.31358649999999949</v>
+        <v>0.46048419999999979</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -875,7 +875,7 @@
         <v>774</v>
       </c>
       <c r="F20">
-        <v>0.26760550000000022</v>
+        <v>0.46651130000000052</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -895,7 +895,7 @@
         <v>243</v>
       </c>
       <c r="F21">
-        <v>0.1039372999999983</v>
+        <v>0.14347129999999991</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -915,7 +915,7 @@
         <v>243</v>
       </c>
       <c r="F22">
-        <v>7.9175099999998722E-2</v>
+        <v>0.1331331000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -935,7 +935,7 @@
         <v>243</v>
       </c>
       <c r="F23">
-        <v>7.6324200000000175E-2</v>
+        <v>0.1399191999999996</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -949,13 +949,13 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F24">
-        <v>0.1063141999999999</v>
+        <v>0.39505770000000062</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -975,7 +975,7 @@
         <v>559</v>
       </c>
       <c r="F25">
-        <v>0.2135851000000013</v>
+        <v>0.42050500000000041</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -995,7 +995,7 @@
         <v>559</v>
       </c>
       <c r="F26">
-        <v>0.2204903999999992</v>
+        <v>0.34031270000000008</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1015,7 +1015,7 @@
         <v>675</v>
       </c>
       <c r="F27">
-        <v>0.25006789999999951</v>
+        <v>0.44533840000000069</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1032,10 +1032,10 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F28">
-        <v>0.19938740000000091</v>
+        <v>0.37042609999999948</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1055,7 +1055,7 @@
         <v>351</v>
       </c>
       <c r="F29">
-        <v>0.1506916999999994</v>
+        <v>0.2059131000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1075,7 +1075,7 @@
         <v>219</v>
       </c>
       <c r="F30">
-        <v>0.10655170000000069</v>
+        <v>0.12830789999999939</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1095,7 +1095,7 @@
         <v>219</v>
       </c>
       <c r="F31">
-        <v>7.7244399999999658E-2</v>
+        <v>0.1377906000000024</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1115,7 +1115,7 @@
         <v>219</v>
       </c>
       <c r="F32">
-        <v>8.0688699999999614E-2</v>
+        <v>0.12667779999999951</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1135,7 +1135,7 @@
         <v>61</v>
       </c>
       <c r="F33">
-        <v>3.3495900000000127E-2</v>
+        <v>3.9754300000002019E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1155,7 +1155,7 @@
         <v>187</v>
       </c>
       <c r="F34">
-        <v>8.6436599999998975E-2</v>
+        <v>0.1417149000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1175,7 +1175,7 @@
         <v>187</v>
       </c>
       <c r="F35">
-        <v>7.7372699999999739E-2</v>
+        <v>0.13531479999999971</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1195,7 +1195,7 @@
         <v>167</v>
       </c>
       <c r="F36">
-        <v>8.4580499999999503E-2</v>
+        <v>0.1163559999999997</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1215,7 +1215,7 @@
         <v>171</v>
       </c>
       <c r="F37">
-        <v>9.5639200000000812E-2</v>
+        <v>0.13024019999999939</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1235,7 +1235,7 @@
         <v>2024</v>
       </c>
       <c r="F38">
-        <v>0.98992460000000015</v>
+        <v>1.8592668999999979</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1255,7 +1255,7 @@
         <v>187</v>
       </c>
       <c r="F39">
-        <v>0.1229607000000001</v>
+        <v>0.183352499999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1275,7 +1275,7 @@
         <v>187</v>
       </c>
       <c r="F40">
-        <v>0.11125200000000041</v>
+        <v>0.18751419999999899</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1295,7 +1295,7 @@
         <v>187</v>
       </c>
       <c r="F41">
-        <v>0.13386309999999921</v>
+        <v>0.2246483999999995</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1309,13 +1309,13 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F42">
-        <v>3.3462999999999347E-2</v>
+        <v>0.1120990000000006</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1335,7 +1335,7 @@
         <v>1223</v>
       </c>
       <c r="F43">
-        <v>0.73335989999999995</v>
+        <v>1.3997467999999991</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1355,7 +1355,7 @@
         <v>1223</v>
       </c>
       <c r="F44">
-        <v>0.71759889999999871</v>
+        <v>1.285218700000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1375,7 +1375,7 @@
         <v>106</v>
       </c>
       <c r="F45">
-        <v>8.2193099999999575E-2</v>
+        <v>0.14890570000000031</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1392,10 +1392,10 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>510</v>
+        <v>303</v>
       </c>
       <c r="F46">
-        <v>0.31719259999999849</v>
+        <v>0.36265389999999798</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1415,7 +1415,7 @@
         <v>1550</v>
       </c>
       <c r="F47">
-        <v>0.72619210000000045</v>
+        <v>1.3862176000000019</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -1435,7 +1435,7 @@
         <v>78</v>
       </c>
       <c r="F48">
-        <v>4.7873400000000288E-2</v>
+        <v>8.4486399999999406E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -1455,7 +1455,7 @@
         <v>78</v>
       </c>
       <c r="F49">
-        <v>5.4665299999999917E-2</v>
+        <v>0.11177239999999949</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -1475,7 +1475,7 @@
         <v>78</v>
       </c>
       <c r="F50">
-        <v>4.6333999999999882E-2</v>
+        <v>9.4928700000000532E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1489,13 +1489,13 @@
         <v>13</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>67</v>
       </c>
       <c r="F51">
-        <v>4.572360000000053E-2</v>
+        <v>7.8907699999998471E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -1515,7 +1515,7 @@
         <v>1090</v>
       </c>
       <c r="F52">
-        <v>0.59759000000000029</v>
+        <v>1.1923903</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -1535,7 +1535,7 @@
         <v>1090</v>
       </c>
       <c r="F53">
-        <v>0.62796740000000106</v>
+        <v>1.160709399999998</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -1555,7 +1555,7 @@
         <v>586</v>
       </c>
       <c r="F54">
-        <v>0.35142659999999992</v>
+        <v>0.71604779999999835</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -1569,13 +1569,13 @@
         <v>13</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>679</v>
+        <v>1924</v>
       </c>
       <c r="F55">
-        <v>0.45611800000000002</v>
+        <v>2.252335599999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -1595,7 +1595,7 @@
         <v>4300</v>
       </c>
       <c r="F56">
-        <v>2.025151000000001</v>
+        <v>3.8064830000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -1615,7 +1615,7 @@
         <v>1023</v>
       </c>
       <c r="F57">
-        <v>0.45968989999999721</v>
+        <v>1.0618085999999991</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -1635,7 +1635,7 @@
         <v>1023</v>
       </c>
       <c r="F58">
-        <v>0.45247349999999997</v>
+        <v>0.84752650000000074</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -1655,7 +1655,7 @@
         <v>1023</v>
       </c>
       <c r="F59">
-        <v>0.45101199999999858</v>
+        <v>0.97463439999999935</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -1669,13 +1669,13 @@
         <v>13</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60">
-        <v>613</v>
+        <v>721</v>
       </c>
       <c r="F60">
-        <v>0.32382089999999758</v>
+        <v>0.70863260000000139</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -1695,7 +1695,7 @@
         <v>2564</v>
       </c>
       <c r="F61">
-        <v>1.292650399999999</v>
+        <v>2.2747627999999982</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -1715,7 +1715,7 @@
         <v>2564</v>
       </c>
       <c r="F62">
-        <v>1.264142100000001</v>
+        <v>2.515118900000004</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -1735,7 +1735,7 @@
         <v>3663</v>
       </c>
       <c r="F63">
-        <v>1.704948900000002</v>
+        <v>3.1041460000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -1752,10 +1752,10 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>2612</v>
+        <v>3026</v>
       </c>
       <c r="F64">
-        <v>1.4578929000000009</v>
+        <v>2.837787499999997</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -1775,7 +1775,7 @@
         <v>951</v>
       </c>
       <c r="F65">
-        <v>0.35168890000000269</v>
+        <v>0.71788180000000068</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -1795,7 +1795,7 @@
         <v>118</v>
       </c>
       <c r="F66">
-        <v>6.176839999999828E-2</v>
+        <v>0.1105355999999986</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -1815,7 +1815,7 @@
         <v>118</v>
       </c>
       <c r="F67">
-        <v>6.1979000000000888E-2</v>
+        <v>0.12816249999999479</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -1835,7 +1835,7 @@
         <v>118</v>
       </c>
       <c r="F68">
-        <v>7.0474699999998336E-2</v>
+        <v>0.10009850000000139</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -1849,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F69">
-        <v>4.532999999999987E-2</v>
+        <v>8.2702799999999854E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -1875,7 +1875,7 @@
         <v>1730</v>
       </c>
       <c r="F70">
-        <v>0.78459140000000005</v>
+        <v>1.5136118000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -1895,7 +1895,7 @@
         <v>1730</v>
       </c>
       <c r="F71">
-        <v>0.73741850000000042</v>
+        <v>1.5840307999999941</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -1915,7 +1915,7 @@
         <v>371</v>
       </c>
       <c r="F72">
-        <v>0.1979935000000026</v>
+        <v>0.35926179999999869</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -1932,10 +1932,10 @@
         <v>12</v>
       </c>
       <c r="E73">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F73">
-        <v>0.446656100000002</v>
+        <v>0.95947830000000067</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -1955,7 +1955,7 @@
         <v>689</v>
       </c>
       <c r="F74">
-        <v>0.29331609999999841</v>
+        <v>0.61394199999999444</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -1975,7 +1975,7 @@
         <v>190</v>
       </c>
       <c r="F75">
-        <v>9.7598800000000097E-2</v>
+        <v>0.18412450000000291</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -1995,7 +1995,7 @@
         <v>190</v>
       </c>
       <c r="F76">
-        <v>0.11015060000000081</v>
+        <v>0.17573079999999661</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -2015,7 +2015,7 @@
         <v>190</v>
       </c>
       <c r="F77">
-        <v>9.4548100000000801E-2</v>
+        <v>0.18893410000000441</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2035,7 +2035,7 @@
         <v>91</v>
       </c>
       <c r="F78">
-        <v>5.4213900000000592E-2</v>
+        <v>8.135769999999809E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -2055,7 +2055,7 @@
         <v>635</v>
       </c>
       <c r="F79">
-        <v>0.28526210000000057</v>
+        <v>0.58056400000000252</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2075,7 +2075,7 @@
         <v>635</v>
       </c>
       <c r="F80">
-        <v>0.29960159999999902</v>
+        <v>0.55665270000000078</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2095,7 +2095,7 @@
         <v>345</v>
       </c>
       <c r="F81">
-        <v>0.17185519999999949</v>
+        <v>0.34745840000000072</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -2112,10 +2112,10 @@
         <v>12</v>
       </c>
       <c r="E82">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="F82">
-        <v>0.19940910000000039</v>
+        <v>0.3145403999999985</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -2135,7 +2135,7 @@
         <v>1959</v>
       </c>
       <c r="F83">
-        <v>0.90278520000000029</v>
+        <v>1.674314500000001</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -2155,7 +2155,7 @@
         <v>531</v>
       </c>
       <c r="F84">
-        <v>0.27541389999999671</v>
+        <v>0.43953900000000351</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -2175,7 +2175,7 @@
         <v>531</v>
       </c>
       <c r="F85">
-        <v>0.32720820000000123</v>
+        <v>0.501103999999998</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -2195,7 +2195,7 @@
         <v>531</v>
       </c>
       <c r="F86">
-        <v>0.25474230000000381</v>
+        <v>0.55626939999999792</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -2209,13 +2209,13 @@
         <v>13</v>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>257</v>
+        <v>984</v>
       </c>
       <c r="F87">
-        <v>0.12568290000000101</v>
+        <v>0.95819850000000173</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -2235,7 +2235,7 @@
         <v>1517</v>
       </c>
       <c r="F88">
-        <v>0.69635720000000134</v>
+        <v>1.4771424000000051</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -2255,7 +2255,7 @@
         <v>1517</v>
       </c>
       <c r="F89">
-        <v>0.7370943999999966</v>
+        <v>2.0777338999999979</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -2275,7 +2275,7 @@
         <v>1421</v>
       </c>
       <c r="F90">
-        <v>0.73231919999999917</v>
+        <v>1.6375780000000051</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -2292,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="F91">
-        <v>0.71269579999999877</v>
+        <v>1.958490799999993</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -2315,7 +2315,7 @@
         <v>5764</v>
       </c>
       <c r="F92">
-        <v>3.081654800000003</v>
+        <v>5.6448760999999914</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -2335,7 +2335,7 @@
         <v>920</v>
       </c>
       <c r="F93">
-        <v>0.63757329999999968</v>
+        <v>0.92476620000000764</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -2355,7 +2355,7 @@
         <v>920</v>
       </c>
       <c r="F94">
-        <v>0.52713779999999844</v>
+        <v>1.056174800000008</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -2375,7 +2375,7 @@
         <v>920</v>
       </c>
       <c r="F95">
-        <v>0.49051579999999723</v>
+        <v>0.87638119999999731</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -2389,13 +2389,13 @@
         <v>13</v>
       </c>
       <c r="D96">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E96">
-        <v>569</v>
+        <v>390</v>
       </c>
       <c r="F96">
-        <v>0.31795130000000432</v>
+        <v>0.44407650000000842</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -2415,7 +2415,7 @@
         <v>6583</v>
       </c>
       <c r="F97">
-        <v>4.0218625999999986</v>
+        <v>9.8288102000000066</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -2435,7 +2435,7 @@
         <v>6583</v>
       </c>
       <c r="F98">
-        <v>4.1822839000000016</v>
+        <v>7.3521293999999946</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -2455,7 +2455,7 @@
         <v>16142</v>
       </c>
       <c r="F99">
-        <v>10.648664999999999</v>
+        <v>18.665054500000011</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -2469,13 +2469,13 @@
         <v>13</v>
       </c>
       <c r="D100">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100">
-        <v>7067</v>
+        <v>7458</v>
       </c>
       <c r="F100">
-        <v>4.8410647999999981</v>
+        <v>16.649154200000002</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -2495,7 +2495,7 @@
         <v>1737</v>
       </c>
       <c r="F101">
-        <v>1.1111386999999979</v>
+        <v>1.3639422999999911</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
@@ -2515,7 +2515,7 @@
         <v>903</v>
       </c>
       <c r="F102">
-        <v>0.40187860000000342</v>
+        <v>0.70857460000001993</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
@@ -2535,7 +2535,7 @@
         <v>903</v>
       </c>
       <c r="F103">
-        <v>0.40404469999999998</v>
+        <v>0.77398660000000064</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -2555,7 +2555,7 @@
         <v>903</v>
       </c>
       <c r="F104">
-        <v>0.51715550000000121</v>
+        <v>0.83163270000000011</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -2569,13 +2569,13 @@
         <v>13</v>
       </c>
       <c r="D105">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E105">
-        <v>571</v>
+        <v>242</v>
       </c>
       <c r="F105">
-        <v>0.26377670000000819</v>
+        <v>0.2397339000000045</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
@@ -2595,7 +2595,7 @@
         <v>1897</v>
       </c>
       <c r="F106">
-        <v>0.86072080000000994</v>
+        <v>1.661185100000012</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -2615,7 +2615,7 @@
         <v>1897</v>
       </c>
       <c r="F107">
-        <v>0.91488819999999293</v>
+        <v>1.6945819999999969</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -2635,7 +2635,7 @@
         <v>2366</v>
       </c>
       <c r="F108">
-        <v>1.0763699000000031</v>
+        <v>2.1450892999999951</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -2652,10 +2652,10 @@
         <v>25</v>
       </c>
       <c r="E109">
-        <v>1845</v>
+        <v>1923</v>
       </c>
       <c r="F109">
-        <v>0.9178260999999992</v>
+        <v>1.687370700000002</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
@@ -2675,7 +2675,7 @@
         <v>2731</v>
       </c>
       <c r="F110">
-        <v>1.420889100000011</v>
+        <v>2.2960622000000228</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -2695,7 +2695,7 @@
         <v>1897</v>
       </c>
       <c r="F111">
-        <v>1.1099754000000099</v>
+        <v>1.6741924000000099</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -2715,7 +2715,7 @@
         <v>1897</v>
       </c>
       <c r="F112">
-        <v>1.174445599999999</v>
+        <v>1.7227468000000099</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -2735,7 +2735,7 @@
         <v>1897</v>
       </c>
       <c r="F113">
-        <v>1.0362353000000011</v>
+        <v>1.740361699999994</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -2749,13 +2749,13 @@
         <v>13</v>
       </c>
       <c r="D114">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E114">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="F114">
-        <v>1.1363611999999961</v>
+        <v>1.8058095000000089</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -2775,7 +2775,7 @@
         <v>2858</v>
       </c>
       <c r="F115">
-        <v>1.681246400000006</v>
+        <v>2.70939229999999</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
@@ -2795,7 +2795,7 @@
         <v>2858</v>
       </c>
       <c r="F116">
-        <v>1.5511692000000039</v>
+        <v>2.7186509000000001</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -2815,7 +2815,7 @@
         <v>3594</v>
       </c>
       <c r="F117">
-        <v>2.2852112000000062</v>
+        <v>4.2126015999999993</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -2832,10 +2832,10 @@
         <v>25</v>
       </c>
       <c r="E118">
-        <v>3073</v>
+        <v>3474</v>
       </c>
       <c r="F118">
-        <v>1.946980800000006</v>
+        <v>4.624869799999999</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -2855,7 +2855,7 @@
         <v>2188</v>
       </c>
       <c r="F119">
-        <v>0.91414170000000183</v>
+        <v>1.7255654999999881</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -2875,7 +2875,7 @@
         <v>938</v>
       </c>
       <c r="F120">
-        <v>0.45268219999999809</v>
+        <v>0.75825220000001536</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -2895,7 +2895,7 @@
         <v>938</v>
       </c>
       <c r="F121">
-        <v>0.4465124999999972</v>
+        <v>0.69422480000000064</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -2915,7 +2915,7 @@
         <v>938</v>
       </c>
       <c r="F122">
-        <v>0.49303919999999829</v>
+        <v>0.82921890000000076</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
@@ -2929,13 +2929,13 @@
         <v>13</v>
       </c>
       <c r="D123">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E123">
-        <v>1040</v>
+        <v>1248</v>
       </c>
       <c r="F123">
-        <v>0.4858058000000085</v>
+        <v>1.081957099999983</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -2955,7 +2955,7 @@
         <v>2332</v>
       </c>
       <c r="F124">
-        <v>1.0873681000000059</v>
+        <v>2.0013770999999849</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -2975,7 +2975,7 @@
         <v>2332</v>
       </c>
       <c r="F125">
-        <v>1.0698459999999981</v>
+        <v>1.9415576000000101</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
@@ -2995,7 +2995,7 @@
         <v>2897</v>
       </c>
       <c r="F126">
-        <v>1.3994178999999889</v>
+        <v>2.3345777999999768</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -3009,13 +3009,13 @@
         <v>13</v>
       </c>
       <c r="D127">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>2252</v>
+        <v>2624</v>
       </c>
       <c r="F127">
-        <v>1.165849900000012</v>
+        <v>2.4357730999999769</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -3035,7 +3035,7 @@
         <v>2549</v>
       </c>
       <c r="F128">
-        <v>1.0271977999999959</v>
+        <v>1.8874306000000161</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -3055,7 +3055,7 @@
         <v>1538</v>
       </c>
       <c r="F129">
-        <v>0.68034469999999203</v>
+        <v>1.185891200000015</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -3075,7 +3075,7 @@
         <v>1538</v>
       </c>
       <c r="F130">
-        <v>0.62762290000000576</v>
+        <v>1.196818499999978</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
@@ -3095,7 +3095,7 @@
         <v>1538</v>
       </c>
       <c r="F131">
-        <v>0.62385730000001161</v>
+        <v>1.1618458000000089</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -3109,13 +3109,13 @@
         <v>13</v>
       </c>
       <c r="D132">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E132">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="F132">
-        <v>0.63183650000000569</v>
+        <v>1.1421339999999991</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -3135,7 +3135,7 @@
         <v>2043</v>
       </c>
       <c r="F133">
-        <v>0.89506180000000768</v>
+        <v>1.690713899999992</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -3155,7 +3155,7 @@
         <v>2043</v>
       </c>
       <c r="F134">
-        <v>0.92817120000000841</v>
+        <v>1.632926200000014</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -3175,7 +3175,7 @@
         <v>1825</v>
       </c>
       <c r="F135">
-        <v>0.82547189999999659</v>
+        <v>1.5329823000000149</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -3192,10 +3192,10 @@
         <v>25</v>
       </c>
       <c r="E136">
-        <v>1690</v>
+        <v>1577</v>
       </c>
       <c r="F136">
-        <v>0.80172540000000936</v>
+        <v>1.362173000000013</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
@@ -3215,7 +3215,7 @@
         <v>2249</v>
       </c>
       <c r="F137">
-        <v>1.117109599999992</v>
+        <v>2.0210065999999931</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -3235,7 +3235,7 @@
         <v>409</v>
       </c>
       <c r="F138">
-        <v>0.22033119999998971</v>
+        <v>0.35790920000002302</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -3255,7 +3255,7 @@
         <v>409</v>
       </c>
       <c r="F139">
-        <v>0.22190190000000601</v>
+        <v>0.39346849999998312</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -3275,7 +3275,7 @@
         <v>409</v>
       </c>
       <c r="F140">
-        <v>0.23357459999999719</v>
+        <v>0.36076840000001198</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -3289,13 +3289,13 @@
         <v>13</v>
       </c>
       <c r="D141">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E141">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="F141">
-        <v>0.1055750999999958</v>
+        <v>0.27987369999999601</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -3315,7 +3315,7 @@
         <v>1666</v>
       </c>
       <c r="F142">
-        <v>1.0024625000000069</v>
+        <v>1.731869499999988</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
@@ -3335,7 +3335,7 @@
         <v>1666</v>
       </c>
       <c r="F143">
-        <v>0.9858574999999945</v>
+        <v>1.696156000000002</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
@@ -3355,7 +3355,7 @@
         <v>761</v>
       </c>
       <c r="F144">
-        <v>0.46631399999999701</v>
+        <v>0.83307379999999398</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -3372,10 +3372,10 @@
         <v>26</v>
       </c>
       <c r="E145">
-        <v>1719</v>
+        <v>1115</v>
       </c>
       <c r="F145">
-        <v>1.0758383000000009</v>
+        <v>1.1868492999999769</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -3395,7 +3395,7 @@
         <v>9892</v>
       </c>
       <c r="F146">
-        <v>5.1534237000000047</v>
+        <v>8.6950432999999805</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -3415,7 +3415,7 @@
         <v>4541</v>
       </c>
       <c r="F147">
-        <v>2.6905138999999991</v>
+        <v>4.3560871999999904</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -3435,7 +3435,7 @@
         <v>4541</v>
       </c>
       <c r="F148">
-        <v>2.4962941999999941</v>
+        <v>4.2682371999999873</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
@@ -3455,7 +3455,7 @@
         <v>4541</v>
       </c>
       <c r="F149">
-        <v>2.5859276999999992</v>
+        <v>5.7588154999999972</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -3469,13 +3469,13 @@
         <v>13</v>
       </c>
       <c r="D150">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E150">
-        <v>4309</v>
+        <v>4179</v>
       </c>
       <c r="F150">
-        <v>2.5431488999999909</v>
+        <v>4.160273200000006</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -3495,7 +3495,7 @@
         <v>10490</v>
       </c>
       <c r="F151">
-        <v>6.4282663999999841</v>
+        <v>9.9676042000000109</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -3515,7 +3515,7 @@
         <v>10490</v>
       </c>
       <c r="F152">
-        <v>6.3585822999999948</v>
+        <v>10.556374099999999</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
@@ -3535,7 +3535,7 @@
         <v>7903</v>
       </c>
       <c r="F153">
-        <v>5.001206499999995</v>
+        <v>7.625103700000011</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -3549,13 +3549,13 @@
         <v>13</v>
       </c>
       <c r="D154">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154">
-        <v>7934</v>
+        <v>8628</v>
       </c>
       <c r="F154">
-        <v>5.2000440000000197</v>
+        <v>8.7456889000000047</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
@@ -3575,7 +3575,7 @@
         <v>2556</v>
       </c>
       <c r="F155">
-        <v>1.273455499999983</v>
+        <v>1.940546799999993</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
@@ -3595,7 +3595,7 @@
         <v>1889</v>
       </c>
       <c r="F156">
-        <v>0.94017089999999826</v>
+        <v>1.524075100000005</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
@@ -3615,7 +3615,7 @@
         <v>1889</v>
       </c>
       <c r="F157">
-        <v>0.95093459999998231</v>
+        <v>1.497705600000018</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
@@ -3635,7 +3635,7 @@
         <v>1889</v>
       </c>
       <c r="F158">
-        <v>0.96443930000000933</v>
+        <v>1.5336965000000189</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -3649,13 +3649,13 @@
         <v>13</v>
       </c>
       <c r="D159">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E159">
-        <v>1938</v>
+        <v>2196</v>
       </c>
       <c r="F159">
-        <v>1.0454513999999899</v>
+        <v>1.88076609999996</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -3675,7 +3675,7 @@
         <v>2995</v>
       </c>
       <c r="F160">
-        <v>1.633592000000021</v>
+        <v>2.4353373000000151</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
@@ -3695,7 +3695,7 @@
         <v>2995</v>
       </c>
       <c r="F161">
-        <v>1.815087000000005</v>
+        <v>2.6561998999999901</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -3715,7 +3715,7 @@
         <v>4245</v>
       </c>
       <c r="F162">
-        <v>2.2475488000000041</v>
+        <v>3.4542202000000088</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -3732,10 +3732,10 @@
         <v>26</v>
       </c>
       <c r="E163">
-        <v>3286</v>
+        <v>3075</v>
       </c>
       <c r="F163">
-        <v>1.836630999999983</v>
+        <v>2.791980500000022</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -3755,7 +3755,7 @@
         <v>70</v>
       </c>
       <c r="F164">
-        <v>4.0557500000005582E-2</v>
+        <v>4.4864599999982602E-2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -3775,7 +3775,7 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>2.315939999999728E-2</v>
+        <v>3.3547300000009272E-2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -3795,7 +3795,7 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>2.4800799999979969E-2</v>
+        <v>3.6403000000007069E-2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
@@ -3815,7 +3815,7 @@
         <v>70</v>
       </c>
       <c r="F167">
-        <v>1.8756400000000891E-2</v>
+        <v>3.4107899999980873E-2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -3832,10 +3832,10 @@
         <v>29</v>
       </c>
       <c r="E168">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F168">
-        <v>2.1269799999998899E-2</v>
+        <v>3.223209999998744E-2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -3855,7 +3855,7 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>2.441260000000511E-2</v>
+        <v>3.6120600000003833E-2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -3875,7 +3875,7 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>2.6567799999980931E-2</v>
+        <v>3.9009299999975162E-2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
@@ -3895,7 +3895,7 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>2.4552999999997379E-2</v>
+        <v>8.9232399999957579E-2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -3915,7 +3915,7 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>2.4839300000024881E-2</v>
+        <v>3.5576399999968089E-2</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -3935,7 +3935,7 @@
         <v>4916</v>
       </c>
       <c r="F173">
-        <v>2.665881000000013</v>
+        <v>4.1381097000000304</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -3955,7 +3955,7 @@
         <v>1424</v>
       </c>
       <c r="F174">
-        <v>0.96867670000000317</v>
+        <v>1.4918273000000111</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -3975,7 +3975,7 @@
         <v>1424</v>
       </c>
       <c r="F175">
-        <v>0.88509270000000129</v>
+        <v>1.482009000000005</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -3995,7 +3995,7 @@
         <v>1424</v>
       </c>
       <c r="F176">
-        <v>0.88218770000000291</v>
+        <v>1.3460304000000181</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -4009,13 +4009,13 @@
         <v>13</v>
       </c>
       <c r="D177">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E177">
-        <v>1855</v>
+        <v>2309</v>
       </c>
       <c r="F177">
-        <v>1.176826000000005</v>
+        <v>2.341668699999957</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -4035,7 +4035,7 @@
         <v>4742</v>
       </c>
       <c r="F178">
-        <v>2.9983478999999988</v>
+        <v>4.9560677000000064</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -4055,7 +4055,7 @@
         <v>4742</v>
       </c>
       <c r="F179">
-        <v>2.8621098000000131</v>
+        <v>4.7738877999999536</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -4075,7 +4075,7 @@
         <v>4476</v>
       </c>
       <c r="F180">
-        <v>2.7484062999999992</v>
+        <v>4.3440978000000428</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -4092,10 +4092,10 @@
         <v>28</v>
       </c>
       <c r="E181">
-        <v>4870</v>
+        <v>5221</v>
       </c>
       <c r="F181">
-        <v>4.613472900000005</v>
+        <v>5.2539127000000008</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -4115,7 +4115,7 @@
         <v>825</v>
       </c>
       <c r="F182">
-        <v>0.44928749999999701</v>
+        <v>0.5154215000000022</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -4135,7 +4135,7 @@
         <v>475</v>
       </c>
       <c r="F183">
-        <v>0.19779529999999571</v>
+        <v>0.36922799999996408</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -4155,7 +4155,7 @@
         <v>475</v>
       </c>
       <c r="F184">
-        <v>0.25161540000001992</v>
+        <v>0.27841829999999851</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -4175,7 +4175,7 @@
         <v>475</v>
       </c>
       <c r="F185">
-        <v>0.22262810000000849</v>
+        <v>0.29165059999996862</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -4189,13 +4189,13 @@
         <v>13</v>
       </c>
       <c r="D186">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E186">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="F186">
-        <v>0.2356417000000022</v>
+        <v>0.32209600000004462</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -4215,7 +4215,7 @@
         <v>836</v>
       </c>
       <c r="F187">
-        <v>0.43849140000000381</v>
+        <v>0.62530520000001388</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -4235,7 +4235,7 @@
         <v>836</v>
       </c>
       <c r="F188">
-        <v>0.44343890000001812</v>
+        <v>0.5647946999999931</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -4255,7 +4255,7 @@
         <v>840</v>
       </c>
       <c r="F189">
-        <v>0.45587650000001639</v>
+        <v>0.55824349999994638</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -4272,10 +4272,10 @@
         <v>25</v>
       </c>
       <c r="E190">
-        <v>826</v>
+        <v>760</v>
       </c>
       <c r="F190">
-        <v>0.3999388999999951</v>
+        <v>0.59442519999998922</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
@@ -4295,7 +4295,7 @@
         <v>1268</v>
       </c>
       <c r="F191">
-        <v>0.51897119999998154</v>
+        <v>0.88259780000004184</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -4315,7 +4315,7 @@
         <v>317</v>
       </c>
       <c r="F192">
-        <v>0.16547529999999711</v>
+        <v>0.25696959999999081</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -4335,7 +4335,7 @@
         <v>317</v>
       </c>
       <c r="F193">
-        <v>0.1596790000000112</v>
+        <v>0.20970330000000101</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -4355,7 +4355,7 @@
         <v>317</v>
       </c>
       <c r="F194">
-        <v>0.15283349999998561</v>
+        <v>0.22887889999998379</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -4369,13 +4369,13 @@
         <v>13</v>
       </c>
       <c r="D195">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F195">
-        <v>0.1922691000000043</v>
+        <v>0.22211090000001829</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -4395,7 +4395,7 @@
         <v>852</v>
       </c>
       <c r="F196">
-        <v>0.41081370000000561</v>
+        <v>0.65730590000003986</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -4415,7 +4415,7 @@
         <v>852</v>
       </c>
       <c r="F197">
-        <v>0.42703129999998168</v>
+        <v>0.63384400000001051</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -4435,7 +4435,7 @@
         <v>939</v>
       </c>
       <c r="F198">
-        <v>0.4571860000000072</v>
+        <v>0.75478659999998854</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -4452,10 +4452,10 @@
         <v>17</v>
       </c>
       <c r="E199">
-        <v>783</v>
+        <v>824</v>
       </c>
       <c r="F199">
-        <v>0.44023200000000878</v>
+        <v>0.68979020000000446</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -4475,7 +4475,7 @@
         <v>8302</v>
       </c>
       <c r="F200">
-        <v>4.6765606999999818</v>
+        <v>7.0396746999999777</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -4495,7 +4495,7 @@
         <v>1934</v>
       </c>
       <c r="F201">
-        <v>1.3074000999999951</v>
+        <v>1.900050499999963</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -4515,7 +4515,7 @@
         <v>1934</v>
       </c>
       <c r="F202">
-        <v>1.1467665999999781</v>
+        <v>1.8826229999999671</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
@@ -4535,7 +4535,7 @@
         <v>1934</v>
       </c>
       <c r="F203">
-        <v>1.2333007000000009</v>
+        <v>1.8935650999999889</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -4549,13 +4549,13 @@
         <v>13</v>
       </c>
       <c r="D204">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E204">
-        <v>1771</v>
+        <v>1404</v>
       </c>
       <c r="F204">
-        <v>1.0653590999999949</v>
+        <v>1.624752599999965</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -4575,7 +4575,7 @@
         <v>4463</v>
       </c>
       <c r="F205">
-        <v>2.853462799999988</v>
+        <v>4.4564248000000362</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -4595,7 +4595,7 @@
         <v>4463</v>
       </c>
       <c r="F206">
-        <v>2.8353494999999782</v>
+        <v>4.4379106999999749</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -4615,7 +4615,7 @@
         <v>3618</v>
       </c>
       <c r="F207">
-        <v>2.2386792000000071</v>
+        <v>3.6214049000000159</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -4632,10 +4632,10 @@
         <v>16</v>
       </c>
       <c r="E208">
-        <v>4276</v>
+        <v>3874</v>
       </c>
       <c r="F208">
-        <v>2.9578391000000011</v>
+        <v>4.030218399999967</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
@@ -4655,7 +4655,7 @@
         <v>8747</v>
       </c>
       <c r="F209">
-        <v>5.5959215999999969</v>
+        <v>9.4752018000000362</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -4675,7 +4675,7 @@
         <v>5618</v>
       </c>
       <c r="F210">
-        <v>3.887804200000005</v>
+        <v>6.0050271000000066</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -4695,7 +4695,7 @@
         <v>5618</v>
       </c>
       <c r="F211">
-        <v>4.1050943999999836</v>
+        <v>5.8924087999999983</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -4715,7 +4715,7 @@
         <v>5618</v>
       </c>
       <c r="F212">
-        <v>4.1374529999999936</v>
+        <v>9.4115275999999994</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -4729,13 +4729,13 @@
         <v>13</v>
       </c>
       <c r="D213">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E213">
-        <v>5702</v>
+        <v>5368</v>
       </c>
       <c r="F213">
-        <v>4.2074872999999968</v>
+        <v>7.5758964999999989</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
@@ -4755,7 +4755,7 @@
         <v>6324</v>
       </c>
       <c r="F214">
-        <v>4.5623165000000094</v>
+        <v>7.3249695000000088</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
@@ -4775,7 +4775,7 @@
         <v>6324</v>
       </c>
       <c r="F215">
-        <v>4.3822456000000054</v>
+        <v>7.5692516000000296</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -4795,7 +4795,7 @@
         <v>22459</v>
       </c>
       <c r="F216">
-        <v>29.901823699999991</v>
+        <v>27.58139999999997</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -4812,10 +4812,10 @@
         <v>17</v>
       </c>
       <c r="E217">
-        <v>4530</v>
+        <v>4515</v>
       </c>
       <c r="F217">
-        <v>5.9216494000000353</v>
+        <v>6.1715690999999993</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -4835,7 +4835,7 @@
         <v>525</v>
       </c>
       <c r="F218">
-        <v>0.4106366000000321</v>
+        <v>0.47137839999999193</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -4855,7 +4855,7 @@
         <v>400</v>
       </c>
       <c r="F219">
-        <v>0.31464019999998533</v>
+        <v>0.31869289999997358</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -4875,7 +4875,7 @@
         <v>400</v>
       </c>
       <c r="F220">
-        <v>0.31308530000001161</v>
+        <v>0.34899780000000652</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -4895,7 +4895,7 @@
         <v>400</v>
       </c>
       <c r="F221">
-        <v>0.30064609999999448</v>
+        <v>0.27516730000002099</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -4909,13 +4909,13 @@
         <v>13</v>
       </c>
       <c r="D222">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="F222">
-        <v>0.30619190000004443</v>
+        <v>0.2558217000000127</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
@@ -4935,7 +4935,7 @@
         <v>541</v>
       </c>
       <c r="F223">
-        <v>0.45443120000004461</v>
+        <v>0.80455370000004223</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -4955,7 +4955,7 @@
         <v>541</v>
       </c>
       <c r="F224">
-        <v>0.45989869999999661</v>
+        <v>0.55003030000000308</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
@@ -4975,7 +4975,7 @@
         <v>570</v>
       </c>
       <c r="F225">
-        <v>0.48763239999999541</v>
+        <v>0.49488719999999381</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
@@ -4992,10 +4992,10 @@
         <v>23</v>
       </c>
       <c r="E226">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F226">
-        <v>0.51951209999998582</v>
+        <v>0.46661000000000291</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
@@ -5015,7 +5015,7 @@
         <v>15</v>
       </c>
       <c r="F227">
-        <v>9.3522999999890999E-3</v>
+        <v>8.2914999999843531E-3</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
@@ -5035,7 +5035,7 @@
         <v>12</v>
       </c>
       <c r="F228">
-        <v>5.778700000007575E-3</v>
+        <v>5.1873000000455249E-3</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -5055,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="F229">
-        <v>4.3747999999936837E-3</v>
+        <v>4.3234999999981483E-3</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
@@ -5075,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="F230">
-        <v>4.6504999999683596E-3</v>
+        <v>4.4642000000294502E-3</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
@@ -5095,7 +5095,7 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>4.6059999999670254E-3</v>
+        <v>4.6295999999870219E-3</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
@@ -5115,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="F232">
-        <v>5.870000000015807E-3</v>
+        <v>7.9206999999996697E-3</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
@@ -5135,7 +5135,7 @@
         <v>11</v>
       </c>
       <c r="F233">
-        <v>5.3973000000269167E-3</v>
+        <v>6.8822000000068329E-3</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
@@ -5155,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>5.0078000000439724E-3</v>
+        <v>4.9344999999902939E-3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
@@ -5175,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="F235">
-        <v>4.9566000000140784E-3</v>
+        <v>6.1771999999677973E-3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -5195,7 +5195,7 @@
         <v>56</v>
       </c>
       <c r="F236">
-        <v>5.3413799999987077E-2</v>
+        <v>3.054320000001098E-2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -5215,7 +5215,7 @@
         <v>39</v>
       </c>
       <c r="F237">
-        <v>3.254119999996874E-2</v>
+        <v>4.6691399999986061E-2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -5235,7 +5235,7 @@
         <v>39</v>
       </c>
       <c r="F238">
-        <v>2.9421500000012198E-2</v>
+        <v>3.7689499999999043E-2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
@@ -5255,7 +5255,7 @@
         <v>39</v>
       </c>
       <c r="F239">
-        <v>2.9618900000002672E-2</v>
+        <v>3.857629999998835E-2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -5275,7 +5275,7 @@
         <v>38</v>
       </c>
       <c r="F240">
-        <v>2.9637299999990319E-2</v>
+        <v>3.4896800000012718E-2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -5295,7 +5295,7 @@
         <v>39</v>
       </c>
       <c r="F241">
-        <v>3.1685700000025463E-2</v>
+        <v>2.79552999999737E-2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
@@ -5315,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="F242">
-        <v>3.1044299999962281E-2</v>
+        <v>2.4412299999994499E-2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
@@ -5335,7 +5335,7 @@
         <v>24</v>
       </c>
       <c r="F243">
-        <v>1.8911600000024009E-2</v>
+        <v>2.0451999999977492E-2</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
@@ -5355,7 +5355,7 @@
         <v>30</v>
       </c>
       <c r="F244">
-        <v>2.3375299999997878E-2</v>
+        <v>2.0601699999986071E-2</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
@@ -5375,7 +5375,7 @@
         <v>894</v>
       </c>
       <c r="F245">
-        <v>0.81417690000000675</v>
+        <v>0.77855050000005122</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
@@ -5395,7 +5395,7 @@
         <v>136</v>
       </c>
       <c r="F246">
-        <v>0.13363450000002791</v>
+        <v>0.14660029999998869</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
@@ -5415,7 +5415,7 @@
         <v>136</v>
       </c>
       <c r="F247">
-        <v>0.13423060000002349</v>
+        <v>0.13628719999996969</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
@@ -5435,7 +5435,7 @@
         <v>136</v>
       </c>
       <c r="F248">
-        <v>0.1390701999999919</v>
+        <v>0.13269819999999299</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
@@ -5449,13 +5449,13 @@
         <v>13</v>
       </c>
       <c r="D249">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F249">
-        <v>0.1140339999999469</v>
+        <v>0.1136608000000479</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
@@ -5475,7 +5475,7 @@
         <v>317</v>
       </c>
       <c r="F250">
-        <v>0.31918779999995189</v>
+        <v>0.27706249999999949</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
@@ -5495,7 +5495,7 @@
         <v>317</v>
       </c>
       <c r="F251">
-        <v>0.32641110000002982</v>
+        <v>0.29462770000003502</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
@@ -5515,7 +5515,7 @@
         <v>380</v>
       </c>
       <c r="F252">
-        <v>0.41352150000000171</v>
+        <v>0.34454959999999352</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
@@ -5532,10 +5532,10 @@
         <v>6</v>
       </c>
       <c r="E253">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F253">
-        <v>0.16291879999999989</v>
+        <v>7.7155199999992874E-2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
@@ -5555,7 +5555,7 @@
         <v>284</v>
       </c>
       <c r="F254">
-        <v>0.18786449999998919</v>
+        <v>0.21892049999996741</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
@@ -5575,7 +5575,7 @@
         <v>42</v>
       </c>
       <c r="F255">
-        <v>3.2341599999995203E-2</v>
+        <v>3.7474299999985312E-2</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -5595,7 +5595,7 @@
         <v>42</v>
       </c>
       <c r="F256">
-        <v>3.2085500000050622E-2</v>
+        <v>3.049989999999525E-2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.45">
@@ -5615,7 +5615,7 @@
         <v>42</v>
       </c>
       <c r="F257">
-        <v>3.02827999999522E-2</v>
+        <v>2.8578700000025489E-2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
@@ -5629,13 +5629,13 @@
         <v>13</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E258">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F258">
-        <v>4.015020000002778E-2</v>
+        <v>5.2538700000013698E-2</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
@@ -5655,7 +5655,7 @@
         <v>80</v>
       </c>
       <c r="F259">
-        <v>7.5692800000012994E-2</v>
+        <v>6.2287600000047412E-2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
@@ -5675,7 +5675,7 @@
         <v>80</v>
       </c>
       <c r="F260">
-        <v>7.1088499999973465E-2</v>
+        <v>7.333789999995588E-2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
@@ -5695,7 +5695,7 @@
         <v>65</v>
       </c>
       <c r="F261">
-        <v>5.7445200000017849E-2</v>
+        <v>6.4850599999999758E-2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -5712,10 +5712,10 @@
         <v>7</v>
       </c>
       <c r="E262">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F262">
-        <v>5.1035799999965548E-2</v>
+        <v>6.6274899999996251E-2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
@@ -5735,7 +5735,7 @@
         <v>2387</v>
       </c>
       <c r="F263">
-        <v>2.2386495000000082</v>
+        <v>2.009328799999992</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
@@ -5755,7 +5755,7 @@
         <v>90</v>
       </c>
       <c r="F264">
-        <v>0.1100263000000155</v>
+        <v>9.4952900000009777E-2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
@@ -5775,7 +5775,7 @@
         <v>90</v>
       </c>
       <c r="F265">
-        <v>0.1228887000000327</v>
+        <v>7.8359399999953894E-2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
@@ -5795,7 +5795,7 @@
         <v>90</v>
       </c>
       <c r="F266">
-        <v>0.10468529999997141</v>
+        <v>9.1801900000007208E-2</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.45">
@@ -5815,7 +5815,7 @@
         <v>55</v>
       </c>
       <c r="F267">
-        <v>8.0392700000004425E-2</v>
+        <v>8.3931400000039957E-2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
@@ -5835,7 +5835,7 @@
         <v>365</v>
       </c>
       <c r="F268">
-        <v>0.41991649999999942</v>
+        <v>0.37642909999999569</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
@@ -5855,7 +5855,7 @@
         <v>365</v>
       </c>
       <c r="F269">
-        <v>0.39198559999999821</v>
+        <v>0.44081599999998389</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
@@ -5875,7 +5875,7 @@
         <v>68</v>
       </c>
       <c r="F270">
-        <v>7.1087900000009085E-2</v>
+        <v>7.6777499999991505E-2</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
@@ -5895,7 +5895,7 @@
         <v>98</v>
       </c>
       <c r="F271">
-        <v>0.1180732000000262</v>
+        <v>0.12693150000001199</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
@@ -5915,7 +5915,7 @@
         <v>103</v>
       </c>
       <c r="F272">
-        <v>6.3176699999985431E-2</v>
+        <v>6.2781199999960791E-2</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
@@ -5935,7 +5935,7 @@
         <v>45</v>
       </c>
       <c r="F273">
-        <v>2.6395400000012611E-2</v>
+        <v>3.2813900000007827E-2</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
@@ -5955,7 +5955,7 @@
         <v>45</v>
       </c>
       <c r="F274">
-        <v>2.8461699999979832E-2</v>
+        <v>8.5645699999986391E-2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
@@ -5975,7 +5975,7 @@
         <v>45</v>
       </c>
       <c r="F275">
-        <v>2.9778500000020362E-2</v>
+        <v>3.043579999996382E-2</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.45">
@@ -5992,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F276">
-        <v>3.4881100000006882E-2</v>
+        <v>3.3961099999999078E-2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
@@ -6015,7 +6015,7 @@
         <v>98</v>
       </c>
       <c r="F277">
-        <v>6.3451900000018213E-2</v>
+        <v>0.136080800000002</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.45">
@@ -6035,7 +6035,7 @@
         <v>98</v>
       </c>
       <c r="F278">
-        <v>5.7710699999972803E-2</v>
+        <v>7.070320000002539E-2</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -6055,7 +6055,7 @@
         <v>81</v>
       </c>
       <c r="F279">
-        <v>5.0536500000021078E-2</v>
+        <v>5.9523000000012871E-2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.45">
@@ -6072,10 +6072,10 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F280">
-        <v>5.2142500000002201E-2</v>
+        <v>6.380389999998215E-2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.45">
@@ -6095,7 +6095,7 @@
         <v>4009</v>
       </c>
       <c r="F281">
-        <v>3.9253873999999769</v>
+        <v>4.1380404999999882</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.45">
@@ -6115,7 +6115,7 @@
         <v>270</v>
       </c>
       <c r="F282">
-        <v>0.30380689999998373</v>
+        <v>0.27134890000002088</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.45">
@@ -6135,7 +6135,7 @@
         <v>270</v>
       </c>
       <c r="F283">
-        <v>0.29827820000002703</v>
+        <v>0.25033000000001948</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.45">
@@ -6155,7 +6155,7 @@
         <v>270</v>
       </c>
       <c r="F284">
-        <v>0.31928140000002259</v>
+        <v>0.25013310000002781</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.45">
@@ -6169,13 +6169,13 @@
         <v>13</v>
       </c>
       <c r="D285">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E285">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F285">
-        <v>0.14444720000000191</v>
+        <v>0.1092290999999932</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.45">
@@ -6195,7 +6195,7 @@
         <v>1268</v>
       </c>
       <c r="F286">
-        <v>1.986866799999973</v>
+        <v>1.652506500000015</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.45">
@@ -6215,7 +6215,7 @@
         <v>1268</v>
       </c>
       <c r="F287">
-        <v>1.777033300000028</v>
+        <v>1.6013837000000419</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.45">
@@ -6235,7 +6235,7 @@
         <v>1408</v>
       </c>
       <c r="F288">
-        <v>1.9976291000000399</v>
+        <v>1.857042899999954</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.45">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="E289">
-        <v>543</v>
+        <v>403</v>
       </c>
       <c r="F289">
-        <v>0.84331450000001951</v>
+        <v>0.64020859999999402</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.45">
@@ -6275,7 +6275,7 @@
         <v>146</v>
       </c>
       <c r="F290">
-        <v>9.5803099999955066E-2</v>
+        <v>7.5460700000007819E-2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
@@ -6295,7 +6295,7 @@
         <v>71</v>
       </c>
       <c r="F291">
-        <v>6.8330400000036207E-2</v>
+        <v>4.8254100000008293E-2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.45">
@@ -6315,7 +6315,7 @@
         <v>71</v>
       </c>
       <c r="F292">
-        <v>5.315930000000435E-2</v>
+        <v>4.6629199999983939E-2</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.45">
@@ -6335,7 +6335,7 @@
         <v>71</v>
       </c>
       <c r="F293">
-        <v>5.7123900000021877E-2</v>
+        <v>4.6565699999973731E-2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.45">
@@ -6349,13 +6349,13 @@
         <v>13</v>
       </c>
       <c r="D294">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E294">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F294">
-        <v>5.5081099999995331E-2</v>
+        <v>4.7693499999979849E-2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.45">
@@ -6375,7 +6375,7 @@
         <v>129</v>
       </c>
       <c r="F295">
-        <v>0.1032812000000263</v>
+        <v>7.5412100000050941E-2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.45">
@@ -6395,7 +6395,7 @@
         <v>129</v>
       </c>
       <c r="F296">
-        <v>9.8173499999973046E-2</v>
+        <v>8.4729299999992236E-2</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.45">
@@ -6415,7 +6415,7 @@
         <v>114</v>
       </c>
       <c r="F297">
-        <v>8.7710800000024847E-2</v>
+        <v>8.4567199999980858E-2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.45">
@@ -6432,10 +6432,10 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F298">
-        <v>0.1050682000000052</v>
+        <v>7.9505700000026991E-2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.45">
@@ -6455,7 +6455,7 @@
         <v>603</v>
       </c>
       <c r="F299">
-        <v>0.48998810000000498</v>
+        <v>0.5175310000000195</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.45">
@@ -6475,7 +6475,7 @@
         <v>36</v>
       </c>
       <c r="F300">
-        <v>3.3920700000010129E-2</v>
+        <v>3.0590899999992871E-2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.45">
@@ -6495,7 +6495,7 @@
         <v>36</v>
       </c>
       <c r="F301">
-        <v>3.2341200000018937E-2</v>
+        <v>2.905670000001237E-2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.45">
@@ -6515,7 +6515,7 @@
         <v>36</v>
       </c>
       <c r="F302">
-        <v>5.6453700000020042E-2</v>
+        <v>3.2220199999983379E-2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.45">
@@ -6529,13 +6529,13 @@
         <v>13</v>
       </c>
       <c r="D303">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E303">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F303">
-        <v>0.1139560000000301</v>
+        <v>0.1162810999999806</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.45">
@@ -6555,7 +6555,7 @@
         <v>509</v>
       </c>
       <c r="F304">
-        <v>0.48794939999999087</v>
+        <v>0.51040169999998852</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.45">
@@ -6575,7 +6575,7 @@
         <v>509</v>
       </c>
       <c r="F305">
-        <v>0.43630589999997937</v>
+        <v>0.45900990000001229</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.45">
@@ -6595,7 +6595,7 @@
         <v>183</v>
       </c>
       <c r="F306">
-        <v>0.17926640000001731</v>
+        <v>0.14999639999996359</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.45">
@@ -6615,7 +6615,7 @@
         <v>215</v>
       </c>
       <c r="F307">
-        <v>0.27127400000000529</v>
+        <v>0.20884360000002289</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.45">
@@ -6635,7 +6635,7 @@
         <v>343</v>
       </c>
       <c r="F308">
-        <v>0.30270769999998492</v>
+        <v>0.24860810000001271</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.45">
@@ -6655,7 +6655,7 @@
         <v>138</v>
       </c>
       <c r="F309">
-        <v>0.14482459999999259</v>
+        <v>0.1096977000000265</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.45">
@@ -6675,7 +6675,7 @@
         <v>138</v>
       </c>
       <c r="F310">
-        <v>0.14377079999997019</v>
+        <v>0.1225506999999766</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.45">
@@ -6695,7 +6695,7 @@
         <v>138</v>
       </c>
       <c r="F311">
-        <v>0.1397494999999935</v>
+        <v>9.3696399999998903E-2</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.45">
@@ -6712,10 +6712,10 @@
         <v>13</v>
       </c>
       <c r="E312">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F312">
-        <v>6.8041199999981927E-2</v>
+        <v>4.1471599999965747E-2</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.45">
@@ -6735,7 +6735,7 @@
         <v>340</v>
       </c>
       <c r="F313">
-        <v>0.30608879999999772</v>
+        <v>0.28206579999999798</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
@@ -6755,7 +6755,7 @@
         <v>340</v>
       </c>
       <c r="F314">
-        <v>0.2925043000000187</v>
+        <v>0.26835739999995673</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.45">
@@ -6775,7 +6775,7 @@
         <v>229</v>
       </c>
       <c r="F315">
-        <v>0.21750259999998889</v>
+        <v>0.1856973000000153</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.45">
@@ -6792,10 +6792,10 @@
         <v>11</v>
       </c>
       <c r="E316">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="F316">
-        <v>0.40392880000001702</v>
+        <v>0.26652749999999509</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.45">
@@ -6815,7 +6815,7 @@
         <v>355</v>
       </c>
       <c r="F317">
-        <v>0.33739600000001252</v>
+        <v>0.28146980000002492</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.45">
@@ -6835,7 +6835,7 @@
         <v>161</v>
       </c>
       <c r="F318">
-        <v>0.13697739999997791</v>
+        <v>0.1280921999999691</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.45">
@@ -6855,7 +6855,7 @@
         <v>161</v>
       </c>
       <c r="F319">
-        <v>0.1166653000000224</v>
+        <v>0.1186548999999673</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.45">
@@ -6875,7 +6875,7 @@
         <v>161</v>
       </c>
       <c r="F320">
-        <v>0.11448180000002139</v>
+        <v>0.13366740000003571</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.45">
@@ -6889,13 +6889,13 @@
         <v>13</v>
       </c>
       <c r="D321">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E321">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F321">
-        <v>0.10535389999995461</v>
+        <v>0.15253200000000791</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.45">
@@ -6915,7 +6915,7 @@
         <v>115</v>
       </c>
       <c r="F322">
-        <v>0.1209483000000091</v>
+        <v>0.1255603000000178</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.45">
@@ -6935,7 +6935,7 @@
         <v>115</v>
       </c>
       <c r="F323">
-        <v>0.1113985000000071</v>
+        <v>0.16793810000001491</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.45">
@@ -6955,7 +6955,7 @@
         <v>100</v>
       </c>
       <c r="F324">
-        <v>0.1101109999999608</v>
+        <v>9.926490000003696E-2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.45">
@@ -6972,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="E325">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F325">
-        <v>0.10402310000000629</v>
+        <v>0.14462580000002839</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.45">
@@ -6995,7 +6995,7 @@
         <v>5413</v>
       </c>
       <c r="F326">
-        <v>6.7604622000000063</v>
+        <v>5.7016337000000021</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.45">
@@ -7015,7 +7015,7 @@
         <v>47</v>
       </c>
       <c r="F327">
-        <v>7.529069999998228E-2</v>
+        <v>5.9905599999979131E-2</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.45">
@@ -7035,7 +7035,7 @@
         <v>47</v>
       </c>
       <c r="F328">
-        <v>5.9589000000016767E-2</v>
+        <v>5.0780099999997219E-2</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.45">
@@ -7055,7 +7055,7 @@
         <v>47</v>
       </c>
       <c r="F329">
-        <v>6.180499999999256E-2</v>
+        <v>4.7148199999980989E-2</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.45">
@@ -7075,7 +7075,7 @@
         <v>35</v>
       </c>
       <c r="F330">
-        <v>4.5652399999994493E-2</v>
+        <v>4.3580800000029292E-2</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.45">
@@ -7095,7 +7095,7 @@
         <v>681</v>
       </c>
       <c r="F331">
-        <v>0.96607470000003559</v>
+        <v>0.84885140000000092</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.45">
@@ -7115,7 +7115,7 @@
         <v>681</v>
       </c>
       <c r="F332">
-        <v>0.96220610000000306</v>
+        <v>0.76631510000004255</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.45">
@@ -7135,7 +7135,7 @@
         <v>102</v>
       </c>
       <c r="F333">
-        <v>0.13013109999997141</v>
+        <v>0.1019480999999587</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.45">
@@ -7152,10 +7152,10 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F334">
-        <v>0.32531929999998971</v>
+        <v>0.26450239999996938</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.45">
@@ -7175,7 +7175,7 @@
         <v>107</v>
       </c>
       <c r="F335">
-        <v>7.5468699999987621E-2</v>
+        <v>5.9995499999956792E-2</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.45">
@@ -7195,7 +7195,7 @@
         <v>60</v>
       </c>
       <c r="F336">
-        <v>4.5918599999993148E-2</v>
+        <v>3.8733100000001741E-2</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.45">
@@ -7215,7 +7215,7 @@
         <v>60</v>
       </c>
       <c r="F337">
-        <v>4.3713800000034553E-2</v>
+        <v>3.6921199999994769E-2</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.45">
@@ -7235,7 +7235,7 @@
         <v>60</v>
       </c>
       <c r="F338">
-        <v>4.1318900000021593E-2</v>
+        <v>3.2114699999965517E-2</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.45">
@@ -7249,13 +7249,13 @@
         <v>13</v>
       </c>
       <c r="D339">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E339">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F339">
-        <v>7.3991000000035001E-2</v>
+        <v>2.691279999999097E-2</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.45">
@@ -7275,7 +7275,7 @@
         <v>88</v>
       </c>
       <c r="F340">
-        <v>6.987090000001217E-2</v>
+        <v>5.0285599999995163E-2</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.45">
@@ -7295,7 +7295,7 @@
         <v>88</v>
       </c>
       <c r="F341">
-        <v>6.5849400000047353E-2</v>
+        <v>4.6988999999996388E-2</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.45">
@@ -7315,7 +7315,7 @@
         <v>81</v>
       </c>
       <c r="F342">
-        <v>6.3463200000001052E-2</v>
+        <v>4.8111699999992652E-2</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.45">
@@ -7332,10 +7332,10 @@
         <v>10</v>
       </c>
       <c r="E343">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F343">
-        <v>6.6029600000035771E-2</v>
+        <v>4.7770999999954711E-2</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.45">
@@ -7355,7 +7355,7 @@
         <v>406</v>
       </c>
       <c r="F344">
-        <v>0.34914739999999261</v>
+        <v>0.3182760999999914</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.45">
@@ -7375,7 +7375,7 @@
         <v>88</v>
       </c>
       <c r="F345">
-        <v>9.6278099999949518E-2</v>
+        <v>6.6728200000000015E-2</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.45">
@@ -7395,7 +7395,7 @@
         <v>88</v>
       </c>
       <c r="F346">
-        <v>9.2762100000015835E-2</v>
+        <v>7.6464600000008431E-2</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.45">
@@ -7415,7 +7415,7 @@
         <v>88</v>
       </c>
       <c r="F347">
-        <v>9.6857400000033067E-2</v>
+        <v>8.5074700000006942E-2</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.45">
@@ -7429,13 +7429,13 @@
         <v>13</v>
       </c>
       <c r="D348">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E348">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F348">
-        <v>0.10902279999999109</v>
+        <v>8.4122300000046835E-2</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.45">
@@ -7455,7 +7455,7 @@
         <v>374</v>
       </c>
       <c r="F349">
-        <v>0.36085680000002179</v>
+        <v>0.28675479999998288</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.45">
@@ -7475,7 +7475,7 @@
         <v>374</v>
       </c>
       <c r="F350">
-        <v>0.33370639999998281</v>
+        <v>0.28581719999999677</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.45">
@@ -7495,7 +7495,7 @@
         <v>294</v>
       </c>
       <c r="F351">
-        <v>0.29319820000000618</v>
+        <v>0.22368999999997641</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.45">
@@ -7512,10 +7512,10 @@
         <v>9</v>
       </c>
       <c r="E352">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F352">
-        <v>0.3568175999999994</v>
+        <v>0.25300010000000839</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.45">
@@ -7535,7 +7535,7 @@
         <v>118</v>
       </c>
       <c r="F353">
-        <v>8.1464100000005146E-2</v>
+        <v>7.6798900000028425E-2</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.45">
@@ -7555,7 +7555,7 @@
         <v>35</v>
       </c>
       <c r="F354">
-        <v>2.6209199999982499E-2</v>
+        <v>2.375080000001617E-2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.45">
@@ -7575,7 +7575,7 @@
         <v>35</v>
       </c>
       <c r="F355">
-        <v>2.5239700000042831E-2</v>
+        <v>2.640930000001163E-2</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.45">
@@ -7595,7 +7595,7 @@
         <v>35</v>
       </c>
       <c r="F356">
-        <v>2.7214599999979331E-2</v>
+        <v>2.8562899999997171E-2</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.45">
@@ -7615,7 +7615,7 @@
         <v>27</v>
       </c>
       <c r="F357">
-        <v>1.7339600000013888E-2</v>
+        <v>2.086710000003222E-2</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.45">
@@ -7635,7 +7635,7 @@
         <v>55</v>
       </c>
       <c r="F358">
-        <v>4.8192900000003647E-2</v>
+        <v>4.2361099999993712E-2</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.45">
@@ -7655,7 +7655,7 @@
         <v>55</v>
       </c>
       <c r="F359">
-        <v>4.8321900000019007E-2</v>
+        <v>3.7240699999983917E-2</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.45">
@@ -7675,7 +7675,7 @@
         <v>45</v>
       </c>
       <c r="F360">
-        <v>3.9547499999969198E-2</v>
+        <v>4.0843100000017778E-2</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.45">
@@ -7692,10 +7692,10 @@
         <v>9</v>
       </c>
       <c r="E361">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F361">
-        <v>3.5869199999979173E-2</v>
+        <v>5.9510299999999461E-2</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.45">
@@ -7715,7 +7715,7 @@
         <v>201</v>
       </c>
       <c r="F362">
-        <v>0.1225448999999799</v>
+        <v>0.121906899999999</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.45">
@@ -7735,7 +7735,7 @@
         <v>73</v>
       </c>
       <c r="F363">
-        <v>4.838510000001861E-2</v>
+        <v>4.0517299999976331E-2</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.45">
@@ -7755,7 +7755,7 @@
         <v>73</v>
       </c>
       <c r="F364">
-        <v>5.2791700000000219E-2</v>
+        <v>5.7565400000044058E-2</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.45">
@@ -7775,7 +7775,7 @@
         <v>73</v>
       </c>
       <c r="F365">
-        <v>5.5959099999995487E-2</v>
+        <v>5.1722999999981312E-2</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.45">
@@ -7792,10 +7792,10 @@
         <v>13</v>
       </c>
       <c r="E366">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F366">
-        <v>5.3646700000001601E-2</v>
+        <v>4.9381200000027548E-2</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.45">
@@ -7815,7 +7815,7 @@
         <v>175</v>
       </c>
       <c r="F367">
-        <v>0.1290381999999681</v>
+        <v>0.11337809999997719</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.45">
@@ -7835,7 +7835,7 @@
         <v>175</v>
       </c>
       <c r="F368">
-        <v>0.14657840000000991</v>
+        <v>9.4918199999995068E-2</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.45">
@@ -7855,7 +7855,7 @@
         <v>129</v>
       </c>
       <c r="F369">
-        <v>9.4907500000033451E-2</v>
+        <v>0.1038518000000295</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.45">
@@ -7869,13 +7869,13 @@
         <v>13</v>
       </c>
       <c r="D370">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E370">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="F370">
-        <v>0.11534339999997199</v>
+        <v>0.13633689999994661</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.45">
@@ -7895,7 +7895,7 @@
         <v>482</v>
       </c>
       <c r="F371">
-        <v>0.39964570000000782</v>
+        <v>0.2852020000000266</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.45">
@@ -7915,7 +7915,7 @@
         <v>201</v>
       </c>
       <c r="F372">
-        <v>0.20600419999999531</v>
+        <v>0.17131710000001019</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.45">
@@ -7935,7 +7935,7 @@
         <v>201</v>
       </c>
       <c r="F373">
-        <v>0.1902167000000077</v>
+        <v>0.1715040999999928</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.45">
@@ -7955,7 +7955,7 @@
         <v>201</v>
       </c>
       <c r="F374">
-        <v>0.18648730000001021</v>
+        <v>0.1383352999999943</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.45">
@@ -7969,13 +7969,13 @@
         <v>13</v>
       </c>
       <c r="D375">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E375">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F375">
-        <v>0.26841559999996889</v>
+        <v>0.18995689999997009</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.45">
@@ -7995,7 +7995,7 @@
         <v>487</v>
       </c>
       <c r="F376">
-        <v>0.52441439999995509</v>
+        <v>0.38210240000000789</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.45">
@@ -8015,7 +8015,7 @@
         <v>487</v>
       </c>
       <c r="F377">
-        <v>0.50362330000001521</v>
+        <v>0.40574800000001687</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.45">
@@ -8035,7 +8035,7 @@
         <v>395</v>
       </c>
       <c r="F378">
-        <v>0.4545332000000144</v>
+        <v>0.31510159999999132</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.45">
@@ -8052,10 +8052,10 @@
         <v>11</v>
       </c>
       <c r="E379">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="F379">
-        <v>0.51509909999998627</v>
+        <v>0.31748379999999088</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.45">
@@ -8075,7 +8075,7 @@
         <v>130</v>
       </c>
       <c r="F380">
-        <v>9.3270300000028783E-2</v>
+        <v>7.2166600000002745E-2</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.45">
@@ -8095,7 +8095,7 @@
         <v>67</v>
       </c>
       <c r="F381">
-        <v>5.0906099999963317E-2</v>
+        <v>5.8463899999992457E-2</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.45">
@@ -8115,7 +8115,7 @@
         <v>67</v>
       </c>
       <c r="F382">
-        <v>5.150599999996075E-2</v>
+        <v>5.6186999999965792E-2</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.45">
@@ -8135,7 +8135,7 @@
         <v>67</v>
       </c>
       <c r="F383">
-        <v>5.1283100000034658E-2</v>
+        <v>3.9485000000013322E-2</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.45">
@@ -8149,13 +8149,13 @@
         <v>13</v>
       </c>
       <c r="D384">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E384">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F384">
-        <v>4.6416000000022002E-2</v>
+        <v>3.4528899999997982E-2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.45">
@@ -8175,7 +8175,7 @@
         <v>118</v>
       </c>
       <c r="F385">
-        <v>8.5540100000002894E-2</v>
+        <v>7.595969999999852E-2</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.45">
@@ -8195,7 +8195,7 @@
         <v>118</v>
       </c>
       <c r="F386">
-        <v>8.6598299999991468E-2</v>
+        <v>7.7221099999974285E-2</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.45">
@@ -8215,7 +8215,7 @@
         <v>112</v>
       </c>
       <c r="F387">
-        <v>8.4364199999981793E-2</v>
+        <v>6.7949199999986831E-2</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.45">
@@ -8232,10 +8232,10 @@
         <v>11</v>
       </c>
       <c r="E388">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F388">
-        <v>8.4487699999954202E-2</v>
+        <v>7.2310200000003988E-2</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.45">
@@ -8255,7 +8255,7 @@
         <v>6961</v>
       </c>
       <c r="F389">
-        <v>8.6584145999999578</v>
+        <v>7.1349508000000128</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.45">
@@ -8275,7 +8275,7 @@
         <v>317</v>
       </c>
       <c r="F390">
-        <v>0.36937499999999091</v>
+        <v>0.36007299999999992</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.45">
@@ -8295,7 +8295,7 @@
         <v>317</v>
       </c>
       <c r="F391">
-        <v>0.37735019999996672</v>
+        <v>0.28870679999999987</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.45">
@@ -8315,7 +8315,7 @@
         <v>317</v>
       </c>
       <c r="F392">
-        <v>0.31236159999997432</v>
+        <v>0.2997562999999559</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.45">
@@ -8329,13 +8329,13 @@
         <v>13</v>
       </c>
       <c r="D393">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E393">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F393">
-        <v>9.0373999999997068E-2</v>
+        <v>0.15233989999995859</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.45">
@@ -8355,7 +8355,7 @@
         <v>6954</v>
       </c>
       <c r="F394">
-        <v>10.918311100000039</v>
+        <v>8.1062678999999775</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.45">
@@ -8375,7 +8375,7 @@
         <v>6954</v>
       </c>
       <c r="F395">
-        <v>11.20463570000004</v>
+        <v>8.266913299999942</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.45">
@@ -8395,7 +8395,7 @@
         <v>1641</v>
       </c>
       <c r="F396">
-        <v>3.256787599999996</v>
+        <v>2.4670101000000391</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.45">
@@ -8412,10 +8412,10 @@
         <v>12</v>
       </c>
       <c r="E397">
-        <v>2135</v>
+        <v>1839</v>
       </c>
       <c r="F397">
-        <v>4.4503219000000058</v>
+        <v>3.192092099999968</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.45">
@@ -8435,7 +8435,7 @@
         <v>253</v>
       </c>
       <c r="F398">
-        <v>0.17281430000002729</v>
+        <v>0.19911430000001931</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.45">
@@ -8455,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="F399">
-        <v>6.1503200000004199E-2</v>
+        <v>5.7603399999948117E-2</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.45">
@@ -8475,7 +8475,7 @@
         <v>78</v>
       </c>
       <c r="F400">
-        <v>6.3453400000014426E-2</v>
+        <v>5.737140000007912E-2</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.45">
@@ -8495,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="F401">
-        <v>5.633269999998447E-2</v>
+        <v>5.3484300000036462E-2</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.45">
@@ -8509,13 +8509,13 @@
         <v>13</v>
       </c>
       <c r="D402">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E402">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F402">
-        <v>7.4883499999998548E-2</v>
+        <v>8.340469999996003E-2</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.45">
@@ -8535,7 +8535,7 @@
         <v>251</v>
       </c>
       <c r="F403">
-        <v>0.208585400000004</v>
+        <v>0.20891440000002601</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.45">
@@ -8555,7 +8555,7 @@
         <v>251</v>
       </c>
       <c r="F404">
-        <v>0.20720470000003391</v>
+        <v>0.28982949999999619</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.45">
@@ -8575,7 +8575,7 @@
         <v>248</v>
       </c>
       <c r="F405">
-        <v>0.20077379999997899</v>
+        <v>0.205725799999982</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.45">
@@ -8592,10 +8592,10 @@
         <v>12</v>
       </c>
       <c r="E406">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F406">
-        <v>0.17524389999999809</v>
+        <v>0.20392340000000789</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.45">
@@ -8615,7 +8615,7 @@
         <v>225</v>
       </c>
       <c r="F407">
-        <v>0.14580089999998341</v>
+        <v>0.14995840000005961</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.45">
@@ -8635,7 +8635,7 @@
         <v>121</v>
       </c>
       <c r="F408">
-        <v>7.1793800000023111E-2</v>
+        <v>0.18484929999999619</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.45">
@@ -8655,7 +8655,7 @@
         <v>121</v>
       </c>
       <c r="F409">
-        <v>7.4207800000010593E-2</v>
+        <v>8.7396099999978105E-2</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.45">
@@ -8675,7 +8675,7 @@
         <v>121</v>
       </c>
       <c r="F410">
-        <v>6.9687799999996969E-2</v>
+        <v>6.8935600000031627E-2</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.45">
@@ -8689,13 +8689,13 @@
         <v>13</v>
       </c>
       <c r="D411">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E411">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F411">
-        <v>5.5612900000028283E-2</v>
+        <v>7.7017899999987094E-2</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.45">
@@ -8715,7 +8715,7 @@
         <v>215</v>
       </c>
       <c r="F412">
-        <v>0.15583909999998011</v>
+        <v>0.15517079999995079</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.45">
@@ -8735,7 +8735,7 @@
         <v>215</v>
       </c>
       <c r="F413">
-        <v>0.15747420000002421</v>
+        <v>0.1729252000000088</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.45">
@@ -8755,7 +8755,7 @@
         <v>150</v>
       </c>
       <c r="F414">
-        <v>0.1028152999999747</v>
+        <v>9.1681499999936023E-2</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.45">
@@ -8772,10 +8772,10 @@
         <v>13</v>
       </c>
       <c r="E415">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F415">
-        <v>0.1619771999999671</v>
+        <v>0.12654439999994341</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.45">
@@ -8795,7 +8795,7 @@
         <v>1449</v>
       </c>
       <c r="F416">
-        <v>1.6838286999999921</v>
+        <v>1.460915099999966</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.45">
@@ -8815,7 +8815,7 @@
         <v>372</v>
       </c>
       <c r="F417">
-        <v>0.47526009999995722</v>
+        <v>0.33683689999998018</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.45">
@@ -8835,7 +8835,7 @@
         <v>372</v>
       </c>
       <c r="F418">
-        <v>0.45282329999997728</v>
+        <v>0.3435432999999648</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.45">
@@ -8855,7 +8855,7 @@
         <v>372</v>
       </c>
       <c r="F419">
-        <v>0.42723280000001301</v>
+        <v>0.30399599999998372</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.45">
@@ -8869,13 +8869,13 @@
         <v>13</v>
       </c>
       <c r="D420">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E420">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="F420">
-        <v>0.27328299999999223</v>
+        <v>0.30067289999999502</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.45">
@@ -8895,7 +8895,7 @@
         <v>959</v>
       </c>
       <c r="F421">
-        <v>1.3397838000000211</v>
+        <v>1.037595399999987</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.45">
@@ -8915,7 +8915,7 @@
         <v>959</v>
       </c>
       <c r="F422">
-        <v>0.96882009999995944</v>
+        <v>0.97363640000003215</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.45">
@@ -8935,7 +8935,7 @@
         <v>648</v>
       </c>
       <c r="F423">
-        <v>0.77863949999999704</v>
+        <v>0.6658457000000908</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.45">
@@ -8952,10 +8952,10 @@
         <v>14</v>
       </c>
       <c r="E424">
-        <v>783</v>
+        <v>597</v>
       </c>
       <c r="F424">
-        <v>1.0191731000000459</v>
+        <v>0.61297479999996085</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.45">
@@ -8975,7 +8975,7 @@
         <v>870</v>
       </c>
       <c r="F425">
-        <v>0.72657460000004903</v>
+        <v>0.63775659999998879</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.45">
@@ -8995,7 +8995,7 @@
         <v>215</v>
       </c>
       <c r="F426">
-        <v>0.20346390000003109</v>
+        <v>0.1691424000000552</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.45">
@@ -9015,7 +9015,7 @@
         <v>215</v>
       </c>
       <c r="F427">
-        <v>0.19272059999997279</v>
+        <v>0.16853149999997191</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.45">
@@ -9035,7 +9035,7 @@
         <v>215</v>
       </c>
       <c r="F428">
-        <v>0.2038560999999959</v>
+        <v>0.1985394999999244</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.45">
@@ -9049,13 +9049,13 @@
         <v>13</v>
       </c>
       <c r="D429">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E429">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="F429">
-        <v>0.24722910000002679</v>
+        <v>0.26270190000002458</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.45">
@@ -9075,7 +9075,7 @@
         <v>1322</v>
       </c>
       <c r="F430">
-        <v>1.221176799999967</v>
+        <v>1.2029376000000409</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.45">
@@ -9095,7 +9095,7 @@
         <v>1322</v>
       </c>
       <c r="F431">
-        <v>1.3761159000000021</v>
+        <v>1.2438527000000481</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.45">
@@ -9115,7 +9115,7 @@
         <v>756</v>
       </c>
       <c r="F432">
-        <v>1.0321159999999741</v>
+        <v>0.72090169999989939</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.45">
@@ -9132,10 +9132,10 @@
         <v>14</v>
       </c>
       <c r="E433">
-        <v>1258</v>
+        <v>1183</v>
       </c>
       <c r="F433">
-        <v>1.6707049999999981</v>
+        <v>1.406023699999992</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.45">
@@ -9155,7 +9155,7 @@
         <v>281</v>
       </c>
       <c r="F434">
-        <v>0.30732749999998532</v>
+        <v>0.25171640000007761</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.45">
@@ -9175,7 +9175,7 @@
         <v>89</v>
       </c>
       <c r="F435">
-        <v>9.3242900000007012E-2</v>
+        <v>8.7324700000067423E-2</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.45">
@@ -9195,7 +9195,7 @@
         <v>89</v>
       </c>
       <c r="F436">
-        <v>9.7588000000030206E-2</v>
+        <v>8.4938899999997375E-2</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.45">
@@ -9215,7 +9215,7 @@
         <v>89</v>
       </c>
       <c r="F437">
-        <v>0.12681140000000821</v>
+        <v>7.8397100000074715E-2</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.45">
@@ -9229,13 +9229,13 @@
         <v>13</v>
       </c>
       <c r="D438">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E438">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F438">
-        <v>9.4620899999995345E-2</v>
+        <v>8.6796899999967536E-2</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.45">
@@ -9255,7 +9255,7 @@
         <v>167</v>
       </c>
       <c r="F439">
-        <v>0.1832426999999939</v>
+        <v>0.18772699999999529</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.45">
@@ -9275,7 +9275,7 @@
         <v>167</v>
       </c>
       <c r="F440">
-        <v>0.1804374000000166</v>
+        <v>0.1397139000000607</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.45">
@@ -9295,7 +9295,7 @@
         <v>89</v>
       </c>
       <c r="F441">
-        <v>9.5475599999986116E-2</v>
+        <v>8.0296900000007554E-2</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.45">
@@ -9309,13 +9309,13 @@
         <v>13</v>
       </c>
       <c r="D442">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E442">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="F442">
-        <v>0.14111120000001159</v>
+        <v>0.16404489999990801</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.45">
@@ -9335,7 +9335,7 @@
         <v>524</v>
       </c>
       <c r="F443">
-        <v>0.40721020000000863</v>
+        <v>0.35383750000005421</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.45">
@@ -9355,7 +9355,7 @@
         <v>104</v>
       </c>
       <c r="F444">
-        <v>8.0411900000001424E-2</v>
+        <v>6.8750000000022737E-2</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.45">
@@ -9375,7 +9375,7 @@
         <v>104</v>
       </c>
       <c r="F445">
-        <v>7.8967599999998583E-2</v>
+        <v>6.855710000002091E-2</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.45">
@@ -9395,7 +9395,7 @@
         <v>104</v>
       </c>
       <c r="F446">
-        <v>8.3174299999996038E-2</v>
+        <v>0.1197531000000254</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.45">
@@ -9409,13 +9409,13 @@
         <v>13</v>
       </c>
       <c r="D447">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E447">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F447">
-        <v>7.6155599999992774E-2</v>
+        <v>6.525299999998424E-2</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.45">
@@ -9435,7 +9435,7 @@
         <v>587</v>
       </c>
       <c r="F448">
-        <v>0.53987580000000435</v>
+        <v>0.41806069999995538</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.45">
@@ -9455,7 +9455,7 @@
         <v>587</v>
       </c>
       <c r="F449">
-        <v>0.51828210000002173</v>
+        <v>0.39561079999998577</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.45">
@@ -9475,7 +9475,7 @@
         <v>350</v>
       </c>
       <c r="F450">
-        <v>0.35912450000000717</v>
+        <v>0.27504499999997728</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.45">
@@ -9492,10 +9492,10 @@
         <v>16</v>
       </c>
       <c r="E451">
-        <v>532</v>
+        <v>342</v>
       </c>
       <c r="F451">
-        <v>0.55246849999997494</v>
+        <v>0.24366359999999079</v>
       </c>
     </row>
   </sheetData>
@@ -9508,15 +9508,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="27.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -9543,7 +9538,7 @@
         <v>1947.48</v>
       </c>
       <c r="C2">
-        <v>1.3136059099999979</v>
+        <v>1.7414692500000051</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -9560,7 +9555,7 @@
         <v>579.72</v>
       </c>
       <c r="C3">
-        <v>0.36696117599999778</v>
+        <v>0.5420745900000018</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -9577,7 +9572,7 @@
         <v>579.72</v>
       </c>
       <c r="C4">
-        <v>0.36001787200000313</v>
+        <v>0.53357814399999692</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -9594,7 +9589,7 @@
         <v>579.72</v>
       </c>
       <c r="C5">
-        <v>0.36130874200000052</v>
+        <v>0.63278653199999979</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -9605,13 +9600,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>25.34</v>
+        <v>23.7</v>
       </c>
       <c r="B6">
-        <v>527.29999999999995</v>
+        <v>541</v>
       </c>
       <c r="C6">
-        <v>0.33799796800000032</v>
+        <v>0.56590104599999902</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -9628,7 +9623,7 @@
         <v>1527.4</v>
       </c>
       <c r="C7">
-        <v>1.1205694920000031</v>
+        <v>1.584538128000003</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -9645,7 +9640,7 @@
         <v>1527.4</v>
       </c>
       <c r="C8">
-        <v>1.1146095520000019</v>
+        <v>1.5582694060000011</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -9662,7 +9657,7 @@
         <v>1797.26</v>
       </c>
       <c r="C9">
-        <v>1.504325504000001</v>
+        <v>1.912501365999995</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -9673,13 +9668,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>14.24</v>
+        <v>14.34</v>
       </c>
       <c r="B10">
-        <v>1234.8399999999999</v>
+        <v>1261.6600000000001</v>
       </c>
       <c r="C10">
-        <v>0.98154595400000122</v>
+        <v>1.518954613999991</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -9690,6 +9685,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>